--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
   <si>
     <t>Save Date</t>
   </si>
@@ -42,7 +42,7 @@
     <t>DDR5 16G (2Gx8) 4800/5600</t>
   </si>
   <si>
-    <t xml:space="preserve">Oct.8 2025    11:00 </t>
+    <t xml:space="preserve">Oct.8 2025    14:40 </t>
   </si>
   <si>
     <t>DDR4 16Gb (1Gx16)3200</t>
@@ -85,13 +85,121 @@
   </si>
   <si>
     <t>DDR4 RDIMM 16GB 3200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct.2 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Oct.1 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.30 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.29 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.26 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.25 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.24 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.23 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.22 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.19 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.18 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.17 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Sep.16 2025    14:40 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep.15 2025    14:39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep.12 2025    14:38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep.11 2025    14:37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep.10 2025    14:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep.09 2025    14:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep.08 2025    14:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sep.05 2025    14:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug.29 2025    14:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug.28 2025    14:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug.27 2025    14:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug.26 2025    14:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug.25 2025    14:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug.22 2025    14:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aug.19 2025    14:36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +220,12 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -149,10 +263,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,22 +577,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
   <cols>
     <col min="1" max="1" width="10.5625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.9375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.0625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,224 +609,683 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>45888</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>6.1669999999999998</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>45891</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3">
+        <v>6.05</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-0.54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2">
+        <v>45894</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3">
+        <v>6.0330000000000004</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-0.23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2">
+        <v>45895</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.0170000000000003</v>
+      </c>
+      <c r="D5" s="3">
+        <v>-0.27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2">
+        <v>45896</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.9669999999999996</v>
+      </c>
+      <c r="D6" s="3">
+        <v>-0.33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2">
+        <v>45897</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>6.0330000000000004</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2">
+        <v>45898</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6.17</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="2">
+        <v>45905</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3">
+        <v>6.05</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>45908</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="3">
+        <v>6.05</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>45909</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="3">
+        <v>6.05</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2">
+        <v>45910</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>6.05</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="2">
+        <v>45911</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="3">
+        <v>6.0830000000000002</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>45912</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6.2</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>45915</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6.2160000000000002</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>45916</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>45917</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="3">
+        <v>6.3250000000000002</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.99</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>45918</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3">
+        <v>6.6120000000000001</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1.47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>45919</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>6.7759999999999998</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45922</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="3">
+        <v>6.9089999999999998</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.95</v>
+      </c>
+      <c r="E20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>45923</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>7.0090000000000003</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>45924</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="3">
+        <v>7.109</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1.43</v>
+      </c>
+      <c r="E22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>45925</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="3">
+        <v>7.3490000000000002</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2.21</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>45926</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="3">
+        <v>7.4749999999999996</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.86</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>45929</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="3">
+        <v>7.5350000000000001</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>45930</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>7.5730000000000004</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>45932</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>7.9489999999999998</v>
+      </c>
+      <c r="D27">
+        <v>0.9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>45931</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="3">
+        <v>7.8159999999999998</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1.82</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2">
-        <v>8.3059999999999992</v>
-      </c>
-      <c r="D2">
-        <v>0.78</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29">
+        <v>8.3279999999999994</v>
+      </c>
+      <c r="D29">
+        <v>1.04</v>
+      </c>
+      <c r="E29" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A3" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B30" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C30">
         <v>21.187999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D30">
         <v>0.71</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E30" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A4" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B31" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
-        <v>14.509</v>
-      </c>
-      <c r="D4">
-        <v>1.33</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C31">
+        <v>14.573</v>
+      </c>
+      <c r="D31">
+        <v>1.78</v>
+      </c>
+      <c r="E31" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A5" t="s">
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="C5">
+      <c r="C32">
         <v>6.5839999999999996</v>
       </c>
-      <c r="D5">
+      <c r="D32">
         <v>0.61</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E32" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A6" t="s">
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B33" t="s">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>7.4630000000000001</v>
-      </c>
-      <c r="D6">
-        <v>0.17</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C33">
+        <v>7.5129999999999999</v>
+      </c>
+      <c r="D33">
+        <v>0.85</v>
+      </c>
+      <c r="E33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A7" t="s">
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="C7">
+      <c r="C34">
         <v>2.4750000000000001</v>
       </c>
-      <c r="D7">
+      <c r="D34">
         <v>1.02</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E34" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A8" t="s">
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="C8">
+      <c r="C35">
         <v>1.0760000000000001</v>
       </c>
-      <c r="D8">
+      <c r="D35">
         <v>1.41</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A9" t="s">
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B36" t="s">
         <v>15</v>
       </c>
-      <c r="C9">
+      <c r="C36">
         <v>0.96</v>
       </c>
-      <c r="D9">
+      <c r="D36">
         <v>0.74</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A10" t="s">
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B37" t="s">
         <v>16</v>
       </c>
-      <c r="C10">
+      <c r="C37">
         <v>6.1849999999999996</v>
       </c>
-      <c r="D10">
+      <c r="D37">
         <v>0.41</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E37" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A11" t="s">
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B38" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="C38">
         <v>3.5680000000000001</v>
       </c>
-      <c r="D11">
+      <c r="D38">
         <v>0.68</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A12" t="s">
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
         <v>5</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B39" t="s">
         <v>18</v>
       </c>
-      <c r="C12">
+      <c r="C39">
         <v>18.7</v>
       </c>
-      <c r="D12">
+      <c r="D39">
         <v>0.64</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E39" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A13" t="s">
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
         <v>5</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B40" t="s">
         <v>20</v>
       </c>
-      <c r="C13">
+      <c r="C40">
         <v>17.782</v>
       </c>
-      <c r="D13">
+      <c r="D40">
         <v>1.5</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E40" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A14" t="s">
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
         <v>5</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B41" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
+      <c r="C41">
         <v>138</v>
       </c>
-      <c r="D14">
+      <c r="D41">
         <v>-0.72</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E41" t="s">
         <v>19</v>
       </c>
     </row>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="76">
   <si>
     <t>Save Date</t>
   </si>
@@ -36,170 +36,224 @@
     <t>Update Time</t>
   </si>
   <si>
+    <t>DDR4 RDIMM 16GB 3200</t>
+  </si>
+  <si>
+    <t>Oct.6 2025    14:40</t>
+  </si>
+  <si>
+    <t>SLC 2Gb 256MBx8</t>
+  </si>
+  <si>
+    <t>Sep.29 2025    14:40</t>
+  </si>
+  <si>
+    <t>DDR4 16Gb (1Gx16)3200</t>
+  </si>
+  <si>
+    <t>DDR4 16Gb (2Gx8)3200</t>
+  </si>
+  <si>
+    <t>DDR4 8Gb (1Gx8) 3200</t>
+  </si>
+  <si>
+    <t>DDR4 8Gb (512Mx16) 3200</t>
+  </si>
+  <si>
+    <t>DDR3 4Gb 512Mx8 1600/1866</t>
+  </si>
+  <si>
+    <t>DDR5 16G (2Gx8) 4800/5600</t>
+  </si>
+  <si>
+    <t>SLC 1Gb 128MBx8</t>
+  </si>
+  <si>
+    <t>MLC 32Gb 4GBx8</t>
+  </si>
+  <si>
+    <t>DDR4 SODIMM 8GB 2666</t>
+  </si>
+  <si>
+    <t>DDR4 UDIMM 8GB 2666</t>
+  </si>
+  <si>
+    <t>MLC 64Gb 8GBx8</t>
+  </si>
+  <si>
     <t>2025-10-08</t>
   </si>
   <si>
-    <t>DDR5 16G (2Gx8) 4800/5600</t>
-  </si>
-  <si>
     <t xml:space="preserve">Oct.8 2025    14:40 </t>
   </si>
   <si>
-    <t>DDR4 16Gb (1Gx16)3200</t>
-  </si>
-  <si>
-    <t>DDR4 16Gb (2Gx8)3200</t>
-  </si>
-  <si>
-    <t>DDR4 8Gb (1Gx8) 3200</t>
-  </si>
-  <si>
-    <t>DDR4 8Gb (512Mx16) 3200</t>
-  </si>
-  <si>
-    <t>DDR3 4Gb 512Mx8 1600/1866</t>
-  </si>
-  <si>
-    <t>SLC 2Gb 256MBx8</t>
-  </si>
-  <si>
-    <t>Sep.29 2025    14:40</t>
-  </si>
-  <si>
-    <t>SLC 1Gb 128MBx8</t>
-  </si>
-  <si>
-    <t>MLC 64Gb 8GBx8</t>
-  </si>
-  <si>
-    <t>MLC 32Gb 4GBx8</t>
-  </si>
-  <si>
-    <t>DDR4 SODIMM 8GB 2666</t>
-  </si>
-  <si>
-    <t>Oct.6 2025    14:40</t>
-  </si>
-  <si>
-    <t>DDR4 UDIMM 8GB 2666</t>
-  </si>
-  <si>
-    <t>DDR4 RDIMM 16GB 3200</t>
+    <t>2025-10-02</t>
   </si>
   <si>
     <t xml:space="preserve">Oct.2 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-10-01</t>
   </si>
   <si>
     <t xml:space="preserve">Oct.1 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-30</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.30 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-29</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.29 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-26</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.26 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-25</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.25 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-24</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.24 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-23</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.23 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-22</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.22 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-19</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.19 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-18</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.18 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-17</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.17 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-16</t>
   </si>
   <si>
     <t xml:space="preserve">Sep.16 2025    14:40 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-15</t>
   </si>
   <si>
     <t>Sep.15 2025    14:39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-12</t>
   </si>
   <si>
     <t>Sep.12 2025    14:38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-11</t>
   </si>
   <si>
     <t>Sep.11 2025    14:37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-10</t>
   </si>
   <si>
     <t>Sep.10 2025    14:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-09</t>
   </si>
   <si>
     <t>Sep.09 2025    14:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-08</t>
   </si>
   <si>
     <t>Sep.08 2025    14:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-09-05</t>
   </si>
   <si>
     <t>Sep.05 2025    14:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-29</t>
   </si>
   <si>
     <t>Aug.29 2025    14:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-28</t>
   </si>
   <si>
     <t>Aug.28 2025    14:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-27</t>
   </si>
   <si>
     <t>Aug.27 2025    14:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-26</t>
   </si>
   <si>
     <t>Aug.26 2025    14:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-25</t>
   </si>
   <si>
     <t>Aug.25 2025    14:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-22</t>
   </si>
   <si>
     <t>Aug.22 2025    14:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2025-08-19</t>
   </si>
   <si>
     <t>Aug.19 2025    14:36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,12 +274,6 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,17 +311,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,20 +620,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999"/>
+  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="10.5625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.9375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.0625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,684 +646,684 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="2">
-        <v>45888</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A2" t="s">
+        <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0.96</v>
+      </c>
+      <c r="D2">
+        <v>0.74</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>14.573</v>
+      </c>
+      <c r="D3">
+        <v>1.78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>6.5839999999999996</v>
+      </c>
+      <c r="D4">
+        <v>0.61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>7.5129999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.85</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>2.4750000000000001</v>
+      </c>
+      <c r="D6">
+        <v>1.02</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="D7">
+        <v>1.41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>3.5680000000000001</v>
+      </c>
+      <c r="D8">
+        <v>0.68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9">
+        <v>6.1849999999999996</v>
+      </c>
+      <c r="D9">
+        <v>0.41</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>18.7</v>
+      </c>
+      <c r="D10">
+        <v>0.64</v>
+      </c>
+      <c r="E10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3">
-        <v>6.1669999999999998</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2">
-        <v>45891</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>17.782</v>
+      </c>
+      <c r="D11">
+        <v>1.5</v>
+      </c>
+      <c r="E11" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <v>6.05</v>
-      </c>
-      <c r="D3" s="4">
-        <v>-0.54</v>
-      </c>
-      <c r="E3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
-        <v>45894</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>138</v>
+      </c>
+      <c r="D12">
+        <v>-0.72</v>
+      </c>
+      <c r="E12" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3">
-        <v>6.0330000000000004</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-0.23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
-        <v>45895</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.0170000000000003</v>
-      </c>
-      <c r="D5" s="3">
-        <v>-0.27</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
-        <v>45896</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5.9669999999999996</v>
-      </c>
-      <c r="D6" s="3">
-        <v>-0.33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
-        <v>45897</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3">
-        <v>6.0330000000000004</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2">
-        <v>45898</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3">
-        <v>6.17</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
-        <v>45905</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="3">
-        <v>6.05</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
-        <v>45908</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6.05</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2">
-        <v>45909</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3">
-        <v>6.05</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2">
-        <v>45910</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="3">
-        <v>6.05</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="2">
-        <v>45911</v>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A13" t="s">
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="3">
-        <v>6.0830000000000002</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.26</v>
+        <v>14</v>
+      </c>
+      <c r="C13">
+        <v>8.3279999999999994</v>
+      </c>
+      <c r="D13">
+        <v>1.04</v>
       </c>
       <c r="E13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2">
-        <v>45912</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A14" t="s">
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6.2</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1.0900000000000001</v>
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>21.187999999999999</v>
+      </c>
+      <c r="D14">
+        <v>0.71</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2">
-        <v>45915</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A15" t="s">
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6.2160000000000002</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.26</v>
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>7.9489999999999998</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="2">
-        <v>45916</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A16" t="s">
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3">
-        <v>6.2309999999999999</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.24</v>
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>7.8159999999999998</v>
+      </c>
+      <c r="D16">
+        <v>1.82</v>
       </c>
       <c r="E16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2">
-        <v>45917</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A17" t="s">
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="3">
-        <v>6.3250000000000002</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.99</v>
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <v>7.5730000000000004</v>
+      </c>
+      <c r="D17">
+        <v>0.5</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
-        <v>45918</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A18" t="s">
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="3">
-        <v>6.6120000000000001</v>
-      </c>
-      <c r="D18" s="3">
-        <v>1.47</v>
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>7.5350000000000001</v>
+      </c>
+      <c r="D18">
+        <v>0.8</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>45919</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A19" t="s">
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3">
-        <v>6.7759999999999998</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.73</v>
+        <v>14</v>
+      </c>
+      <c r="C19">
+        <v>7.4749999999999996</v>
+      </c>
+      <c r="D19">
+        <v>0.86</v>
       </c>
       <c r="E19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
-        <v>45922</v>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A20" t="s">
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="3">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>7.3490000000000002</v>
+      </c>
+      <c r="D20">
+        <v>2.21</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21">
+        <v>7.109</v>
+      </c>
+      <c r="D21">
+        <v>1.43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22">
+        <v>7.0090000000000003</v>
+      </c>
+      <c r="D22">
+        <v>1.18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23">
         <v>6.9089999999999998</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D23">
         <v>0.95</v>
       </c>
-      <c r="E20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2">
-        <v>45923</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3">
-        <v>7.0090000000000003</v>
-      </c>
-      <c r="D21" s="3">
-        <v>1.18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2">
-        <v>45924</v>
-      </c>
-      <c r="B22" t="s">
-        <v>6</v>
-      </c>
-      <c r="C22" s="3">
-        <v>7.109</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1.43</v>
-      </c>
-      <c r="E22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2">
-        <v>45925</v>
-      </c>
-      <c r="B23" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="3">
-        <v>7.3490000000000002</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2.21</v>
-      </c>
       <c r="E23" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="2">
-        <v>45926</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A24" t="s">
+        <v>40</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="3">
-        <v>7.4749999999999996</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.86</v>
+        <v>14</v>
+      </c>
+      <c r="C24">
+        <v>6.7759999999999998</v>
+      </c>
+      <c r="D24">
+        <v>0.73</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="2">
-        <v>45929</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A25" t="s">
+        <v>42</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="3">
-        <v>7.5350000000000001</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.8</v>
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>6.6120000000000001</v>
+      </c>
+      <c r="D25">
+        <v>1.47</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="2">
-        <v>45930</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A26" t="s">
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" s="3">
-        <v>7.5730000000000004</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="C26">
+        <v>6.3250000000000002</v>
+      </c>
+      <c r="D26">
+        <v>0.99</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
-        <v>45932</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A27" t="s">
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C27">
-        <v>7.9489999999999998</v>
+        <v>6.2309999999999999</v>
       </c>
       <c r="D27">
-        <v>0.9</v>
+        <v>0.24</v>
       </c>
       <c r="E27" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2">
-        <v>45931</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A28" t="s">
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="3">
-        <v>7.8159999999999998</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1.82</v>
+        <v>14</v>
+      </c>
+      <c r="C28">
+        <v>6.2160000000000002</v>
+      </c>
+      <c r="D28">
+        <v>0.26</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C29">
-        <v>8.3279999999999994</v>
+        <v>6.2</v>
       </c>
       <c r="D29">
-        <v>1.04</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>5</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C30">
-        <v>21.187999999999999</v>
+        <v>6.0830000000000002</v>
       </c>
       <c r="D30">
-        <v>0.71</v>
+        <v>0.26</v>
       </c>
       <c r="E30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>5</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C31">
-        <v>14.573</v>
+        <v>6.05</v>
       </c>
       <c r="D31">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C32">
-        <v>6.5839999999999996</v>
+        <v>6.05</v>
       </c>
       <c r="D32">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C33">
-        <v>7.5129999999999999</v>
+        <v>6.05</v>
       </c>
       <c r="D33">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C34">
-        <v>2.4750000000000001</v>
+        <v>6.05</v>
       </c>
       <c r="D34">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C35">
-        <v>1.0760000000000001</v>
+        <v>6.17</v>
       </c>
       <c r="D35">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>5</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>0.96</v>
+        <v>6.0330000000000004</v>
       </c>
       <c r="D36">
-        <v>0.74</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E36" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>6.1849999999999996</v>
+        <v>5.9669999999999996</v>
       </c>
       <c r="D37">
-        <v>0.41</v>
+        <v>-0.33</v>
       </c>
       <c r="E37" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C38">
-        <v>3.5680000000000001</v>
+        <v>6.0170000000000003</v>
       </c>
       <c r="D38">
-        <v>0.68</v>
+        <v>-0.27</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>18.7</v>
+        <v>6.0330000000000004</v>
       </c>
       <c r="D39">
-        <v>0.64</v>
+        <v>-0.23</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C40">
-        <v>17.782</v>
+        <v>6.05</v>
       </c>
       <c r="D40">
-        <v>1.5</v>
+        <v>-0.54</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>5</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C41">
-        <v>138</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="D41">
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="78">
   <si>
     <t>Save Date</t>
   </si>
@@ -317,12 +317,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -625,15 +624,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
   <cols>
     <col min="1" max="1" width="10.5625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.6">
@@ -654,20 +654,20 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A2" s="2">
-        <v>45940</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>8.577</v>
+        <v>138</v>
       </c>
       <c r="D2">
-        <v>1.23</v>
+        <v>-0.72</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.6">
@@ -675,13 +675,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>138</v>
+        <v>17.782</v>
       </c>
       <c r="D3">
-        <v>-0.72</v>
+        <v>1.5</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -692,13 +692,13 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>17.782</v>
+        <v>18.7</v>
       </c>
       <c r="D4">
-        <v>1.5</v>
+        <v>0.64</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -709,16 +709,16 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>18.7</v>
+        <v>3.5680000000000001</v>
       </c>
       <c r="D5">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.6">
@@ -726,13 +726,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
-        <v>3.5680000000000001</v>
+        <v>6.1849999999999996</v>
       </c>
       <c r="D6">
-        <v>0.68</v>
+        <v>0.41</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -743,13 +743,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7">
-        <v>6.1849999999999996</v>
+        <v>0.96</v>
       </c>
       <c r="D7">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -760,13 +760,13 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8">
-        <v>0.96</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="D8">
-        <v>0.74</v>
+        <v>1.41</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -777,16 +777,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9">
-        <v>1.0760000000000001</v>
+        <v>2.5750000000000002</v>
       </c>
       <c r="D9">
-        <v>1.41</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.6">
@@ -794,13 +794,13 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>2.5750000000000002</v>
+        <v>7.6630000000000003</v>
       </c>
       <c r="D10">
-        <v>2.4700000000000002</v>
+        <v>0.5</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
@@ -811,13 +811,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C11">
-        <v>7.6630000000000003</v>
+        <v>6.8559999999999999</v>
       </c>
       <c r="D11">
-        <v>0.5</v>
+        <v>1.57</v>
       </c>
       <c r="E11" t="s">
         <v>16</v>
@@ -828,13 +828,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
-        <v>6.8559999999999999</v>
+        <v>15.218</v>
       </c>
       <c r="D12">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="E12" t="s">
         <v>16</v>
@@ -845,13 +845,13 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C13">
-        <v>15.218</v>
+        <v>21.75</v>
       </c>
       <c r="D13">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
@@ -862,13 +862,13 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14">
-        <v>21.75</v>
+        <v>8.577</v>
       </c>
       <c r="D14">
-        <v>1.52</v>
+        <v>1.23</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
@@ -876,19 +876,19 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>8.577</v>
+        <v>14.573</v>
       </c>
       <c r="D15">
-        <v>1.23</v>
+        <v>1.78</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.6">
@@ -896,16 +896,16 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C16">
-        <v>14.573</v>
+        <v>0.96</v>
       </c>
       <c r="D16">
-        <v>1.78</v>
+        <v>0.74</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.6">
@@ -913,16 +913,16 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C17">
-        <v>0.96</v>
+        <v>6.5839999999999996</v>
       </c>
       <c r="D17">
-        <v>0.74</v>
+        <v>0.61</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.6">
@@ -930,13 +930,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>6.5839999999999996</v>
+        <v>7.5129999999999999</v>
       </c>
       <c r="D18">
-        <v>0.61</v>
+        <v>0.85</v>
       </c>
       <c r="E18" t="s">
         <v>23</v>
@@ -947,13 +947,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>7.5129999999999999</v>
+        <v>8.3279999999999994</v>
       </c>
       <c r="D19">
-        <v>0.85</v>
+        <v>1.04</v>
       </c>
       <c r="E19" t="s">
         <v>23</v>
@@ -964,16 +964,16 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>8.3279999999999994</v>
+        <v>138</v>
       </c>
       <c r="D20">
-        <v>1.04</v>
+        <v>-0.72</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.6">
@@ -981,13 +981,13 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>138</v>
+        <v>17.782</v>
       </c>
       <c r="D21">
-        <v>-0.72</v>
+        <v>1.5</v>
       </c>
       <c r="E21" t="s">
         <v>7</v>
@@ -998,13 +998,13 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22">
-        <v>17.782</v>
+        <v>18.7</v>
       </c>
       <c r="D22">
-        <v>1.5</v>
+        <v>0.64</v>
       </c>
       <c r="E22" t="s">
         <v>7</v>
@@ -1015,16 +1015,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>18.7</v>
+        <v>6.1849999999999996</v>
       </c>
       <c r="D23">
-        <v>0.64</v>
+        <v>0.41</v>
       </c>
       <c r="E23" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.6">
@@ -1032,13 +1032,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>6.1849999999999996</v>
+        <v>3.5680000000000001</v>
       </c>
       <c r="D24">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="E24" t="s">
         <v>11</v>
@@ -1049,13 +1049,13 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C25">
-        <v>3.5680000000000001</v>
+        <v>1.0760000000000001</v>
       </c>
       <c r="D25">
-        <v>0.68</v>
+        <v>1.41</v>
       </c>
       <c r="E25" t="s">
         <v>11</v>
@@ -1066,16 +1066,16 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C26">
-        <v>1.0760000000000001</v>
+        <v>2.4750000000000001</v>
       </c>
       <c r="D26">
-        <v>1.41</v>
+        <v>1.02</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.6">
@@ -1083,13 +1083,13 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>2.4750000000000001</v>
+        <v>21.187999999999999</v>
       </c>
       <c r="D27">
-        <v>1.02</v>
+        <v>0.71</v>
       </c>
       <c r="E27" t="s">
         <v>23</v>
@@ -1097,296 +1097,296 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28">
-        <v>21.187999999999999</v>
+        <v>7.9489999999999998</v>
       </c>
       <c r="D28">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="E28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B29" t="s">
         <v>21</v>
       </c>
       <c r="C29">
-        <v>7.9489999999999998</v>
+        <v>7.8159999999999998</v>
       </c>
       <c r="D29">
-        <v>0.9</v>
+        <v>1.82</v>
       </c>
       <c r="E29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>21</v>
       </c>
       <c r="C30">
-        <v>7.8159999999999998</v>
+        <v>7.5730000000000004</v>
       </c>
       <c r="D30">
-        <v>1.82</v>
+        <v>0.5</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>21</v>
       </c>
       <c r="C31">
-        <v>7.5730000000000004</v>
+        <v>7.5350000000000001</v>
       </c>
       <c r="D31">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>21</v>
       </c>
       <c r="C32">
-        <v>7.5350000000000001</v>
+        <v>7.4749999999999996</v>
       </c>
       <c r="D32">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="E32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>21</v>
       </c>
       <c r="C33">
-        <v>7.4749999999999996</v>
+        <v>7.3490000000000002</v>
       </c>
       <c r="D33">
-        <v>0.86</v>
+        <v>2.21</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34">
-        <v>7.3490000000000002</v>
+        <v>7.109</v>
       </c>
       <c r="D34">
-        <v>2.21</v>
+        <v>1.43</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>21</v>
       </c>
       <c r="C35">
-        <v>7.109</v>
+        <v>7.0090000000000003</v>
       </c>
       <c r="D35">
-        <v>1.43</v>
+        <v>1.18</v>
       </c>
       <c r="E35" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" t="s">
         <v>21</v>
       </c>
       <c r="C36">
-        <v>7.0090000000000003</v>
+        <v>6.9089999999999998</v>
       </c>
       <c r="D36">
-        <v>1.18</v>
+        <v>0.95</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37" t="s">
         <v>21</v>
       </c>
       <c r="C37">
-        <v>6.9089999999999998</v>
+        <v>6.7759999999999998</v>
       </c>
       <c r="D37">
-        <v>0.95</v>
+        <v>0.73</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
         <v>21</v>
       </c>
       <c r="C38">
-        <v>6.7759999999999998</v>
+        <v>6.6120000000000001</v>
       </c>
       <c r="D38">
-        <v>0.73</v>
+        <v>1.47</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
         <v>21</v>
       </c>
       <c r="C39">
-        <v>6.6120000000000001</v>
+        <v>6.3250000000000002</v>
       </c>
       <c r="D39">
-        <v>1.47</v>
+        <v>0.99</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" t="s">
         <v>21</v>
       </c>
       <c r="C40">
-        <v>6.3250000000000002</v>
+        <v>6.2309999999999999</v>
       </c>
       <c r="D40">
-        <v>0.99</v>
+        <v>0.24</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
         <v>21</v>
       </c>
       <c r="C41">
-        <v>6.2309999999999999</v>
+        <v>6.2160000000000002</v>
       </c>
       <c r="D41">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
         <v>21</v>
       </c>
       <c r="C42">
-        <v>6.2160000000000002</v>
+        <v>6.2</v>
       </c>
       <c r="D42">
-        <v>0.26</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="E42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A43" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
         <v>21</v>
       </c>
       <c r="C43">
-        <v>6.2</v>
+        <v>6.0830000000000002</v>
       </c>
       <c r="D43">
-        <v>1.0900000000000001</v>
+        <v>0.26</v>
       </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A44" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
         <v>21</v>
       </c>
       <c r="C44">
-        <v>6.0830000000000002</v>
+        <v>6.05</v>
       </c>
       <c r="D44">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s">
         <v>21</v>
@@ -1398,12 +1398,12 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
         <v>21</v>
@@ -1415,12 +1415,12 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
         <v>21</v>
@@ -1432,142 +1432,125 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B48" t="s">
         <v>21</v>
       </c>
       <c r="C48">
-        <v>6.05</v>
+        <v>6.17</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B49" t="s">
         <v>21</v>
       </c>
       <c r="C49">
-        <v>6.17</v>
+        <v>6.0330000000000004</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A50" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
         <v>21</v>
       </c>
       <c r="C50">
-        <v>6.0330000000000004</v>
+        <v>5.9669999999999996</v>
       </c>
       <c r="D50">
-        <v>0.55000000000000004</v>
+        <v>-0.33</v>
       </c>
       <c r="E50" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
         <v>21</v>
       </c>
       <c r="C51">
-        <v>5.9669999999999996</v>
+        <v>6.0170000000000003</v>
       </c>
       <c r="D51">
-        <v>-0.33</v>
+        <v>-0.27</v>
       </c>
       <c r="E51" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A52" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
         <v>21</v>
       </c>
       <c r="C52">
-        <v>6.0170000000000003</v>
+        <v>6.0330000000000004</v>
       </c>
       <c r="D52">
-        <v>-0.27</v>
+        <v>-0.23</v>
       </c>
       <c r="E52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>21</v>
       </c>
       <c r="C53">
-        <v>6.0330000000000004</v>
+        <v>6.05</v>
       </c>
       <c r="D53">
-        <v>-0.23</v>
+        <v>-0.54</v>
       </c>
       <c r="E53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>21</v>
       </c>
       <c r="C54">
-        <v>6.05</v>
+        <v>6.1669999999999998</v>
       </c>
       <c r="D54">
-        <v>-0.54</v>
+        <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A55" t="s">
-        <v>76</v>
-      </c>
-      <c r="B55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C55">
-        <v>6.1669999999999998</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-      <c r="E55" t="s">
         <v>77</v>
       </c>
     </row>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.6</v>
+        <v>2.613</v>
       </c>
       <c r="D9" t="n">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.725</v>
+        <v>7.775</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.004</v>
+        <v>7.059</v>
       </c>
       <c r="D11" t="n">
-        <v>2.16</v>
+        <v>0.79</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15.636</v>
+        <v>15.918</v>
       </c>
       <c r="D12" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.433</v>
+        <v>22.667</v>
       </c>
       <c r="D13" t="n">
-        <v>3.14</v>
+        <v>1.04</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>8.867000000000001</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
-        <v>3.38</v>
+        <v>1.5</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.577</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>1.23</v>
+        <v>3.38</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>21.75</v>
+        <v>22.433</v>
       </c>
       <c r="D18" t="n">
-        <v>1.52</v>
+        <v>3.14</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15.218</v>
+        <v>15.636</v>
       </c>
       <c r="D19" t="n">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.856</v>
+        <v>7.004</v>
       </c>
       <c r="D20" t="n">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.663</v>
+        <v>7.725</v>
       </c>
       <c r="D21" t="n">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.575</v>
+        <v>2.6</v>
       </c>
       <c r="D22" t="n">
-        <v>2.47</v>
+        <v>0.97</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -955,21 +955,21 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.076</v>
+        <v>1.086</v>
       </c>
       <c r="D23" t="n">
-        <v>1.41</v>
+        <v>0.93</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -978,21 +978,21 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.96</v>
+        <v>0.972</v>
       </c>
       <c r="D24" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1001,21 +1001,21 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6.185</v>
+        <v>6.187</v>
       </c>
       <c r="D25" t="n">
-        <v>0.41</v>
+        <v>0.03</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1024,21 +1024,21 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.568</v>
+        <v>3.593</v>
       </c>
       <c r="D26" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,203 +1061,203 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>14.573</v>
+        <v>17.782</v>
       </c>
       <c r="D28" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>7.513</v>
+        <v>21.75</v>
       </c>
       <c r="D29" t="n">
-        <v>0.85</v>
+        <v>1.52</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.96</v>
+        <v>138</v>
       </c>
       <c r="D30" t="n">
-        <v>0.74</v>
+        <v>-0.72</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>6.584</v>
+        <v>8.577</v>
       </c>
       <c r="D31" t="n">
-        <v>0.61</v>
+        <v>1.23</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>21.188</v>
+        <v>15.218</v>
       </c>
       <c r="D32" t="n">
-        <v>0.71</v>
+        <v>1.7</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.475</v>
+        <v>6.856</v>
       </c>
       <c r="D33" t="n">
-        <v>1.02</v>
+        <v>1.57</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.076</v>
+        <v>7.663</v>
       </c>
       <c r="D34" t="n">
-        <v>1.41</v>
+        <v>0.5</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.568</v>
+        <v>2.575</v>
       </c>
       <c r="D35" t="n">
-        <v>0.68</v>
+        <v>2.47</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.185</v>
+        <v>1.076</v>
       </c>
       <c r="D36" t="n">
-        <v>0.41</v>
+        <v>1.41</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1268,214 +1268,214 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>18.7</v>
+        <v>0.96</v>
       </c>
       <c r="D37" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17.782</v>
+        <v>6.185</v>
       </c>
       <c r="D38" t="n">
-        <v>1.5</v>
+        <v>0.41</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>138</v>
+        <v>3.568</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.72</v>
+        <v>0.68</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8.327999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="D40" t="n">
-        <v>1.04</v>
+        <v>0.64</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>7.949</v>
+        <v>21.188</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.816</v>
+        <v>2.475</v>
       </c>
       <c r="D42" t="n">
-        <v>1.82</v>
+        <v>1.02</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7.573</v>
+        <v>14.573</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5</v>
+        <v>1.78</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7.535</v>
+        <v>7.513</v>
       </c>
       <c r="D44" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>7.475</v>
+        <v>0.96</v>
       </c>
       <c r="D45" t="n">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1484,182 +1484,182 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>7.349</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>2.21</v>
+        <v>1.04</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7.109</v>
+        <v>138</v>
       </c>
       <c r="D47" t="n">
-        <v>1.43</v>
+        <v>-0.72</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>7.009</v>
+        <v>17.782</v>
       </c>
       <c r="D48" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6.909</v>
+        <v>18.7</v>
       </c>
       <c r="D49" t="n">
-        <v>0.95</v>
+        <v>0.64</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6.776</v>
+        <v>6.185</v>
       </c>
       <c r="D50" t="n">
-        <v>0.73</v>
+        <v>0.41</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6.612</v>
+        <v>6.584</v>
       </c>
       <c r="D51" t="n">
-        <v>1.47</v>
+        <v>0.61</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>6.325</v>
+        <v>1.076</v>
       </c>
       <c r="D52" t="n">
-        <v>0.99</v>
+        <v>1.41</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>6.231</v>
+        <v>3.568</v>
       </c>
       <c r="D53" t="n">
-        <v>0.24</v>
+        <v>0.68</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1668,21 +1668,21 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D54" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1691,21 +1691,21 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D55" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1714,21 +1714,21 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D56" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1737,21 +1737,21 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1760,21 +1760,21 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1783,21 +1783,21 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1806,21 +1806,21 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1852,21 +1852,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D62" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1875,21 +1875,21 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1898,21 +1898,21 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1921,21 +1921,21 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1944,35 +1944,334 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D66" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
-        </is>
-      </c>
-      <c r="C67" t="n">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
         <v>6.167</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D80" t="n">
         <v>0</v>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.613</v>
+        <v>2.65</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>1.42</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.775</v>
+        <v>7.95</v>
       </c>
       <c r="D10" t="n">
-        <v>0.65</v>
+        <v>2.25</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.059</v>
+        <v>7.219</v>
       </c>
       <c r="D11" t="n">
-        <v>0.79</v>
+        <v>2.27</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>15.918</v>
+        <v>16.5</v>
       </c>
       <c r="D12" t="n">
-        <v>1.8</v>
+        <v>3.66</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>22.667</v>
+        <v>23.5</v>
       </c>
       <c r="D13" t="n">
-        <v>1.04</v>
+        <v>3.68</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>9.433</v>
       </c>
       <c r="D14" t="n">
-        <v>1.5</v>
+        <v>4.81</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>8.867000000000001</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>3.38</v>
+        <v>1.5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.433</v>
+        <v>22.667</v>
       </c>
       <c r="D18" t="n">
-        <v>3.14</v>
+        <v>1.04</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15.636</v>
+        <v>15.918</v>
       </c>
       <c r="D19" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.004</v>
+        <v>7.059</v>
       </c>
       <c r="D20" t="n">
-        <v>2.16</v>
+        <v>0.79</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.725</v>
+        <v>7.775</v>
       </c>
       <c r="D21" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.6</v>
+        <v>2.613</v>
       </c>
       <c r="D22" t="n">
-        <v>0.97</v>
+        <v>0.5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17.782</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>1.5</v>
+        <v>3.38</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>21.75</v>
+        <v>22.433</v>
       </c>
       <c r="D29" t="n">
-        <v>1.52</v>
+        <v>3.14</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>8.577</v>
+        <v>17.782</v>
       </c>
       <c r="D31" t="n">
-        <v>1.23</v>
+        <v>1.5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1162,21 +1162,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15.218</v>
+        <v>15.636</v>
       </c>
       <c r="D32" t="n">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1185,21 +1185,21 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>6.856</v>
+        <v>7.004</v>
       </c>
       <c r="D33" t="n">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1208,21 +1208,21 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7.663</v>
+        <v>7.725</v>
       </c>
       <c r="D34" t="n">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1231,21 +1231,21 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.575</v>
+        <v>2.6</v>
       </c>
       <c r="D35" t="n">
-        <v>2.47</v>
+        <v>0.97</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1254,21 +1254,21 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.076</v>
+        <v>1.086</v>
       </c>
       <c r="D36" t="n">
-        <v>1.41</v>
+        <v>0.93</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.96</v>
+        <v>0.972</v>
       </c>
       <c r="D37" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1300,21 +1300,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6.185</v>
+        <v>6.187</v>
       </c>
       <c r="D38" t="n">
-        <v>0.41</v>
+        <v>0.03</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.568</v>
+        <v>3.593</v>
       </c>
       <c r="D39" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1360,226 +1360,226 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>21.188</v>
+        <v>15.218</v>
       </c>
       <c r="D41" t="n">
-        <v>0.71</v>
+        <v>1.7</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2.475</v>
+        <v>6.856</v>
       </c>
       <c r="D42" t="n">
-        <v>1.02</v>
+        <v>1.57</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>14.573</v>
+        <v>17.782</v>
       </c>
       <c r="D43" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7.513</v>
+        <v>21.75</v>
       </c>
       <c r="D44" t="n">
-        <v>0.85</v>
+        <v>1.52</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.96</v>
+        <v>138</v>
       </c>
       <c r="D45" t="n">
-        <v>0.74</v>
+        <v>-0.72</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8.327999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="D46" t="n">
-        <v>1.04</v>
+        <v>0.64</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>138</v>
+        <v>3.568</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.72</v>
+        <v>0.68</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17.782</v>
+        <v>6.185</v>
       </c>
       <c r="D48" t="n">
-        <v>1.5</v>
+        <v>0.41</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>18.7</v>
+        <v>0.96</v>
       </c>
       <c r="D49" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6.185</v>
+        <v>1.076</v>
       </c>
       <c r="D50" t="n">
-        <v>0.41</v>
+        <v>1.41</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1590,237 +1590,237 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>6.584</v>
+        <v>8.577</v>
       </c>
       <c r="D51" t="n">
-        <v>0.61</v>
+        <v>1.23</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1.076</v>
+        <v>7.663</v>
       </c>
       <c r="D52" t="n">
-        <v>1.41</v>
+        <v>0.5</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3.568</v>
+        <v>2.575</v>
       </c>
       <c r="D53" t="n">
-        <v>0.68</v>
+        <v>2.47</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7.949</v>
+        <v>17.782</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>7.816</v>
+        <v>3.568</v>
       </c>
       <c r="D55" t="n">
-        <v>1.82</v>
+        <v>0.68</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7.573</v>
+        <v>21.188</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>7.535</v>
+        <v>2.475</v>
       </c>
       <c r="D57" t="n">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7.475</v>
+        <v>14.573</v>
       </c>
       <c r="D58" t="n">
-        <v>0.86</v>
+        <v>1.78</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7.349</v>
+        <v>7.513</v>
       </c>
       <c r="D59" t="n">
-        <v>2.21</v>
+        <v>0.85</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7.109</v>
+        <v>0.96</v>
       </c>
       <c r="D60" t="n">
-        <v>1.43</v>
+        <v>0.74</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1829,136 +1829,136 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>7.009</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D61" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>6.909</v>
+        <v>138</v>
       </c>
       <c r="D62" t="n">
-        <v>0.95</v>
+        <v>-0.72</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D63" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6.612</v>
+        <v>6.185</v>
       </c>
       <c r="D64" t="n">
-        <v>1.47</v>
+        <v>0.41</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6.325</v>
+        <v>6.584</v>
       </c>
       <c r="D65" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6.231</v>
+        <v>1.076</v>
       </c>
       <c r="D66" t="n">
-        <v>0.24</v>
+        <v>1.41</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1967,21 +1967,21 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D67" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1990,21 +1990,21 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D68" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2013,21 +2013,21 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D69" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2036,21 +2036,21 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2059,21 +2059,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2082,21 +2082,21 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2105,21 +2105,21 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2128,21 +2128,21 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2151,21 +2151,21 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D75" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2174,21 +2174,21 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2197,21 +2197,21 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D77" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2220,21 +2220,21 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D78" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2243,35 +2243,334 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D79" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
         <v>6.167</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D93" t="n">
         <v>0</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="D9" t="n">
-        <v>1.42</v>
+        <v>1.89</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>7.95</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.219</v>
+        <v>7.522</v>
       </c>
       <c r="D11" t="n">
-        <v>2.27</v>
+        <v>4.2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>16.5</v>
+        <v>17.055</v>
       </c>
       <c r="D12" t="n">
-        <v>3.66</v>
+        <v>3.36</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.5</v>
+        <v>23.833</v>
       </c>
       <c r="D13" t="n">
-        <v>3.68</v>
+        <v>1.42</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.433</v>
+        <v>9.715</v>
       </c>
       <c r="D14" t="n">
-        <v>4.81</v>
+        <v>3.72</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>9.433</v>
       </c>
       <c r="D17" t="n">
-        <v>1.5</v>
+        <v>4.81</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>22.667</v>
+        <v>23.5</v>
       </c>
       <c r="D18" t="n">
-        <v>1.04</v>
+        <v>3.68</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>15.918</v>
+        <v>16.5</v>
       </c>
       <c r="D19" t="n">
-        <v>1.8</v>
+        <v>3.66</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.059</v>
+        <v>7.219</v>
       </c>
       <c r="D20" t="n">
-        <v>0.79</v>
+        <v>2.27</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.775</v>
+        <v>7.95</v>
       </c>
       <c r="D21" t="n">
-        <v>0.65</v>
+        <v>2.25</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.613</v>
+        <v>2.65</v>
       </c>
       <c r="D22" t="n">
-        <v>0.5</v>
+        <v>1.42</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>8.867000000000001</v>
+        <v>17.782</v>
       </c>
       <c r="D28" t="n">
-        <v>3.38</v>
+        <v>1.5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22.433</v>
+        <v>22.667</v>
       </c>
       <c r="D29" t="n">
-        <v>3.14</v>
+        <v>1.04</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,134 +1130,134 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17.782</v>
+        <v>9</v>
       </c>
       <c r="D31" t="n">
         <v>1.5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>15.636</v>
+        <v>7.059</v>
       </c>
       <c r="D32" t="n">
-        <v>2.75</v>
+        <v>0.79</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.004</v>
+        <v>7.775</v>
       </c>
       <c r="D33" t="n">
-        <v>2.16</v>
+        <v>0.65</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>7.725</v>
+        <v>18.7</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2.6</v>
+        <v>3.593</v>
       </c>
       <c r="D35" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.086</v>
+        <v>6.187</v>
       </c>
       <c r="D36" t="n">
-        <v>0.93</v>
+        <v>0.03</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1291,19 +1291,19 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -1314,76 +1314,76 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3.593</v>
+        <v>15.918</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>18.7</v>
+        <v>2.613</v>
       </c>
       <c r="D40" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15.218</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>1.7</v>
+        <v>3.38</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1392,79 +1392,79 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>6.856</v>
+        <v>7.004</v>
       </c>
       <c r="D42" t="n">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17.782</v>
+        <v>15.636</v>
       </c>
       <c r="D43" t="n">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>21.75</v>
+        <v>138</v>
       </c>
       <c r="D44" t="n">
-        <v>1.52</v>
+        <v>-0.72</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>138</v>
+        <v>17.782</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.72</v>
+        <v>1.5</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -1475,7 +1475,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1507,21 +1507,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.568</v>
+        <v>3.593</v>
       </c>
       <c r="D47" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1530,21 +1530,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6.185</v>
+        <v>6.187</v>
       </c>
       <c r="D48" t="n">
-        <v>0.41</v>
+        <v>0.03</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1553,21 +1553,21 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.96</v>
+        <v>0.972</v>
       </c>
       <c r="D49" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1576,44 +1576,44 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.076</v>
+        <v>1.086</v>
       </c>
       <c r="D50" t="n">
-        <v>1.41</v>
+        <v>0.93</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.577</v>
+        <v>2.6</v>
       </c>
       <c r="D51" t="n">
-        <v>1.23</v>
+        <v>0.97</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1622,194 +1622,194 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7.663</v>
+        <v>7.725</v>
       </c>
       <c r="D52" t="n">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2.575</v>
+        <v>22.433</v>
       </c>
       <c r="D53" t="n">
-        <v>2.47</v>
+        <v>3.14</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>17.782</v>
+        <v>0.96</v>
       </c>
       <c r="D54" t="n">
-        <v>1.5</v>
+        <v>0.74</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3.568</v>
+        <v>2.575</v>
       </c>
       <c r="D55" t="n">
-        <v>0.68</v>
+        <v>2.47</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>21.188</v>
+        <v>7.663</v>
       </c>
       <c r="D56" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.475</v>
+        <v>8.577</v>
       </c>
       <c r="D57" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>14.573</v>
+        <v>1.076</v>
       </c>
       <c r="D58" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7.513</v>
+        <v>6.185</v>
       </c>
       <c r="D59" t="n">
-        <v>0.85</v>
+        <v>0.41</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.96</v>
+        <v>3.568</v>
       </c>
       <c r="D60" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1820,30 +1820,30 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.327999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="D61" t="n">
-        <v>1.04</v>
+        <v>0.64</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1866,283 +1866,283 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>18.7</v>
+        <v>21.75</v>
       </c>
       <c r="D63" t="n">
-        <v>0.64</v>
+        <v>1.52</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6.185</v>
+        <v>17.782</v>
       </c>
       <c r="D64" t="n">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6.584</v>
+        <v>15.218</v>
       </c>
       <c r="D65" t="n">
-        <v>0.61</v>
+        <v>1.7</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.076</v>
+        <v>6.856</v>
       </c>
       <c r="D66" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>7.949</v>
+        <v>138</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9</v>
+        <v>-0.72</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>7.816</v>
+        <v>17.782</v>
       </c>
       <c r="D68" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7.573</v>
+        <v>3.568</v>
       </c>
       <c r="D69" t="n">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7.535</v>
+        <v>21.188</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.475</v>
+        <v>2.475</v>
       </c>
       <c r="D71" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>7.349</v>
+        <v>14.573</v>
       </c>
       <c r="D72" t="n">
-        <v>2.21</v>
+        <v>1.78</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.109</v>
+        <v>7.513</v>
       </c>
       <c r="D73" t="n">
-        <v>1.43</v>
+        <v>0.85</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>7.009</v>
+        <v>0.96</v>
       </c>
       <c r="D74" t="n">
-        <v>1.18</v>
+        <v>0.74</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2151,113 +2151,113 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6.909</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D76" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6.612</v>
+        <v>6.185</v>
       </c>
       <c r="D77" t="n">
-        <v>1.47</v>
+        <v>0.41</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6.325</v>
+        <v>6.584</v>
       </c>
       <c r="D78" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6.231</v>
+        <v>1.076</v>
       </c>
       <c r="D79" t="n">
-        <v>0.24</v>
+        <v>1.41</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2266,21 +2266,21 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D80" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2289,21 +2289,21 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D81" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2312,21 +2312,21 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D82" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2335,21 +2335,21 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2358,21 +2358,21 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2381,21 +2381,21 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2404,21 +2404,21 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2427,21 +2427,21 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2450,21 +2450,21 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D88" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2473,21 +2473,21 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D89" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -2496,21 +2496,21 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2519,21 +2519,21 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -2542,35 +2542,334 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D92" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D98" t="n">
+        <v>0</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
-        </is>
-      </c>
-      <c r="C93" t="n">
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
         <v>6.167</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D106" t="n">
         <v>0</v>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="E106" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="D9" t="n">
-        <v>1.89</v>
+        <v>0.74</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.074999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="D10" t="n">
-        <v>1.57</v>
+        <v>2.17</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.522</v>
+        <v>7.946</v>
       </c>
       <c r="D11" t="n">
-        <v>4.2</v>
+        <v>4.98</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.055</v>
+        <v>17.909</v>
       </c>
       <c r="D12" t="n">
-        <v>3.36</v>
+        <v>5.01</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>23.833</v>
+        <v>24.167</v>
       </c>
       <c r="D13" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9.715</v>
+        <v>10.343</v>
       </c>
       <c r="D14" t="n">
-        <v>3.72</v>
+        <v>5.69</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.433</v>
+        <v>9.715</v>
       </c>
       <c r="D17" t="n">
-        <v>4.81</v>
+        <v>3.72</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.5</v>
+        <v>23.833</v>
       </c>
       <c r="D18" t="n">
-        <v>3.68</v>
+        <v>1.42</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>16.5</v>
+        <v>17.055</v>
       </c>
       <c r="D19" t="n">
-        <v>3.66</v>
+        <v>3.36</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.219</v>
+        <v>7.522</v>
       </c>
       <c r="D20" t="n">
-        <v>2.27</v>
+        <v>4.2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>7.95</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>2.25</v>
+        <v>1.57</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="D22" t="n">
-        <v>1.42</v>
+        <v>1.89</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17.782</v>
+        <v>9.433</v>
       </c>
       <c r="D28" t="n">
-        <v>1.5</v>
+        <v>4.81</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22.667</v>
+        <v>23.5</v>
       </c>
       <c r="D29" t="n">
-        <v>1.04</v>
+        <v>3.68</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9</v>
+        <v>17.782</v>
       </c>
       <c r="D31" t="n">
         <v>1.5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1162,21 +1162,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.059</v>
+        <v>7.219</v>
       </c>
       <c r="D32" t="n">
-        <v>0.79</v>
+        <v>2.27</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1185,21 +1185,21 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.775</v>
+        <v>7.95</v>
       </c>
       <c r="D33" t="n">
-        <v>0.65</v>
+        <v>2.25</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1291,7 +1291,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1314,7 +1314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>15.918</v>
+        <v>16.5</v>
       </c>
       <c r="D39" t="n">
-        <v>1.8</v>
+        <v>3.66</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1346,90 +1346,90 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.613</v>
+        <v>2.65</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5</v>
+        <v>1.42</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.867000000000001</v>
+        <v>17.782</v>
       </c>
       <c r="D41" t="n">
-        <v>3.38</v>
+        <v>1.5</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.004</v>
+        <v>7.775</v>
       </c>
       <c r="D42" t="n">
-        <v>2.16</v>
+        <v>0.65</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>15.636</v>
+        <v>7.059</v>
       </c>
       <c r="D43" t="n">
-        <v>2.75</v>
+        <v>0.79</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1452,88 +1452,88 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17.782</v>
+        <v>9</v>
       </c>
       <c r="D45" t="n">
         <v>1.5</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>18.7</v>
+        <v>2.613</v>
       </c>
       <c r="D46" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.593</v>
+        <v>15.918</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1544,7 +1544,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1567,19 +1567,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.086</v>
+        <v>6.187</v>
       </c>
       <c r="D50" t="n">
-        <v>0.93</v>
+        <v>0.03</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1590,53 +1590,53 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2.6</v>
+        <v>3.593</v>
       </c>
       <c r="D51" t="n">
-        <v>0.97</v>
+        <v>0.7</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7.725</v>
+        <v>18.7</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1645,21 +1645,21 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>22.433</v>
+        <v>22.667</v>
       </c>
       <c r="D53" t="n">
-        <v>3.14</v>
+        <v>1.04</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1668,44 +1668,44 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.96</v>
+        <v>0.972</v>
       </c>
       <c r="D54" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2.575</v>
+        <v>22.433</v>
       </c>
       <c r="D55" t="n">
-        <v>2.47</v>
+        <v>3.14</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1714,44 +1714,44 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7.663</v>
+        <v>7.725</v>
       </c>
       <c r="D56" t="n">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>8.577</v>
+        <v>2.6</v>
       </c>
       <c r="D57" t="n">
-        <v>1.23</v>
+        <v>0.97</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1760,21 +1760,21 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.076</v>
+        <v>1.086</v>
       </c>
       <c r="D58" t="n">
-        <v>1.41</v>
+        <v>0.93</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1783,21 +1783,21 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6.185</v>
+        <v>6.187</v>
       </c>
       <c r="D59" t="n">
-        <v>0.41</v>
+        <v>0.03</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1806,21 +1806,21 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3.568</v>
+        <v>3.593</v>
       </c>
       <c r="D60" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1843,19 +1843,19 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>138</v>
+        <v>17.782</v>
       </c>
       <c r="D62" t="n">
-        <v>-0.72</v>
+        <v>1.5</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1866,76 +1866,76 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>21.75</v>
+        <v>138</v>
       </c>
       <c r="D63" t="n">
-        <v>1.52</v>
+        <v>-0.72</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>17.782</v>
+        <v>15.636</v>
       </c>
       <c r="D64" t="n">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>15.218</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>1.7</v>
+        <v>3.38</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1944,33 +1944,33 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6.856</v>
+        <v>7.004</v>
       </c>
       <c r="D66" t="n">
-        <v>1.57</v>
+        <v>2.16</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>138</v>
+        <v>18.7</v>
       </c>
       <c r="D67" t="n">
-        <v>-0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1981,157 +1981,157 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>17.782</v>
+        <v>0.96</v>
       </c>
       <c r="D68" t="n">
-        <v>1.5</v>
+        <v>0.74</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3.568</v>
+        <v>2.575</v>
       </c>
       <c r="D69" t="n">
-        <v>0.68</v>
+        <v>2.47</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>21.188</v>
+        <v>7.663</v>
       </c>
       <c r="D70" t="n">
-        <v>0.71</v>
+        <v>0.5</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2.475</v>
+        <v>8.577</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>14.573</v>
+        <v>1.076</v>
       </c>
       <c r="D72" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>7.513</v>
+        <v>6.185</v>
       </c>
       <c r="D73" t="n">
-        <v>0.85</v>
+        <v>0.41</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.96</v>
+        <v>3.568</v>
       </c>
       <c r="D74" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2142,329 +2142,329 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>8.327999999999999</v>
+        <v>138</v>
       </c>
       <c r="D75" t="n">
-        <v>1.04</v>
+        <v>-0.72</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>18.7</v>
+        <v>21.75</v>
       </c>
       <c r="D76" t="n">
-        <v>0.64</v>
+        <v>1.52</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6.185</v>
+        <v>17.782</v>
       </c>
       <c r="D77" t="n">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6.584</v>
+        <v>15.218</v>
       </c>
       <c r="D78" t="n">
-        <v>0.61</v>
+        <v>1.7</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.076</v>
+        <v>6.856</v>
       </c>
       <c r="D79" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.949</v>
+        <v>138</v>
       </c>
       <c r="D80" t="n">
-        <v>0.9</v>
+        <v>-0.72</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>7.816</v>
+        <v>3.568</v>
       </c>
       <c r="D81" t="n">
-        <v>1.82</v>
+        <v>0.68</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>7.573</v>
+        <v>17.782</v>
       </c>
       <c r="D82" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7.535</v>
+        <v>21.188</v>
       </c>
       <c r="D83" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7.475</v>
+        <v>2.475</v>
       </c>
       <c r="D84" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.349</v>
+        <v>1.076</v>
       </c>
       <c r="D85" t="n">
-        <v>2.21</v>
+        <v>1.41</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7.109</v>
+        <v>6.584</v>
       </c>
       <c r="D86" t="n">
-        <v>1.43</v>
+        <v>0.61</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>7.009</v>
+        <v>6.185</v>
       </c>
       <c r="D87" t="n">
-        <v>1.18</v>
+        <v>0.41</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6.909</v>
+        <v>18.7</v>
       </c>
       <c r="D88" t="n">
-        <v>0.95</v>
+        <v>0.64</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2473,90 +2473,90 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6.776</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>0.73</v>
+        <v>1.04</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6.612</v>
+        <v>0.96</v>
       </c>
       <c r="D90" t="n">
-        <v>1.47</v>
+        <v>0.74</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6.325</v>
+        <v>7.513</v>
       </c>
       <c r="D91" t="n">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6.231</v>
+        <v>14.573</v>
       </c>
       <c r="D92" t="n">
-        <v>0.24</v>
+        <v>1.78</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -2565,21 +2565,21 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D93" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2588,21 +2588,21 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D94" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2611,21 +2611,21 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D95" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2634,21 +2634,21 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2657,21 +2657,21 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2680,21 +2680,21 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2703,21 +2703,21 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2726,21 +2726,21 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2749,21 +2749,21 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D101" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2772,21 +2772,21 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D102" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2795,21 +2795,21 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D103" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2818,21 +2818,21 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2841,35 +2841,334 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D105" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D115" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D116" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D117" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D118" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
-        </is>
-      </c>
-      <c r="C106" t="n">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
         <v>6.167</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D119" t="n">
         <v>0</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="E119" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -640,14 +640,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -663,14 +663,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.946</v>
+        <v>7.923</v>
       </c>
       <c r="D11" t="n">
-        <v>4.98</v>
+        <v>4.68</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -709,14 +709,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -732,14 +732,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -755,14 +755,14 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9.715</v>
+        <v>10.343</v>
       </c>
       <c r="D17" t="n">
-        <v>3.72</v>
+        <v>5.69</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>23.833</v>
+        <v>24.167</v>
       </c>
       <c r="D18" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17.055</v>
+        <v>17.909</v>
       </c>
       <c r="D19" t="n">
-        <v>3.36</v>
+        <v>5.01</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.522</v>
+        <v>7.946</v>
       </c>
       <c r="D20" t="n">
-        <v>4.2</v>
+        <v>4.98</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.074999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="D21" t="n">
-        <v>1.57</v>
+        <v>2.17</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="D22" t="n">
-        <v>1.89</v>
+        <v>0.74</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9.433</v>
+        <v>17.782</v>
       </c>
       <c r="D28" t="n">
-        <v>4.81</v>
+        <v>1.5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23.5</v>
+        <v>23.833</v>
       </c>
       <c r="D29" t="n">
-        <v>3.68</v>
+        <v>1.42</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,76 +1130,76 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17.782</v>
+        <v>9.715</v>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>3.72</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>7.219</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>2.27</v>
+        <v>1.57</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>7.95</v>
+        <v>2.7</v>
       </c>
       <c r="D33" t="n">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1291,191 +1291,191 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.086</v>
+        <v>17.055</v>
       </c>
       <c r="D38" t="n">
-        <v>0.93</v>
+        <v>3.36</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>16.5</v>
+        <v>7.522</v>
       </c>
       <c r="D39" t="n">
-        <v>3.66</v>
+        <v>4.2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2.65</v>
+        <v>1.086</v>
       </c>
       <c r="D40" t="n">
-        <v>1.42</v>
+        <v>0.93</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>17.782</v>
+        <v>23.5</v>
       </c>
       <c r="D41" t="n">
-        <v>1.5</v>
+        <v>3.68</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>7.775</v>
+        <v>9.433</v>
       </c>
       <c r="D42" t="n">
-        <v>0.65</v>
+        <v>4.81</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>7.059</v>
+        <v>17.782</v>
       </c>
       <c r="D43" t="n">
-        <v>0.79</v>
+        <v>1.5</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>138</v>
+        <v>7.219</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.72</v>
+        <v>2.27</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>9</v>
+        <v>7.95</v>
       </c>
       <c r="D45" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1484,21 +1484,21 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.613</v>
+        <v>2.65</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5</v>
+        <v>1.42</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1507,21 +1507,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>15.918</v>
+        <v>16.5</v>
       </c>
       <c r="D47" t="n">
-        <v>1.8</v>
+        <v>3.66</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1544,7 +1544,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1567,7 +1567,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1636,42 +1636,42 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>22.667</v>
+        <v>138</v>
       </c>
       <c r="D53" t="n">
-        <v>1.04</v>
+        <v>-0.72</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.972</v>
+        <v>1.086</v>
       </c>
       <c r="D54" t="n">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1682,7 +1682,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1691,297 +1691,297 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>22.433</v>
+        <v>22.667</v>
       </c>
       <c r="D55" t="n">
-        <v>3.14</v>
+        <v>1.04</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>7.725</v>
+        <v>18.7</v>
       </c>
       <c r="D56" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2.6</v>
+        <v>17.782</v>
       </c>
       <c r="D57" t="n">
-        <v>0.97</v>
+        <v>1.5</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.086</v>
+        <v>7.775</v>
       </c>
       <c r="D58" t="n">
-        <v>0.93</v>
+        <v>0.65</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>6.187</v>
+        <v>7.059</v>
       </c>
       <c r="D59" t="n">
-        <v>0.03</v>
+        <v>0.79</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3.593</v>
+        <v>138</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7</v>
+        <v>-0.72</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>18.7</v>
+        <v>9</v>
       </c>
       <c r="D61" t="n">
-        <v>0.64</v>
+        <v>1.5</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>17.782</v>
+        <v>2.613</v>
       </c>
       <c r="D62" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>138</v>
+        <v>15.918</v>
       </c>
       <c r="D63" t="n">
-        <v>-0.72</v>
+        <v>1.8</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>15.636</v>
+        <v>0.972</v>
       </c>
       <c r="D64" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>8.867000000000001</v>
+        <v>6.187</v>
       </c>
       <c r="D65" t="n">
-        <v>3.38</v>
+        <v>0.03</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>7.004</v>
+        <v>3.593</v>
       </c>
       <c r="D66" t="n">
-        <v>2.16</v>
+        <v>0.7</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>18.7</v>
+        <v>22.433</v>
       </c>
       <c r="D67" t="n">
-        <v>0.64</v>
+        <v>3.14</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1990,274 +1990,274 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.96</v>
+        <v>0.972</v>
       </c>
       <c r="D68" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2.575</v>
+        <v>7.004</v>
       </c>
       <c r="D69" t="n">
-        <v>2.47</v>
+        <v>2.16</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7.663</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5</v>
+        <v>3.38</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8.577</v>
+        <v>15.636</v>
       </c>
       <c r="D71" t="n">
-        <v>1.23</v>
+        <v>2.75</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>1.076</v>
+        <v>138</v>
       </c>
       <c r="D72" t="n">
-        <v>1.41</v>
+        <v>-0.72</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>6.185</v>
+        <v>17.782</v>
       </c>
       <c r="D73" t="n">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3.568</v>
+        <v>18.7</v>
       </c>
       <c r="D74" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>138</v>
+        <v>3.593</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>21.75</v>
+        <v>6.187</v>
       </c>
       <c r="D76" t="n">
-        <v>1.52</v>
+        <v>0.03</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>17.782</v>
+        <v>1.086</v>
       </c>
       <c r="D77" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>15.218</v>
+        <v>2.6</v>
       </c>
       <c r="D78" t="n">
-        <v>1.7</v>
+        <v>0.97</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6.856</v>
+        <v>7.725</v>
       </c>
       <c r="D79" t="n">
-        <v>1.57</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2280,145 +2280,145 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3.568</v>
+        <v>18.7</v>
       </c>
       <c r="D81" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17.782</v>
+        <v>0.96</v>
       </c>
       <c r="D82" t="n">
-        <v>1.5</v>
+        <v>0.74</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>21.188</v>
+        <v>2.575</v>
       </c>
       <c r="D83" t="n">
-        <v>0.71</v>
+        <v>2.47</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.475</v>
+        <v>7.663</v>
       </c>
       <c r="D84" t="n">
-        <v>1.02</v>
+        <v>0.5</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>1.076</v>
+        <v>8.577</v>
       </c>
       <c r="D85" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6.584</v>
+        <v>1.076</v>
       </c>
       <c r="D86" t="n">
-        <v>0.61</v>
+        <v>1.41</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2441,306 +2441,306 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>18.7</v>
+        <v>3.568</v>
       </c>
       <c r="D88" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8.327999999999999</v>
+        <v>21.75</v>
       </c>
       <c r="D89" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.96</v>
+        <v>17.782</v>
       </c>
       <c r="D90" t="n">
-        <v>0.74</v>
+        <v>1.5</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.513</v>
+        <v>15.218</v>
       </c>
       <c r="D91" t="n">
-        <v>0.85</v>
+        <v>1.7</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>14.573</v>
+        <v>6.856</v>
       </c>
       <c r="D92" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>7.949</v>
+        <v>17.782</v>
       </c>
       <c r="D93" t="n">
-        <v>0.9</v>
+        <v>1.5</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7.816</v>
+        <v>138</v>
       </c>
       <c r="D94" t="n">
-        <v>1.82</v>
+        <v>-0.72</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.573</v>
+        <v>3.568</v>
       </c>
       <c r="D95" t="n">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>7.535</v>
+        <v>21.188</v>
       </c>
       <c r="D96" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.475</v>
+        <v>2.475</v>
       </c>
       <c r="D97" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.349</v>
+        <v>14.573</v>
       </c>
       <c r="D98" t="n">
-        <v>2.21</v>
+        <v>1.78</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.109</v>
+        <v>7.513</v>
       </c>
       <c r="D99" t="n">
-        <v>1.43</v>
+        <v>0.85</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>7.009</v>
+        <v>0.96</v>
       </c>
       <c r="D100" t="n">
-        <v>1.18</v>
+        <v>0.74</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2749,113 +2749,113 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6.909</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D102" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6.612</v>
+        <v>6.185</v>
       </c>
       <c r="D103" t="n">
-        <v>1.47</v>
+        <v>0.41</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6.325</v>
+        <v>6.584</v>
       </c>
       <c r="D104" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6.231</v>
+        <v>1.076</v>
       </c>
       <c r="D105" t="n">
-        <v>0.24</v>
+        <v>1.41</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2864,21 +2864,21 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D106" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2887,21 +2887,21 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D107" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2910,21 +2910,21 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D108" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2933,21 +2933,21 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -2956,21 +2956,21 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2979,21 +2979,21 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -3002,21 +3002,21 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3025,21 +3025,21 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3048,21 +3048,21 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D114" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3071,21 +3071,21 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3094,21 +3094,21 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3117,21 +3117,21 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -3140,35 +3140,334 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D118" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D128" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D129" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D130" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D131" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B119" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="C132" t="n">
         <v>6.167</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D132" t="n">
         <v>0</v>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="E132" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E132"/>
+  <dimension ref="A1:E145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -716,7 +716,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -739,7 +739,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -824,14 +824,14 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -847,14 +847,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -870,14 +870,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.946</v>
+        <v>7.923</v>
       </c>
       <c r="D20" t="n">
-        <v>4.98</v>
+        <v>4.68</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -916,14 +916,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -939,14 +939,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D28" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>23.833</v>
+        <v>24.167</v>
       </c>
       <c r="D29" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>9.715</v>
+        <v>17.782</v>
       </c>
       <c r="D31" t="n">
-        <v>3.72</v>
+        <v>1.5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1162,21 +1162,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8.074999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="D32" t="n">
-        <v>1.57</v>
+        <v>2.17</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1185,21 +1185,21 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="D33" t="n">
-        <v>1.89</v>
+        <v>0.74</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1291,7 +1291,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1300,21 +1300,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17.055</v>
+        <v>17.909</v>
       </c>
       <c r="D38" t="n">
-        <v>3.36</v>
+        <v>5.01</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7.522</v>
+        <v>7.946</v>
       </c>
       <c r="D39" t="n">
-        <v>4.2</v>
+        <v>4.98</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1369,182 +1369,182 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23.5</v>
+        <v>23.833</v>
       </c>
       <c r="D41" t="n">
-        <v>3.68</v>
+        <v>1.42</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>9.433</v>
+        <v>17.782</v>
       </c>
       <c r="D42" t="n">
-        <v>4.81</v>
+        <v>1.5</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17.782</v>
+        <v>9.715</v>
       </c>
       <c r="D43" t="n">
-        <v>1.5</v>
+        <v>3.72</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>7.219</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D44" t="n">
-        <v>2.27</v>
+        <v>1.57</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>7.95</v>
+        <v>2.7</v>
       </c>
       <c r="D45" t="n">
-        <v>2.25</v>
+        <v>1.89</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2.65</v>
+        <v>1.086</v>
       </c>
       <c r="D46" t="n">
-        <v>1.42</v>
+        <v>0.93</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>16.5</v>
+        <v>7.522</v>
       </c>
       <c r="D47" t="n">
-        <v>3.66</v>
+        <v>4.2</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.086</v>
+        <v>17.055</v>
       </c>
       <c r="D48" t="n">
-        <v>0.93</v>
+        <v>3.36</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1567,7 +1567,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1659,7 +1659,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1682,30 +1682,30 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>22.667</v>
+        <v>138</v>
       </c>
       <c r="D55" t="n">
-        <v>1.04</v>
+        <v>-0.72</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1728,122 +1728,122 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17.782</v>
+        <v>23.5</v>
       </c>
       <c r="D57" t="n">
-        <v>1.5</v>
+        <v>3.68</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7.775</v>
+        <v>9.433</v>
       </c>
       <c r="D58" t="n">
-        <v>0.65</v>
+        <v>4.81</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>7.059</v>
+        <v>17.782</v>
       </c>
       <c r="D59" t="n">
-        <v>0.79</v>
+        <v>1.5</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>138</v>
+        <v>7.219</v>
       </c>
       <c r="D60" t="n">
-        <v>-0.72</v>
+        <v>2.27</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>9</v>
+        <v>7.95</v>
       </c>
       <c r="D61" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1852,21 +1852,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.613</v>
+        <v>2.65</v>
       </c>
       <c r="D62" t="n">
-        <v>0.5</v>
+        <v>1.42</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1875,21 +1875,21 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>15.918</v>
+        <v>16.5</v>
       </c>
       <c r="D63" t="n">
-        <v>1.8</v>
+        <v>3.66</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1935,7 +1935,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1958,7 +1958,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1967,33 +1967,33 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>22.433</v>
+        <v>22.667</v>
       </c>
       <c r="D67" t="n">
-        <v>3.14</v>
+        <v>1.04</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.972</v>
+        <v>1.086</v>
       </c>
       <c r="D68" t="n">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2004,272 +2004,272 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>7.004</v>
+        <v>3.593</v>
       </c>
       <c r="D69" t="n">
-        <v>2.16</v>
+        <v>0.7</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8.867000000000001</v>
+        <v>6.187</v>
       </c>
       <c r="D70" t="n">
-        <v>3.38</v>
+        <v>0.03</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>15.636</v>
+        <v>0.972</v>
       </c>
       <c r="D71" t="n">
-        <v>2.75</v>
+        <v>1.25</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>138</v>
+        <v>15.918</v>
       </c>
       <c r="D72" t="n">
-        <v>-0.72</v>
+        <v>1.8</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>17.782</v>
+        <v>2.613</v>
       </c>
       <c r="D73" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>18.7</v>
+        <v>9</v>
       </c>
       <c r="D74" t="n">
-        <v>0.64</v>
+        <v>1.5</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3.593</v>
+        <v>138</v>
       </c>
       <c r="D75" t="n">
-        <v>0.7</v>
+        <v>-0.72</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>6.187</v>
+        <v>7.059</v>
       </c>
       <c r="D76" t="n">
-        <v>0.03</v>
+        <v>0.79</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>1.086</v>
+        <v>7.775</v>
       </c>
       <c r="D77" t="n">
-        <v>0.93</v>
+        <v>0.65</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2.6</v>
+        <v>17.782</v>
       </c>
       <c r="D78" t="n">
-        <v>0.97</v>
+        <v>1.5</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>7.725</v>
+        <v>18.7</v>
       </c>
       <c r="D79" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>138</v>
+        <v>18.7</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2280,30 +2280,30 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>18.7</v>
+        <v>22.433</v>
       </c>
       <c r="D81" t="n">
-        <v>0.64</v>
+        <v>3.14</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2312,136 +2312,136 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.96</v>
+        <v>0.972</v>
       </c>
       <c r="D82" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2.575</v>
+        <v>7.004</v>
       </c>
       <c r="D83" t="n">
-        <v>2.47</v>
+        <v>2.16</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7.663</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.5</v>
+        <v>3.38</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>8.577</v>
+        <v>15.636</v>
       </c>
       <c r="D85" t="n">
-        <v>1.23</v>
+        <v>2.75</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.076</v>
+        <v>138</v>
       </c>
       <c r="D86" t="n">
-        <v>1.41</v>
+        <v>-0.72</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>6.185</v>
+        <v>17.782</v>
       </c>
       <c r="D87" t="n">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2450,125 +2450,125 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3.568</v>
+        <v>3.593</v>
       </c>
       <c r="D88" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>21.75</v>
+        <v>6.187</v>
       </c>
       <c r="D89" t="n">
-        <v>1.52</v>
+        <v>0.03</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>17.782</v>
+        <v>1.086</v>
       </c>
       <c r="D90" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>15.218</v>
+        <v>2.6</v>
       </c>
       <c r="D91" t="n">
-        <v>1.7</v>
+        <v>0.97</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6.856</v>
+        <v>7.725</v>
       </c>
       <c r="D92" t="n">
-        <v>1.57</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>17.782</v>
+        <v>138</v>
       </c>
       <c r="D93" t="n">
-        <v>1.5</v>
+        <v>-0.72</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2579,157 +2579,157 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>138</v>
+        <v>0.96</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.72</v>
+        <v>0.74</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3.568</v>
+        <v>18.7</v>
       </c>
       <c r="D95" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>21.188</v>
+        <v>6.856</v>
       </c>
       <c r="D96" t="n">
-        <v>0.71</v>
+        <v>1.57</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2.475</v>
+        <v>15.218</v>
       </c>
       <c r="D97" t="n">
-        <v>1.02</v>
+        <v>1.7</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>14.573</v>
+        <v>17.782</v>
       </c>
       <c r="D98" t="n">
-        <v>1.78</v>
+        <v>1.5</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.513</v>
+        <v>21.75</v>
       </c>
       <c r="D99" t="n">
-        <v>0.85</v>
+        <v>1.52</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.96</v>
+        <v>3.568</v>
       </c>
       <c r="D100" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2740,329 +2740,329 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8.327999999999999</v>
+        <v>6.185</v>
       </c>
       <c r="D101" t="n">
-        <v>1.04</v>
+        <v>0.41</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>18.7</v>
+        <v>1.076</v>
       </c>
       <c r="D102" t="n">
-        <v>0.64</v>
+        <v>1.41</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>6.185</v>
+        <v>8.577</v>
       </c>
       <c r="D103" t="n">
-        <v>0.41</v>
+        <v>1.23</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6.584</v>
+        <v>7.663</v>
       </c>
       <c r="D104" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1.076</v>
+        <v>2.575</v>
       </c>
       <c r="D105" t="n">
-        <v>1.41</v>
+        <v>2.47</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>7.949</v>
+        <v>21.188</v>
       </c>
       <c r="D106" t="n">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>7.816</v>
+        <v>138</v>
       </c>
       <c r="D107" t="n">
-        <v>1.82</v>
+        <v>-0.72</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>7.573</v>
+        <v>2.475</v>
       </c>
       <c r="D108" t="n">
-        <v>0.5</v>
+        <v>1.02</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7.535</v>
+        <v>3.568</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8</v>
+        <v>0.68</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>7.475</v>
+        <v>17.782</v>
       </c>
       <c r="D110" t="n">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>7.349</v>
+        <v>1.076</v>
       </c>
       <c r="D111" t="n">
-        <v>2.21</v>
+        <v>1.41</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>7.109</v>
+        <v>6.584</v>
       </c>
       <c r="D112" t="n">
-        <v>1.43</v>
+        <v>0.61</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>7.009</v>
+        <v>6.185</v>
       </c>
       <c r="D113" t="n">
-        <v>1.18</v>
+        <v>0.41</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>6.909</v>
+        <v>18.7</v>
       </c>
       <c r="D114" t="n">
-        <v>0.95</v>
+        <v>0.64</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3071,90 +3071,90 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6.776</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D115" t="n">
-        <v>0.73</v>
+        <v>1.04</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6.612</v>
+        <v>0.96</v>
       </c>
       <c r="D116" t="n">
-        <v>1.47</v>
+        <v>0.74</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6.325</v>
+        <v>7.513</v>
       </c>
       <c r="D117" t="n">
-        <v>0.99</v>
+        <v>0.85</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6.231</v>
+        <v>14.573</v>
       </c>
       <c r="D118" t="n">
-        <v>0.24</v>
+        <v>1.78</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3163,21 +3163,21 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D119" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3186,21 +3186,21 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D120" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3209,21 +3209,21 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D121" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3232,21 +3232,21 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3255,21 +3255,21 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3278,21 +3278,21 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3301,21 +3301,21 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3324,21 +3324,21 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3347,21 +3347,21 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D127" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3370,21 +3370,21 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D128" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3393,21 +3393,21 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3416,21 +3416,21 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D130" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -3439,35 +3439,334 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D141" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D142" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D143" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D144" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="C145" t="n">
         <v>6.167</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D145" t="n">
         <v>0</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="E145" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E145"/>
+  <dimension ref="A1:E158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,21 +472,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.72</v>
+        <v>3.62</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -495,21 +495,21 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>17.782</v>
+        <v>18.091</v>
       </c>
       <c r="D3" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -518,21 +518,21 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.7</v>
+        <v>18.721</v>
       </c>
       <c r="D4" t="n">
-        <v>0.64</v>
+        <v>0.11</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -541,21 +541,21 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.593</v>
+        <v>3.641</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7</v>
+        <v>1.34</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -564,21 +564,21 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.187</v>
+        <v>6.307</v>
       </c>
       <c r="D6" t="n">
-        <v>0.03</v>
+        <v>1.94</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -587,21 +587,21 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.972</v>
+        <v>0.986</v>
       </c>
       <c r="D7" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -610,21 +610,21 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.086</v>
+        <v>1.11</v>
       </c>
       <c r="D8" t="n">
-        <v>0.93</v>
+        <v>2.21</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.72</v>
+        <v>2.763</v>
       </c>
       <c r="D9" t="n">
-        <v>0.74</v>
+        <v>1.58</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="D10" t="n">
-        <v>2.17</v>
+        <v>1.21</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.923</v>
+        <v>7.998</v>
       </c>
       <c r="D11" t="n">
-        <v>4.68</v>
+        <v>0.95</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>17.909</v>
+        <v>18.455</v>
       </c>
       <c r="D12" t="n">
-        <v>5.01</v>
+        <v>3.05</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.167</v>
+        <v>24.333</v>
       </c>
       <c r="D13" t="n">
-        <v>1.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.343</v>
+        <v>10.457</v>
       </c>
       <c r="D14" t="n">
-        <v>5.69</v>
+        <v>1.1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -923,7 +923,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -946,7 +946,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10.343</v>
+        <v>17.782</v>
       </c>
       <c r="D28" t="n">
-        <v>5.69</v>
+        <v>1.5</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1100,14 +1100,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,111 +1130,111 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>8.25</v>
+        <v>18.7</v>
       </c>
       <c r="D32" t="n">
-        <v>2.17</v>
+        <v>0.64</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2.72</v>
+        <v>3.593</v>
       </c>
       <c r="D33" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D34" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3.593</v>
+        <v>0.972</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1245,19 +1245,19 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1268,53 +1268,53 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.972</v>
+        <v>2.72</v>
       </c>
       <c r="D37" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>17.909</v>
+        <v>8.25</v>
       </c>
       <c r="D38" t="n">
-        <v>5.01</v>
+        <v>2.17</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,79 +1323,79 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7.946</v>
+        <v>7.923</v>
       </c>
       <c r="D39" t="n">
-        <v>4.98</v>
+        <v>4.68</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.086</v>
+        <v>17.909</v>
       </c>
       <c r="D40" t="n">
-        <v>0.93</v>
+        <v>5.01</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>23.833</v>
+        <v>8.25</v>
       </c>
       <c r="D41" t="n">
-        <v>1.42</v>
+        <v>2.17</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>17.782</v>
+        <v>138</v>
       </c>
       <c r="D42" t="n">
-        <v>1.5</v>
+        <v>-0.72</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1406,7 +1406,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1415,148 +1415,148 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>9.715</v>
+        <v>10.343</v>
       </c>
       <c r="D43" t="n">
-        <v>3.72</v>
+        <v>5.69</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>8.074999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="D44" t="n">
-        <v>1.57</v>
+        <v>0.74</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2.7</v>
+        <v>17.782</v>
       </c>
       <c r="D45" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.086</v>
+        <v>24.167</v>
       </c>
       <c r="D46" t="n">
-        <v>0.93</v>
+        <v>1.4</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>7.522</v>
+        <v>18.7</v>
       </c>
       <c r="D47" t="n">
-        <v>4.2</v>
+        <v>0.64</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>17.055</v>
+        <v>3.593</v>
       </c>
       <c r="D48" t="n">
-        <v>3.36</v>
+        <v>0.7</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.972</v>
+        <v>6.187</v>
       </c>
       <c r="D49" t="n">
-        <v>1.25</v>
+        <v>0.03</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1567,19 +1567,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6.187</v>
+        <v>0.972</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03</v>
+        <v>1.25</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1590,168 +1590,168 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3.593</v>
+        <v>17.909</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7</v>
+        <v>5.01</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>18.7</v>
+        <v>7.946</v>
       </c>
       <c r="D52" t="n">
-        <v>0.64</v>
+        <v>4.98</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>138</v>
+        <v>1.086</v>
       </c>
       <c r="D53" t="n">
-        <v>-0.72</v>
+        <v>0.93</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>1.086</v>
+        <v>7.522</v>
       </c>
       <c r="D54" t="n">
-        <v>0.93</v>
+        <v>4.2</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>138</v>
+        <v>17.055</v>
       </c>
       <c r="D55" t="n">
-        <v>-0.72</v>
+        <v>3.36</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18.7</v>
+        <v>23.833</v>
       </c>
       <c r="D56" t="n">
-        <v>0.64</v>
+        <v>1.42</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>23.5</v>
+        <v>17.782</v>
       </c>
       <c r="D57" t="n">
-        <v>3.68</v>
+        <v>1.5</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1760,148 +1760,148 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9.433</v>
+        <v>9.715</v>
       </c>
       <c r="D58" t="n">
-        <v>4.81</v>
+        <v>3.72</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>17.782</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>7.219</v>
+        <v>2.7</v>
       </c>
       <c r="D60" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>7.95</v>
+        <v>138</v>
       </c>
       <c r="D61" t="n">
-        <v>2.25</v>
+        <v>-0.72</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2.65</v>
+        <v>18.7</v>
       </c>
       <c r="D62" t="n">
-        <v>1.42</v>
+        <v>0.64</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>16.5</v>
+        <v>3.593</v>
       </c>
       <c r="D63" t="n">
-        <v>3.66</v>
+        <v>0.7</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.972</v>
+        <v>6.187</v>
       </c>
       <c r="D64" t="n">
-        <v>1.25</v>
+        <v>0.03</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1912,19 +1912,19 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D65" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1935,19 +1935,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3.593</v>
+        <v>0.972</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1958,53 +1958,53 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>22.667</v>
+        <v>2.65</v>
       </c>
       <c r="D67" t="n">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.086</v>
+        <v>138</v>
       </c>
       <c r="D68" t="n">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2027,19 +2027,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D70" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2050,352 +2050,352 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.972</v>
+        <v>18.7</v>
       </c>
       <c r="D71" t="n">
-        <v>1.25</v>
+        <v>0.64</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>15.918</v>
+        <v>23.5</v>
       </c>
       <c r="D72" t="n">
-        <v>1.8</v>
+        <v>3.68</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2.613</v>
+        <v>9.433</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5</v>
+        <v>4.81</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>9</v>
+        <v>17.782</v>
       </c>
       <c r="D74" t="n">
         <v>1.5</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>138</v>
+        <v>7.219</v>
       </c>
       <c r="D75" t="n">
-        <v>-0.72</v>
+        <v>2.27</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7.059</v>
+        <v>7.95</v>
       </c>
       <c r="D76" t="n">
-        <v>0.79</v>
+        <v>2.25</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>7.775</v>
+        <v>16.5</v>
       </c>
       <c r="D77" t="n">
-        <v>0.65</v>
+        <v>3.66</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>17.782</v>
+        <v>0.972</v>
       </c>
       <c r="D78" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D79" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>18.7</v>
+        <v>1.086</v>
       </c>
       <c r="D80" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>22.433</v>
+        <v>3.593</v>
       </c>
       <c r="D81" t="n">
-        <v>3.14</v>
+        <v>0.7</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.972</v>
+        <v>18.7</v>
       </c>
       <c r="D82" t="n">
-        <v>1.25</v>
+        <v>0.64</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>7.004</v>
+        <v>17.782</v>
       </c>
       <c r="D83" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8.867000000000001</v>
+        <v>7.775</v>
       </c>
       <c r="D84" t="n">
-        <v>3.38</v>
+        <v>0.65</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>15.636</v>
+        <v>7.059</v>
       </c>
       <c r="D85" t="n">
-        <v>2.75</v>
+        <v>0.79</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2418,88 +2418,88 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>17.782</v>
+        <v>9</v>
       </c>
       <c r="D87" t="n">
         <v>1.5</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3.593</v>
+        <v>2.613</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>6.187</v>
+        <v>15.918</v>
       </c>
       <c r="D89" t="n">
-        <v>0.03</v>
+        <v>1.8</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>1.086</v>
+        <v>0.972</v>
       </c>
       <c r="D90" t="n">
-        <v>0.93</v>
+        <v>1.25</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2510,375 +2510,375 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2.6</v>
+        <v>6.187</v>
       </c>
       <c r="D91" t="n">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7.725</v>
+        <v>22.667</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>138</v>
+        <v>3.593</v>
       </c>
       <c r="D93" t="n">
-        <v>-0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.96</v>
+        <v>18.7</v>
       </c>
       <c r="D94" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>18.7</v>
+        <v>22.433</v>
       </c>
       <c r="D95" t="n">
-        <v>0.64</v>
+        <v>3.14</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6.856</v>
+        <v>0.972</v>
       </c>
       <c r="D96" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>15.218</v>
+        <v>7.004</v>
       </c>
       <c r="D97" t="n">
-        <v>1.7</v>
+        <v>2.16</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>17.782</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>1.5</v>
+        <v>3.38</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>21.75</v>
+        <v>15.636</v>
       </c>
       <c r="D99" t="n">
-        <v>1.52</v>
+        <v>2.75</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3.568</v>
+        <v>138</v>
       </c>
       <c r="D100" t="n">
-        <v>0.68</v>
+        <v>-0.72</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6.185</v>
+        <v>17.782</v>
       </c>
       <c r="D101" t="n">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1.076</v>
+        <v>6.187</v>
       </c>
       <c r="D102" t="n">
-        <v>1.41</v>
+        <v>0.03</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>8.577</v>
+        <v>1.086</v>
       </c>
       <c r="D103" t="n">
-        <v>1.23</v>
+        <v>0.93</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7.663</v>
+        <v>2.6</v>
       </c>
       <c r="D104" t="n">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2.575</v>
+        <v>7.725</v>
       </c>
       <c r="D105" t="n">
-        <v>2.47</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>21.188</v>
+        <v>18.7</v>
       </c>
       <c r="D106" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -2901,122 +2901,122 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>2.475</v>
+        <v>0.96</v>
       </c>
       <c r="D108" t="n">
-        <v>1.02</v>
+        <v>0.74</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3.568</v>
+        <v>2.575</v>
       </c>
       <c r="D109" t="n">
-        <v>0.68</v>
+        <v>2.47</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>17.782</v>
+        <v>7.663</v>
       </c>
       <c r="D110" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1.076</v>
+        <v>8.577</v>
       </c>
       <c r="D111" t="n">
-        <v>1.41</v>
+        <v>1.23</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6.584</v>
+        <v>1.076</v>
       </c>
       <c r="D112" t="n">
-        <v>0.61</v>
+        <v>1.41</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3039,306 +3039,306 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>18.7</v>
+        <v>3.568</v>
       </c>
       <c r="D114" t="n">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>8.327999999999999</v>
+        <v>21.75</v>
       </c>
       <c r="D115" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.96</v>
+        <v>17.782</v>
       </c>
       <c r="D116" t="n">
-        <v>0.74</v>
+        <v>1.5</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7.513</v>
+        <v>15.218</v>
       </c>
       <c r="D117" t="n">
-        <v>0.85</v>
+        <v>1.7</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>14.573</v>
+        <v>6.856</v>
       </c>
       <c r="D118" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>7.949</v>
+        <v>3.568</v>
       </c>
       <c r="D119" t="n">
-        <v>0.9</v>
+        <v>0.68</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>7.816</v>
+        <v>138</v>
       </c>
       <c r="D120" t="n">
-        <v>1.82</v>
+        <v>-0.72</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7.573</v>
+        <v>17.782</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>7.535</v>
+        <v>2.475</v>
       </c>
       <c r="D122" t="n">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>7.475</v>
+        <v>21.188</v>
       </c>
       <c r="D123" t="n">
-        <v>0.86</v>
+        <v>0.71</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>7.349</v>
+        <v>14.573</v>
       </c>
       <c r="D124" t="n">
-        <v>2.21</v>
+        <v>1.78</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7.109</v>
+        <v>7.513</v>
       </c>
       <c r="D125" t="n">
-        <v>1.43</v>
+        <v>0.85</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>7.009</v>
+        <v>0.96</v>
       </c>
       <c r="D126" t="n">
-        <v>1.18</v>
+        <v>0.74</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -3347,113 +3347,113 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6.909</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.95</v>
+        <v>1.04</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D128" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6.612</v>
+        <v>6.185</v>
       </c>
       <c r="D129" t="n">
-        <v>1.47</v>
+        <v>0.41</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6.325</v>
+        <v>6.584</v>
       </c>
       <c r="D130" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6.231</v>
+        <v>1.076</v>
       </c>
       <c r="D131" t="n">
-        <v>0.24</v>
+        <v>1.41</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3462,21 +3462,21 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D132" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3485,21 +3485,21 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D133" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3508,21 +3508,21 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D134" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -3531,21 +3531,21 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -3554,21 +3554,21 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3577,21 +3577,21 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3600,21 +3600,21 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3623,21 +3623,21 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -3646,21 +3646,21 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D140" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -3669,21 +3669,21 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -3692,21 +3692,21 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3715,21 +3715,21 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D143" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3738,35 +3738,334 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D154" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D155" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D156" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D157" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C145" t="n">
+      <c r="C158" t="n">
         <v>6.167</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D158" t="n">
         <v>0</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E158"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.763</v>
+        <v>2.813</v>
       </c>
       <c r="D9" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -659,18 +659,18 @@
         <v>8.35</v>
       </c>
       <c r="D10" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.998</v>
+        <v>7.931</v>
       </c>
       <c r="D11" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.455</v>
+        <v>18.63</v>
       </c>
       <c r="D12" t="n">
-        <v>3.05</v>
+        <v>1.8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -728,18 +728,18 @@
         <v>24.333</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.457</v>
+        <v>10.686</v>
       </c>
       <c r="D14" t="n">
-        <v>1.1</v>
+        <v>2.19</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -771,21 +771,21 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>17.782</v>
+        <v>18.091</v>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,21 +794,21 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.72</v>
+        <v>3.62</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10.343</v>
+        <v>10.457</v>
       </c>
       <c r="D17" t="n">
-        <v>5.69</v>
+        <v>1.1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.167</v>
+        <v>24.333</v>
       </c>
       <c r="D18" t="n">
-        <v>1.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>17.909</v>
+        <v>18.455</v>
       </c>
       <c r="D19" t="n">
-        <v>5.01</v>
+        <v>3.05</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.923</v>
+        <v>7.998</v>
       </c>
       <c r="D20" t="n">
-        <v>4.68</v>
+        <v>0.95</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="D21" t="n">
-        <v>2.17</v>
+        <v>1.21</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.72</v>
+        <v>2.763</v>
       </c>
       <c r="D22" t="n">
-        <v>0.74</v>
+        <v>1.58</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -955,21 +955,21 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.086</v>
+        <v>1.11</v>
       </c>
       <c r="D23" t="n">
-        <v>0.93</v>
+        <v>2.21</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -978,21 +978,21 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.972</v>
+        <v>0.986</v>
       </c>
       <c r="D24" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1001,21 +1001,21 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6.187</v>
+        <v>6.307</v>
       </c>
       <c r="D25" t="n">
-        <v>0.03</v>
+        <v>1.94</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1024,21 +1024,21 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.593</v>
+        <v>3.641</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7</v>
+        <v>1.34</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1047,44 +1047,44 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18.7</v>
+        <v>18.721</v>
       </c>
       <c r="D27" t="n">
-        <v>0.64</v>
+        <v>0.11</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D28" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1107,7 +1107,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10.343</v>
+        <v>17.782</v>
       </c>
       <c r="D31" t="n">
-        <v>5.69</v>
+        <v>1.5</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1291,7 +1291,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1314,7 +1314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1360,30 +1360,30 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>8.25</v>
+        <v>18.7</v>
       </c>
       <c r="D41" t="n">
-        <v>2.17</v>
+        <v>0.64</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1406,76 +1406,76 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10.343</v>
+        <v>17.782</v>
       </c>
       <c r="D43" t="n">
-        <v>5.69</v>
+        <v>1.5</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2.72</v>
+        <v>3.593</v>
       </c>
       <c r="D44" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D45" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1491,49 +1491,49 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D47" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.593</v>
+        <v>0.972</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1544,19 +1544,19 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1567,53 +1567,53 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.972</v>
+        <v>2.72</v>
       </c>
       <c r="D50" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>17.909</v>
+        <v>8.25</v>
       </c>
       <c r="D51" t="n">
-        <v>5.01</v>
+        <v>2.17</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1622,125 +1622,125 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7.946</v>
+        <v>7.923</v>
       </c>
       <c r="D52" t="n">
-        <v>4.98</v>
+        <v>4.68</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1.086</v>
+        <v>17.909</v>
       </c>
       <c r="D53" t="n">
-        <v>0.93</v>
+        <v>5.01</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7.522</v>
+        <v>18.7</v>
       </c>
       <c r="D54" t="n">
-        <v>4.2</v>
+        <v>0.64</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>17.055</v>
+        <v>3.593</v>
       </c>
       <c r="D55" t="n">
-        <v>3.36</v>
+        <v>0.7</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>23.833</v>
+        <v>8.25</v>
       </c>
       <c r="D56" t="n">
-        <v>1.42</v>
+        <v>2.17</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>17.782</v>
+        <v>138</v>
       </c>
       <c r="D57" t="n">
-        <v>1.5</v>
+        <v>-0.72</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1751,7 +1751,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1760,148 +1760,148 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>9.715</v>
+        <v>10.343</v>
       </c>
       <c r="D58" t="n">
-        <v>3.72</v>
+        <v>5.69</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>8.074999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="D59" t="n">
-        <v>1.57</v>
+        <v>0.74</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2.7</v>
+        <v>17.782</v>
       </c>
       <c r="D60" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>138</v>
+        <v>1.086</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.72</v>
+        <v>0.93</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>18.7</v>
+        <v>7.946</v>
       </c>
       <c r="D62" t="n">
-        <v>0.64</v>
+        <v>4.98</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3.593</v>
+        <v>17.909</v>
       </c>
       <c r="D63" t="n">
-        <v>0.7</v>
+        <v>5.01</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6.187</v>
+        <v>0.972</v>
       </c>
       <c r="D64" t="n">
-        <v>0.03</v>
+        <v>1.25</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1912,42 +1912,42 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.086</v>
+        <v>24.167</v>
       </c>
       <c r="D65" t="n">
-        <v>0.93</v>
+        <v>1.4</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>0.972</v>
+        <v>6.187</v>
       </c>
       <c r="D66" t="n">
-        <v>1.25</v>
+        <v>0.03</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1958,65 +1958,65 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2.65</v>
+        <v>18.7</v>
       </c>
       <c r="D67" t="n">
-        <v>1.42</v>
+        <v>0.64</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>138</v>
+        <v>17.055</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.72</v>
+        <v>3.36</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3.593</v>
+        <v>0.972</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2027,76 +2027,76 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1.086</v>
+        <v>7.522</v>
       </c>
       <c r="D70" t="n">
-        <v>0.93</v>
+        <v>4.2</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>18.7</v>
+        <v>23.833</v>
       </c>
       <c r="D71" t="n">
-        <v>0.64</v>
+        <v>1.42</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>23.5</v>
+        <v>17.782</v>
       </c>
       <c r="D72" t="n">
-        <v>3.68</v>
+        <v>1.5</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2105,125 +2105,125 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9.433</v>
+        <v>9.715</v>
       </c>
       <c r="D73" t="n">
-        <v>4.81</v>
+        <v>3.72</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>17.782</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D74" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.219</v>
+        <v>2.7</v>
       </c>
       <c r="D75" t="n">
-        <v>2.27</v>
+        <v>1.89</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>7.95</v>
+        <v>138</v>
       </c>
       <c r="D76" t="n">
-        <v>2.25</v>
+        <v>-0.72</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>16.5</v>
+        <v>3.593</v>
       </c>
       <c r="D77" t="n">
-        <v>3.66</v>
+        <v>0.7</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.972</v>
+        <v>6.187</v>
       </c>
       <c r="D78" t="n">
-        <v>1.25</v>
+        <v>0.03</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2234,19 +2234,19 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2257,30 +2257,30 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>1.086</v>
+        <v>138</v>
       </c>
       <c r="D80" t="n">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2303,226 +2303,226 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D82" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>17.782</v>
+        <v>0.972</v>
       </c>
       <c r="D83" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7.775</v>
+        <v>16.5</v>
       </c>
       <c r="D84" t="n">
-        <v>0.65</v>
+        <v>3.66</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.059</v>
+        <v>7.95</v>
       </c>
       <c r="D85" t="n">
-        <v>0.79</v>
+        <v>2.25</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>138</v>
+        <v>7.219</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.72</v>
+        <v>2.27</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>9</v>
+        <v>17.782</v>
       </c>
       <c r="D87" t="n">
         <v>1.5</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2.613</v>
+        <v>9.433</v>
       </c>
       <c r="D88" t="n">
-        <v>0.5</v>
+        <v>4.81</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>15.918</v>
+        <v>23.5</v>
       </c>
       <c r="D89" t="n">
-        <v>1.8</v>
+        <v>3.68</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.972</v>
+        <v>18.7</v>
       </c>
       <c r="D90" t="n">
-        <v>1.25</v>
+        <v>0.64</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2533,191 +2533,191 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>22.667</v>
+        <v>2.65</v>
       </c>
       <c r="D92" t="n">
-        <v>1.04</v>
+        <v>1.42</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3.593</v>
+        <v>9</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>18.7</v>
+        <v>1.086</v>
       </c>
       <c r="D94" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>22.433</v>
+        <v>3.593</v>
       </c>
       <c r="D95" t="n">
-        <v>3.14</v>
+        <v>0.7</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.972</v>
+        <v>18.7</v>
       </c>
       <c r="D96" t="n">
-        <v>1.25</v>
+        <v>0.64</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>7.004</v>
+        <v>17.782</v>
       </c>
       <c r="D97" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>8.867000000000001</v>
+        <v>7.775</v>
       </c>
       <c r="D98" t="n">
-        <v>3.38</v>
+        <v>0.65</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>15.636</v>
+        <v>7.059</v>
       </c>
       <c r="D99" t="n">
-        <v>2.75</v>
+        <v>0.79</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -2740,65 +2740,65 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>17.782</v>
+        <v>2.613</v>
       </c>
       <c r="D101" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6.187</v>
+        <v>15.918</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03</v>
+        <v>1.8</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1.086</v>
+        <v>0.972</v>
       </c>
       <c r="D103" t="n">
-        <v>0.93</v>
+        <v>1.25</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2809,375 +2809,375 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2.6</v>
+        <v>6.187</v>
       </c>
       <c r="D104" t="n">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7.725</v>
+        <v>22.667</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>18.7</v>
+        <v>3.593</v>
       </c>
       <c r="D106" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>138</v>
+        <v>22.433</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.72</v>
+        <v>3.14</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.96</v>
+        <v>18.7</v>
       </c>
       <c r="D108" t="n">
-        <v>0.74</v>
+        <v>0.64</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>2.575</v>
+        <v>7.725</v>
       </c>
       <c r="D109" t="n">
-        <v>2.47</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>7.663</v>
+        <v>2.6</v>
       </c>
       <c r="D110" t="n">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>8.577</v>
+        <v>1.086</v>
       </c>
       <c r="D111" t="n">
-        <v>1.23</v>
+        <v>0.93</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.076</v>
+        <v>6.187</v>
       </c>
       <c r="D112" t="n">
-        <v>1.41</v>
+        <v>0.03</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>6.185</v>
+        <v>17.782</v>
       </c>
       <c r="D113" t="n">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3.568</v>
+        <v>138</v>
       </c>
       <c r="D114" t="n">
-        <v>0.68</v>
+        <v>-0.72</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>21.75</v>
+        <v>15.636</v>
       </c>
       <c r="D115" t="n">
-        <v>1.52</v>
+        <v>2.75</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>17.782</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>1.5</v>
+        <v>3.38</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>15.218</v>
+        <v>7.004</v>
       </c>
       <c r="D117" t="n">
-        <v>1.7</v>
+        <v>2.16</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6.856</v>
+        <v>0.972</v>
       </c>
       <c r="D118" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3.568</v>
+        <v>2.575</v>
       </c>
       <c r="D119" t="n">
-        <v>0.68</v>
+        <v>2.47</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3200,134 +3200,134 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>17.782</v>
+        <v>7.663</v>
       </c>
       <c r="D121" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>2.475</v>
+        <v>0.96</v>
       </c>
       <c r="D122" t="n">
-        <v>1.02</v>
+        <v>0.74</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>21.188</v>
+        <v>18.7</v>
       </c>
       <c r="D123" t="n">
-        <v>0.71</v>
+        <v>0.64</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>14.573</v>
+        <v>8.577</v>
       </c>
       <c r="D124" t="n">
-        <v>1.78</v>
+        <v>1.23</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7.513</v>
+        <v>1.076</v>
       </c>
       <c r="D125" t="n">
-        <v>0.85</v>
+        <v>1.41</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.96</v>
+        <v>6.185</v>
       </c>
       <c r="D126" t="n">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -3338,398 +3338,398 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8.327999999999999</v>
+        <v>3.568</v>
       </c>
       <c r="D127" t="n">
-        <v>1.04</v>
+        <v>0.68</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>18.7</v>
+        <v>21.75</v>
       </c>
       <c r="D128" t="n">
-        <v>0.64</v>
+        <v>1.52</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6.185</v>
+        <v>17.782</v>
       </c>
       <c r="D129" t="n">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6.584</v>
+        <v>15.218</v>
       </c>
       <c r="D130" t="n">
-        <v>0.61</v>
+        <v>1.7</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1.076</v>
+        <v>6.856</v>
       </c>
       <c r="D131" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>7.949</v>
+        <v>14.573</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9</v>
+        <v>1.78</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7.816</v>
+        <v>7.513</v>
       </c>
       <c r="D133" t="n">
-        <v>1.82</v>
+        <v>0.85</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7.573</v>
+        <v>3.568</v>
       </c>
       <c r="D134" t="n">
-        <v>0.5</v>
+        <v>0.68</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7.535</v>
+        <v>138</v>
       </c>
       <c r="D135" t="n">
-        <v>0.8</v>
+        <v>-0.72</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7.475</v>
+        <v>17.782</v>
       </c>
       <c r="D136" t="n">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>7.349</v>
+        <v>2.475</v>
       </c>
       <c r="D137" t="n">
-        <v>2.21</v>
+        <v>1.02</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>7.109</v>
+        <v>1.076</v>
       </c>
       <c r="D138" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>7.009</v>
+        <v>6.584</v>
       </c>
       <c r="D139" t="n">
-        <v>1.18</v>
+        <v>0.61</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>6.909</v>
+        <v>6.185</v>
       </c>
       <c r="D140" t="n">
-        <v>0.95</v>
+        <v>0.41</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D141" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6.612</v>
+        <v>21.188</v>
       </c>
       <c r="D142" t="n">
-        <v>1.47</v>
+        <v>0.71</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>6.325</v>
+        <v>0.96</v>
       </c>
       <c r="D143" t="n">
-        <v>0.99</v>
+        <v>0.74</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3738,21 +3738,21 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6.231</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D144" t="n">
-        <v>0.24</v>
+        <v>1.04</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -3761,21 +3761,21 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D145" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3784,21 +3784,21 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D146" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3807,21 +3807,21 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D147" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3830,21 +3830,21 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3853,21 +3853,21 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3876,21 +3876,21 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3899,21 +3899,21 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3922,21 +3922,21 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3945,21 +3945,21 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D153" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -3968,21 +3968,21 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -3991,21 +3991,21 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D155" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -4014,21 +4014,21 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D156" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -4037,35 +4037,334 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D158" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D160" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D161" t="n">
+        <v>0</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D162" t="n">
+        <v>0</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D163" t="n">
+        <v>0</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D164" t="n">
+        <v>0</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D167" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D168" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D169" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D170" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="C171" t="n">
         <v>6.167</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D171" t="n">
         <v>0</v>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E171" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.813</v>
+        <v>2.893</v>
       </c>
       <c r="D9" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.35</v>
+        <v>8.363</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.931</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09</v>
+        <v>1.74</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>18.63</v>
+        <v>19.25</v>
       </c>
       <c r="D12" t="n">
-        <v>1.8</v>
+        <v>3.33</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.333</v>
+        <v>24.368</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>10.686</v>
+        <v>11.267</v>
       </c>
       <c r="D14" t="n">
-        <v>2.19</v>
+        <v>4.88</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10.457</v>
+        <v>10.686</v>
       </c>
       <c r="D17" t="n">
-        <v>1.1</v>
+        <v>2.19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -843,18 +843,18 @@
         <v>24.333</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18.455</v>
+        <v>18.63</v>
       </c>
       <c r="D19" t="n">
-        <v>3.05</v>
+        <v>1.8</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.998</v>
+        <v>7.931</v>
       </c>
       <c r="D20" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -912,18 +912,18 @@
         <v>8.35</v>
       </c>
       <c r="D21" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.763</v>
+        <v>2.813</v>
       </c>
       <c r="D22" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10.343</v>
+        <v>18.091</v>
       </c>
       <c r="D28" t="n">
-        <v>5.69</v>
+        <v>1.74</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.167</v>
+        <v>24.333</v>
       </c>
       <c r="D29" t="n">
-        <v>1.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1116,44 +1116,44 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.72</v>
+        <v>3.62</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>17.782</v>
+        <v>10.457</v>
       </c>
       <c r="D31" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1162,21 +1162,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>18.7</v>
+        <v>18.721</v>
       </c>
       <c r="D32" t="n">
-        <v>0.64</v>
+        <v>0.11</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1185,21 +1185,21 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.593</v>
+        <v>3.641</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7</v>
+        <v>1.34</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1208,21 +1208,21 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.187</v>
+        <v>6.307</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03</v>
+        <v>1.94</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1231,21 +1231,21 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.972</v>
+        <v>0.986</v>
       </c>
       <c r="D35" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1254,21 +1254,21 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.086</v>
+        <v>1.11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.93</v>
+        <v>2.21</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.72</v>
+        <v>2.763</v>
       </c>
       <c r="D37" t="n">
-        <v>0.74</v>
+        <v>1.58</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1300,21 +1300,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="D38" t="n">
-        <v>2.17</v>
+        <v>1.21</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7.923</v>
+        <v>7.998</v>
       </c>
       <c r="D39" t="n">
-        <v>4.68</v>
+        <v>0.95</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1346,21 +1346,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>17.909</v>
+        <v>18.455</v>
       </c>
       <c r="D40" t="n">
-        <v>5.01</v>
+        <v>3.05</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1383,122 +1383,122 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>138</v>
+        <v>3.593</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>17.782</v>
+        <v>24.167</v>
       </c>
       <c r="D43" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.593</v>
+        <v>10.343</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7</v>
+        <v>5.69</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10.343</v>
+        <v>17.782</v>
       </c>
       <c r="D45" t="n">
-        <v>5.69</v>
+        <v>1.5</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24.167</v>
+        <v>138</v>
       </c>
       <c r="D46" t="n">
-        <v>1.4</v>
+        <v>-0.72</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1544,7 +1544,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1567,7 +1567,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1659,42 +1659,42 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D54" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3.593</v>
+        <v>0.972</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1705,30 +1705,30 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>8.25</v>
+        <v>18.7</v>
       </c>
       <c r="D56" t="n">
-        <v>2.17</v>
+        <v>0.64</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1751,99 +1751,99 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>10.343</v>
+        <v>17.782</v>
       </c>
       <c r="D58" t="n">
-        <v>5.69</v>
+        <v>1.5</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2.72</v>
+        <v>3.593</v>
       </c>
       <c r="D59" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D60" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>1.086</v>
+        <v>17.909</v>
       </c>
       <c r="D61" t="n">
-        <v>0.93</v>
+        <v>5.01</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1852,67 +1852,67 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7.946</v>
+        <v>7.923</v>
       </c>
       <c r="D62" t="n">
-        <v>4.98</v>
+        <v>4.68</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>17.909</v>
+        <v>8.25</v>
       </c>
       <c r="D63" t="n">
-        <v>5.01</v>
+        <v>2.17</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.972</v>
+        <v>2.72</v>
       </c>
       <c r="D64" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1928,26 +1928,26 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D66" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1958,65 +1958,65 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>18.7</v>
+        <v>1.086</v>
       </c>
       <c r="D67" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>17.055</v>
+        <v>18.7</v>
       </c>
       <c r="D68" t="n">
-        <v>3.36</v>
+        <v>0.64</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.972</v>
+        <v>3.593</v>
       </c>
       <c r="D69" t="n">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2027,180 +2027,180 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>7.522</v>
+        <v>8.25</v>
       </c>
       <c r="D70" t="n">
-        <v>4.2</v>
+        <v>2.17</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>23.833</v>
+        <v>138</v>
       </c>
       <c r="D71" t="n">
-        <v>1.42</v>
+        <v>-0.72</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D72" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>9.715</v>
+        <v>2.72</v>
       </c>
       <c r="D73" t="n">
-        <v>3.72</v>
+        <v>0.74</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>8.074999999999999</v>
+        <v>17.782</v>
       </c>
       <c r="D74" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2.7</v>
+        <v>7.946</v>
       </c>
       <c r="D75" t="n">
-        <v>1.89</v>
+        <v>4.98</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>138</v>
+        <v>17.909</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.72</v>
+        <v>5.01</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3.593</v>
+        <v>0.972</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2211,42 +2211,42 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6.187</v>
+        <v>24.167</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03</v>
+        <v>1.4</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.086</v>
+        <v>6.187</v>
       </c>
       <c r="D79" t="n">
-        <v>0.93</v>
+        <v>0.03</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2257,65 +2257,65 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>138</v>
+        <v>17.055</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.72</v>
+        <v>3.36</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3.593</v>
+        <v>18.7</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6.187</v>
+        <v>0.972</v>
       </c>
       <c r="D82" t="n">
-        <v>0.03</v>
+        <v>1.25</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2326,19 +2326,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.972</v>
+        <v>1.086</v>
       </c>
       <c r="D83" t="n">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2349,157 +2349,157 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>16.5</v>
+        <v>7.522</v>
       </c>
       <c r="D84" t="n">
-        <v>3.66</v>
+        <v>4.2</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.95</v>
+        <v>23.833</v>
       </c>
       <c r="D85" t="n">
-        <v>2.25</v>
+        <v>1.42</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>7.219</v>
+        <v>17.782</v>
       </c>
       <c r="D86" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>17.782</v>
+        <v>9.715</v>
       </c>
       <c r="D87" t="n">
-        <v>1.5</v>
+        <v>3.72</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>9.433</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>4.81</v>
+        <v>1.57</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>23.5</v>
+        <v>2.7</v>
       </c>
       <c r="D89" t="n">
-        <v>3.68</v>
+        <v>1.89</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>18.7</v>
+        <v>138</v>
       </c>
       <c r="D90" t="n">
-        <v>0.64</v>
+        <v>-0.72</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2510,19 +2510,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>1.086</v>
+        <v>3.593</v>
       </c>
       <c r="D91" t="n">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2533,513 +2533,513 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.65</v>
+        <v>6.187</v>
       </c>
       <c r="D92" t="n">
-        <v>1.42</v>
+        <v>0.03</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>9</v>
+        <v>0.972</v>
       </c>
       <c r="D93" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1.086</v>
+        <v>138</v>
       </c>
       <c r="D94" t="n">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3.593</v>
+        <v>16.5</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7</v>
+        <v>3.66</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>18.7</v>
+        <v>3.593</v>
       </c>
       <c r="D96" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>17.782</v>
+        <v>2.65</v>
       </c>
       <c r="D97" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>7.775</v>
+        <v>1.086</v>
       </c>
       <c r="D98" t="n">
-        <v>0.65</v>
+        <v>0.93</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.059</v>
+        <v>18.7</v>
       </c>
       <c r="D99" t="n">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>138</v>
+        <v>23.5</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.72</v>
+        <v>3.68</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2.613</v>
+        <v>9.433</v>
       </c>
       <c r="D101" t="n">
-        <v>0.5</v>
+        <v>4.81</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>15.918</v>
+        <v>6.187</v>
       </c>
       <c r="D102" t="n">
-        <v>1.8</v>
+        <v>0.03</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>0.972</v>
+        <v>7.219</v>
       </c>
       <c r="D103" t="n">
-        <v>1.25</v>
+        <v>2.27</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>6.187</v>
+        <v>7.95</v>
       </c>
       <c r="D104" t="n">
-        <v>0.03</v>
+        <v>2.25</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>22.667</v>
+        <v>17.782</v>
       </c>
       <c r="D105" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3.593</v>
+        <v>2.613</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>22.433</v>
+        <v>9</v>
       </c>
       <c r="D107" t="n">
-        <v>3.14</v>
+        <v>1.5</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>18.7</v>
+        <v>1.086</v>
       </c>
       <c r="D108" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>7.725</v>
+        <v>3.593</v>
       </c>
       <c r="D109" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2.6</v>
+        <v>18.7</v>
       </c>
       <c r="D110" t="n">
-        <v>0.97</v>
+        <v>0.64</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>1.086</v>
+        <v>17.782</v>
       </c>
       <c r="D111" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>6.187</v>
+        <v>7.775</v>
       </c>
       <c r="D112" t="n">
-        <v>0.03</v>
+        <v>0.65</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>17.782</v>
+        <v>7.059</v>
       </c>
       <c r="D113" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3062,7 +3062,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3071,159 +3071,159 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>15.636</v>
+        <v>15.918</v>
       </c>
       <c r="D115" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>8.867000000000001</v>
+        <v>0.972</v>
       </c>
       <c r="D116" t="n">
-        <v>3.38</v>
+        <v>1.25</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7.004</v>
+        <v>6.187</v>
       </c>
       <c r="D117" t="n">
-        <v>2.16</v>
+        <v>0.03</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.972</v>
+        <v>22.667</v>
       </c>
       <c r="D118" t="n">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2.575</v>
+        <v>18.7</v>
       </c>
       <c r="D119" t="n">
-        <v>2.47</v>
+        <v>0.64</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>138</v>
+        <v>3.593</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>7.663</v>
+        <v>22.433</v>
       </c>
       <c r="D121" t="n">
-        <v>0.5</v>
+        <v>3.14</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3232,44 +3232,44 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.96</v>
+        <v>0.972</v>
       </c>
       <c r="D122" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>18.7</v>
+        <v>7.004</v>
       </c>
       <c r="D123" t="n">
-        <v>0.64</v>
+        <v>2.16</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3278,320 +3278,320 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>8.577</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>1.23</v>
+        <v>3.38</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1.076</v>
+        <v>15.636</v>
       </c>
       <c r="D125" t="n">
-        <v>1.41</v>
+        <v>2.75</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>6.185</v>
+        <v>138</v>
       </c>
       <c r="D126" t="n">
-        <v>0.41</v>
+        <v>-0.72</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3.568</v>
+        <v>17.782</v>
       </c>
       <c r="D127" t="n">
-        <v>0.68</v>
+        <v>1.5</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>21.75</v>
+        <v>6.187</v>
       </c>
       <c r="D128" t="n">
-        <v>1.52</v>
+        <v>0.03</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>17.782</v>
+        <v>1.086</v>
       </c>
       <c r="D129" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>15.218</v>
+        <v>2.6</v>
       </c>
       <c r="D130" t="n">
-        <v>1.7</v>
+        <v>0.97</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>6.856</v>
+        <v>7.725</v>
       </c>
       <c r="D131" t="n">
-        <v>1.57</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>14.573</v>
+        <v>0.96</v>
       </c>
       <c r="D132" t="n">
-        <v>1.78</v>
+        <v>0.74</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7.513</v>
+        <v>138</v>
       </c>
       <c r="D133" t="n">
-        <v>0.85</v>
+        <v>-0.72</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3.568</v>
+        <v>18.7</v>
       </c>
       <c r="D134" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>138</v>
+        <v>7.663</v>
       </c>
       <c r="D135" t="n">
-        <v>-0.72</v>
+        <v>0.5</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>17.782</v>
+        <v>2.575</v>
       </c>
       <c r="D136" t="n">
-        <v>1.5</v>
+        <v>2.47</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2.475</v>
+        <v>8.577</v>
       </c>
       <c r="D137" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -3614,42 +3614,42 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>6.584</v>
+        <v>6.185</v>
       </c>
       <c r="D139" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>6.185</v>
+        <v>3.568</v>
       </c>
       <c r="D140" t="n">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3660,237 +3660,237 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>18.7</v>
+        <v>21.75</v>
       </c>
       <c r="D141" t="n">
-        <v>0.64</v>
+        <v>1.52</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>21.188</v>
+        <v>17.782</v>
       </c>
       <c r="D142" t="n">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0.96</v>
+        <v>15.218</v>
       </c>
       <c r="D143" t="n">
-        <v>0.74</v>
+        <v>1.7</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>8.327999999999999</v>
+        <v>6.856</v>
       </c>
       <c r="D144" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>7.949</v>
+        <v>2.475</v>
       </c>
       <c r="D145" t="n">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>7.816</v>
+        <v>1.076</v>
       </c>
       <c r="D146" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>7.573</v>
+        <v>14.573</v>
       </c>
       <c r="D147" t="n">
-        <v>0.5</v>
+        <v>1.78</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7.535</v>
+        <v>7.513</v>
       </c>
       <c r="D148" t="n">
-        <v>0.8</v>
+        <v>0.85</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>7.475</v>
+        <v>3.568</v>
       </c>
       <c r="D149" t="n">
-        <v>0.86</v>
+        <v>0.68</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>7.349</v>
+        <v>138</v>
       </c>
       <c r="D150" t="n">
-        <v>2.21</v>
+        <v>-0.72</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -3899,159 +3899,159 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7.109</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>1.43</v>
+        <v>1.04</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>7.009</v>
+        <v>0.96</v>
       </c>
       <c r="D152" t="n">
-        <v>1.18</v>
+        <v>0.74</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6.909</v>
+        <v>21.188</v>
       </c>
       <c r="D153" t="n">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D154" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6.612</v>
+        <v>17.782</v>
       </c>
       <c r="D155" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>6.325</v>
+        <v>6.584</v>
       </c>
       <c r="D156" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6.231</v>
+        <v>6.185</v>
       </c>
       <c r="D157" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4060,21 +4060,21 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D158" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -4083,21 +4083,21 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D159" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -4106,21 +4106,21 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D160" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -4129,21 +4129,21 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -4152,21 +4152,21 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4175,21 +4175,21 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -4198,21 +4198,21 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4221,21 +4221,21 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4244,21 +4244,21 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D166" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4267,21 +4267,21 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4290,21 +4290,21 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
@@ -4313,21 +4313,21 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -4336,35 +4336,334 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D170" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D180" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D181" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D182" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D183" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B171" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C171" t="n">
+      <c r="C184" t="n">
         <v>6.167</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D184" t="n">
         <v>0</v>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="E184" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E184"/>
+  <dimension ref="A1:E197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.893</v>
+        <v>2.975</v>
       </c>
       <c r="D9" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.363</v>
+        <v>8.375</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.069000000000001</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>1.74</v>
+        <v>3.06</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19.25</v>
+        <v>19.8</v>
       </c>
       <c r="D12" t="n">
-        <v>3.33</v>
+        <v>2.86</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.368</v>
+        <v>24.566</v>
       </c>
       <c r="D13" t="n">
-        <v>0.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11.267</v>
+        <v>11.867</v>
       </c>
       <c r="D14" t="n">
-        <v>4.88</v>
+        <v>5.33</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>10.686</v>
+        <v>11.267</v>
       </c>
       <c r="D17" t="n">
-        <v>2.19</v>
+        <v>4.88</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.333</v>
+        <v>24.368</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>18.63</v>
+        <v>19.25</v>
       </c>
       <c r="D19" t="n">
-        <v>1.8</v>
+        <v>3.33</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>7.931</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09</v>
+        <v>1.74</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.35</v>
+        <v>8.363</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.813</v>
+        <v>2.893</v>
       </c>
       <c r="D22" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18.091</v>
+        <v>10.686</v>
       </c>
       <c r="D28" t="n">
-        <v>1.74</v>
+        <v>2.19</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1096,18 +1096,18 @@
         <v>24.333</v>
       </c>
       <c r="D29" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>10.457</v>
+        <v>18.091</v>
       </c>
       <c r="D31" t="n">
-        <v>1.1</v>
+        <v>1.74</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.763</v>
+        <v>2.813</v>
       </c>
       <c r="D37" t="n">
-        <v>1.58</v>
+        <v>1.81</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1303,18 +1303,18 @@
         <v>8.35</v>
       </c>
       <c r="D38" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7.998</v>
+        <v>7.931</v>
       </c>
       <c r="D39" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1346,21 +1346,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>18.455</v>
+        <v>18.63</v>
       </c>
       <c r="D40" t="n">
-        <v>3.05</v>
+        <v>1.8</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1369,21 +1369,21 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>18.7</v>
+        <v>18.721</v>
       </c>
       <c r="D41" t="n">
-        <v>0.64</v>
+        <v>0.11</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1392,21 +1392,21 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.593</v>
+        <v>3.641</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7</v>
+        <v>1.34</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1415,67 +1415,67 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>24.167</v>
+        <v>24.333</v>
       </c>
       <c r="D43" t="n">
-        <v>1.4</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>10.343</v>
+        <v>18.091</v>
       </c>
       <c r="D44" t="n">
-        <v>5.69</v>
+        <v>1.74</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>17.782</v>
+        <v>10.457</v>
       </c>
       <c r="D45" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1484,21 +1484,21 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.72</v>
+        <v>3.62</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1507,21 +1507,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6.187</v>
+        <v>6.307</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03</v>
+        <v>1.94</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1530,21 +1530,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.972</v>
+        <v>0.986</v>
       </c>
       <c r="D48" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1553,21 +1553,21 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.086</v>
+        <v>1.11</v>
       </c>
       <c r="D49" t="n">
-        <v>0.93</v>
+        <v>2.21</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1576,21 +1576,21 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.72</v>
+        <v>2.763</v>
       </c>
       <c r="D50" t="n">
-        <v>0.74</v>
+        <v>1.58</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1599,21 +1599,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="D51" t="n">
-        <v>2.17</v>
+        <v>1.21</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1622,21 +1622,21 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7.923</v>
+        <v>7.998</v>
       </c>
       <c r="D52" t="n">
-        <v>4.68</v>
+        <v>0.95</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1645,21 +1645,21 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>17.909</v>
+        <v>18.455</v>
       </c>
       <c r="D53" t="n">
-        <v>5.01</v>
+        <v>3.05</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1682,7 +1682,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1705,7 +1705,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1728,99 +1728,99 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>138</v>
+        <v>3.593</v>
       </c>
       <c r="D57" t="n">
-        <v>-0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>17.782</v>
+        <v>24.167</v>
       </c>
       <c r="D58" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.593</v>
+        <v>10.343</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7</v>
+        <v>5.69</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>10.343</v>
+        <v>17.782</v>
       </c>
       <c r="D60" t="n">
-        <v>5.69</v>
+        <v>1.5</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1843,7 +1843,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1866,7 +1866,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1889,7 +1889,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1912,30 +1912,30 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>24.167</v>
+        <v>138</v>
       </c>
       <c r="D65" t="n">
-        <v>1.4</v>
+        <v>-0.72</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1958,65 +1958,65 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1.086</v>
+        <v>17.909</v>
       </c>
       <c r="D67" t="n">
-        <v>0.93</v>
+        <v>5.01</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D68" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3.593</v>
+        <v>0.972</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -2027,30 +2027,30 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>8.25</v>
+        <v>18.7</v>
       </c>
       <c r="D70" t="n">
-        <v>2.17</v>
+        <v>0.64</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2073,76 +2073,76 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>10.343</v>
+        <v>17.782</v>
       </c>
       <c r="D72" t="n">
-        <v>5.69</v>
+        <v>1.5</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2.72</v>
+        <v>3.593</v>
       </c>
       <c r="D73" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D74" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2151,67 +2151,67 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.946</v>
+        <v>7.923</v>
       </c>
       <c r="D75" t="n">
-        <v>4.98</v>
+        <v>4.68</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>17.909</v>
+        <v>8.25</v>
       </c>
       <c r="D76" t="n">
-        <v>5.01</v>
+        <v>2.17</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.972</v>
+        <v>2.72</v>
       </c>
       <c r="D77" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2227,26 +2227,26 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D79" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2257,65 +2257,65 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>17.055</v>
+        <v>18.7</v>
       </c>
       <c r="D80" t="n">
-        <v>3.36</v>
+        <v>0.64</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>18.7</v>
+        <v>1.086</v>
       </c>
       <c r="D81" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.972</v>
+        <v>3.593</v>
       </c>
       <c r="D82" t="n">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2326,19 +2326,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.086</v>
+        <v>6.187</v>
       </c>
       <c r="D83" t="n">
-        <v>0.93</v>
+        <v>0.03</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2349,180 +2349,180 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>7.522</v>
+        <v>8.25</v>
       </c>
       <c r="D84" t="n">
-        <v>4.2</v>
+        <v>2.17</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>23.833</v>
+        <v>138</v>
       </c>
       <c r="D85" t="n">
-        <v>1.42</v>
+        <v>-0.72</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D86" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>9.715</v>
+        <v>2.72</v>
       </c>
       <c r="D87" t="n">
-        <v>3.72</v>
+        <v>0.74</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>8.074999999999999</v>
+        <v>17.782</v>
       </c>
       <c r="D88" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2.7</v>
+        <v>7.946</v>
       </c>
       <c r="D89" t="n">
-        <v>1.89</v>
+        <v>4.98</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>138</v>
+        <v>17.909</v>
       </c>
       <c r="D90" t="n">
-        <v>-0.72</v>
+        <v>5.01</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3.593</v>
+        <v>0.972</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2533,42 +2533,42 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6.187</v>
+        <v>24.167</v>
       </c>
       <c r="D92" t="n">
-        <v>0.03</v>
+        <v>1.4</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.972</v>
+        <v>1.086</v>
       </c>
       <c r="D93" t="n">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2579,111 +2579,111 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>138</v>
+        <v>17.055</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.72</v>
+        <v>3.36</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>16.5</v>
+        <v>7.522</v>
       </c>
       <c r="D95" t="n">
-        <v>3.66</v>
+        <v>4.2</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3.593</v>
+        <v>18.7</v>
       </c>
       <c r="D96" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2.65</v>
+        <v>6.187</v>
       </c>
       <c r="D97" t="n">
-        <v>1.42</v>
+        <v>0.03</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1.086</v>
+        <v>3.593</v>
       </c>
       <c r="D98" t="n">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2694,19 +2694,19 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>18.7</v>
+        <v>138</v>
       </c>
       <c r="D99" t="n">
-        <v>0.64</v>
+        <v>-0.72</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2717,65 +2717,65 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>23.5</v>
+        <v>2.7</v>
       </c>
       <c r="D100" t="n">
-        <v>3.68</v>
+        <v>1.89</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>9.433</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>4.81</v>
+        <v>1.57</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6.187</v>
+        <v>0.972</v>
       </c>
       <c r="D102" t="n">
-        <v>0.03</v>
+        <v>1.25</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2786,410 +2786,410 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7.219</v>
+        <v>17.782</v>
       </c>
       <c r="D103" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>7.95</v>
+        <v>23.833</v>
       </c>
       <c r="D104" t="n">
-        <v>2.25</v>
+        <v>1.42</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>17.782</v>
+        <v>9.715</v>
       </c>
       <c r="D105" t="n">
-        <v>1.5</v>
+        <v>3.72</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2.613</v>
+        <v>23.5</v>
       </c>
       <c r="D106" t="n">
-        <v>0.5</v>
+        <v>3.68</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>9</v>
+        <v>0.972</v>
       </c>
       <c r="D107" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1.086</v>
+        <v>138</v>
       </c>
       <c r="D108" t="n">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3.593</v>
+        <v>16.5</v>
       </c>
       <c r="D109" t="n">
-        <v>0.7</v>
+        <v>3.66</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>18.7</v>
+        <v>3.593</v>
       </c>
       <c r="D110" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>17.782</v>
+        <v>2.65</v>
       </c>
       <c r="D111" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>7.775</v>
+        <v>1.086</v>
       </c>
       <c r="D112" t="n">
-        <v>0.65</v>
+        <v>0.93</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>7.059</v>
+        <v>18.7</v>
       </c>
       <c r="D113" t="n">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>138</v>
+        <v>9.433</v>
       </c>
       <c r="D114" t="n">
-        <v>-0.72</v>
+        <v>4.81</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>15.918</v>
+        <v>6.187</v>
       </c>
       <c r="D115" t="n">
-        <v>1.8</v>
+        <v>0.03</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0.972</v>
+        <v>7.219</v>
       </c>
       <c r="D116" t="n">
-        <v>1.25</v>
+        <v>2.27</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6.187</v>
+        <v>7.95</v>
       </c>
       <c r="D117" t="n">
-        <v>0.03</v>
+        <v>2.25</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>22.667</v>
+        <v>17.782</v>
       </c>
       <c r="D118" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>18.7</v>
+        <v>2.613</v>
       </c>
       <c r="D119" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3.593</v>
+        <v>1.086</v>
       </c>
       <c r="D120" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3200,99 +3200,99 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>22.433</v>
+        <v>9</v>
       </c>
       <c r="D121" t="n">
-        <v>3.14</v>
+        <v>1.5</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>0.972</v>
+        <v>22.667</v>
       </c>
       <c r="D122" t="n">
-        <v>1.25</v>
+        <v>1.04</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>7.004</v>
+        <v>6.187</v>
       </c>
       <c r="D123" t="n">
-        <v>2.16</v>
+        <v>0.03</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>8.867000000000001</v>
+        <v>0.972</v>
       </c>
       <c r="D124" t="n">
-        <v>3.38</v>
+        <v>1.25</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3301,21 +3301,21 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>15.636</v>
+        <v>15.918</v>
       </c>
       <c r="D125" t="n">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -3338,122 +3338,122 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>17.782</v>
+        <v>7.059</v>
       </c>
       <c r="D127" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6.187</v>
+        <v>7.775</v>
       </c>
       <c r="D128" t="n">
-        <v>0.03</v>
+        <v>0.65</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>1.086</v>
+        <v>17.782</v>
       </c>
       <c r="D129" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2.6</v>
+        <v>18.7</v>
       </c>
       <c r="D130" t="n">
-        <v>0.97</v>
+        <v>0.64</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>7.725</v>
+        <v>3.593</v>
       </c>
       <c r="D131" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3462,44 +3462,44 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.96</v>
+        <v>0.972</v>
       </c>
       <c r="D132" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>138</v>
+        <v>7.004</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.72</v>
+        <v>2.16</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -3522,53 +3522,53 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7.663</v>
+        <v>22.433</v>
       </c>
       <c r="D135" t="n">
-        <v>0.5</v>
+        <v>3.14</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>2.575</v>
+        <v>3.593</v>
       </c>
       <c r="D136" t="n">
-        <v>2.47</v>
+        <v>0.7</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3577,217 +3577,217 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>8.577</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>1.23</v>
+        <v>3.38</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>1.076</v>
+        <v>15.636</v>
       </c>
       <c r="D138" t="n">
-        <v>1.41</v>
+        <v>2.75</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>6.185</v>
+        <v>138</v>
       </c>
       <c r="D139" t="n">
-        <v>0.41</v>
+        <v>-0.72</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>3.568</v>
+        <v>17.782</v>
       </c>
       <c r="D140" t="n">
-        <v>0.68</v>
+        <v>1.5</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>21.75</v>
+        <v>6.187</v>
       </c>
       <c r="D141" t="n">
-        <v>1.52</v>
+        <v>0.03</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>17.782</v>
+        <v>1.086</v>
       </c>
       <c r="D142" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>15.218</v>
+        <v>2.6</v>
       </c>
       <c r="D143" t="n">
-        <v>1.7</v>
+        <v>0.97</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>6.856</v>
+        <v>7.725</v>
       </c>
       <c r="D144" t="n">
-        <v>1.57</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>2.475</v>
+        <v>8.577</v>
       </c>
       <c r="D145" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>1.076</v>
+        <v>0.96</v>
       </c>
       <c r="D146" t="n">
-        <v>1.41</v>
+        <v>0.74</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3798,249 +3798,249 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>14.573</v>
+        <v>138</v>
       </c>
       <c r="D147" t="n">
-        <v>1.78</v>
+        <v>-0.72</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>7.513</v>
+        <v>1.076</v>
       </c>
       <c r="D148" t="n">
-        <v>0.85</v>
+        <v>1.41</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3.568</v>
+        <v>18.7</v>
       </c>
       <c r="D149" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>138</v>
+        <v>7.663</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.72</v>
+        <v>0.5</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>8.327999999999999</v>
+        <v>6.856</v>
       </c>
       <c r="D151" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0.96</v>
+        <v>15.218</v>
       </c>
       <c r="D152" t="n">
-        <v>0.74</v>
+        <v>1.7</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>21.188</v>
+        <v>17.782</v>
       </c>
       <c r="D153" t="n">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18.7</v>
+        <v>21.75</v>
       </c>
       <c r="D154" t="n">
-        <v>0.64</v>
+        <v>1.52</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>17.782</v>
+        <v>2.575</v>
       </c>
       <c r="D155" t="n">
-        <v>1.5</v>
+        <v>2.47</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>6.584</v>
+        <v>6.185</v>
       </c>
       <c r="D156" t="n">
-        <v>0.61</v>
+        <v>0.41</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>6.185</v>
+        <v>3.568</v>
       </c>
       <c r="D157" t="n">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4051,168 +4051,168 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7.949</v>
+        <v>0.96</v>
       </c>
       <c r="D158" t="n">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>7.816</v>
+        <v>2.475</v>
       </c>
       <c r="D159" t="n">
-        <v>1.82</v>
+        <v>1.02</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>7.573</v>
+        <v>1.076</v>
       </c>
       <c r="D160" t="n">
-        <v>0.5</v>
+        <v>1.41</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>7.535</v>
+        <v>14.573</v>
       </c>
       <c r="D161" t="n">
-        <v>0.8</v>
+        <v>1.78</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7.475</v>
+        <v>7.513</v>
       </c>
       <c r="D162" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7.349</v>
+        <v>3.568</v>
       </c>
       <c r="D163" t="n">
-        <v>2.21</v>
+        <v>0.68</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>7.109</v>
+        <v>138</v>
       </c>
       <c r="D164" t="n">
-        <v>1.43</v>
+        <v>-0.72</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -4221,136 +4221,136 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>7.009</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D165" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>6.909</v>
+        <v>21.188</v>
       </c>
       <c r="D166" t="n">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D167" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>6.612</v>
+        <v>17.782</v>
       </c>
       <c r="D168" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6.325</v>
+        <v>6.584</v>
       </c>
       <c r="D169" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>6.231</v>
+        <v>6.185</v>
       </c>
       <c r="D170" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4359,21 +4359,21 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D171" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -4382,21 +4382,21 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D172" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -4405,21 +4405,21 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D173" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4428,21 +4428,21 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -4451,21 +4451,21 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4474,21 +4474,21 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4497,21 +4497,21 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -4520,21 +4520,21 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -4543,21 +4543,21 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D179" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4566,21 +4566,21 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D180" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -4589,21 +4589,21 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D181" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -4612,21 +4612,21 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -4635,35 +4635,334 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D183" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D186" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D190" t="n">
+        <v>0</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D191" t="n">
+        <v>0</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D192" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D193" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D194" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D195" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D196" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B184" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C184" t="n">
+      <c r="C197" t="n">
         <v>6.167</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E197"/>
+  <dimension ref="A1:E210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2.975</v>
+        <v>3.038</v>
       </c>
       <c r="D9" t="n">
-        <v>2.83</v>
+        <v>2.12</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.316000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="D11" t="n">
-        <v>3.06</v>
+        <v>1.97</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>19.8</v>
+        <v>20.55</v>
       </c>
       <c r="D12" t="n">
-        <v>2.86</v>
+        <v>3.79</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.566</v>
+        <v>24.721</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11.867</v>
+        <v>12.378</v>
       </c>
       <c r="D14" t="n">
-        <v>5.33</v>
+        <v>4.31</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11.267</v>
+        <v>11.867</v>
       </c>
       <c r="D17" t="n">
-        <v>4.88</v>
+        <v>5.33</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.368</v>
+        <v>24.566</v>
       </c>
       <c r="D18" t="n">
-        <v>0.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19.25</v>
+        <v>19.8</v>
       </c>
       <c r="D19" t="n">
-        <v>3.33</v>
+        <v>2.86</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.069000000000001</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>1.74</v>
+        <v>3.06</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.363</v>
+        <v>8.375</v>
       </c>
       <c r="D21" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.893</v>
+        <v>2.975</v>
       </c>
       <c r="D22" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10.686</v>
+        <v>18.091</v>
       </c>
       <c r="D28" t="n">
-        <v>2.19</v>
+        <v>1.74</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.333</v>
+        <v>24.368</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18.091</v>
+        <v>11.267</v>
       </c>
       <c r="D31" t="n">
-        <v>1.74</v>
+        <v>4.88</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.813</v>
+        <v>2.893</v>
       </c>
       <c r="D37" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1300,21 +1300,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.35</v>
+        <v>8.363</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>7.931</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>0.09</v>
+        <v>1.74</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1346,21 +1346,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>18.63</v>
+        <v>19.25</v>
       </c>
       <c r="D40" t="n">
-        <v>1.8</v>
+        <v>3.33</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1383,19 +1383,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.641</v>
+        <v>143</v>
       </c>
       <c r="D42" t="n">
-        <v>1.34</v>
+        <v>3.62</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1406,42 +1406,42 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>24.333</v>
+        <v>10.686</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.19</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>18.091</v>
+        <v>3.641</v>
       </c>
       <c r="D44" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1452,65 +1452,65 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>10.457</v>
+        <v>18.091</v>
       </c>
       <c r="D45" t="n">
-        <v>1.1</v>
+        <v>1.74</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>143</v>
+        <v>24.333</v>
       </c>
       <c r="D46" t="n">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6.307</v>
+        <v>1.11</v>
       </c>
       <c r="D47" t="n">
-        <v>1.94</v>
+        <v>2.21</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1521,99 +1521,99 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.986</v>
+        <v>2.813</v>
       </c>
       <c r="D48" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.11</v>
+        <v>18.63</v>
       </c>
       <c r="D49" t="n">
-        <v>2.21</v>
+        <v>1.8</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2.763</v>
+        <v>6.307</v>
       </c>
       <c r="D50" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>8.35</v>
+        <v>0.986</v>
       </c>
       <c r="D51" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1622,159 +1622,159 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7.998</v>
+        <v>7.931</v>
       </c>
       <c r="D52" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>18.455</v>
+        <v>8.35</v>
       </c>
       <c r="D53" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>6.187</v>
+        <v>24.333</v>
       </c>
       <c r="D54" t="n">
-        <v>0.03</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.972</v>
+        <v>3.641</v>
       </c>
       <c r="D55" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>18.7</v>
+        <v>0.986</v>
       </c>
       <c r="D56" t="n">
-        <v>0.64</v>
+        <v>1.44</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3.593</v>
+        <v>18.721</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>24.167</v>
+        <v>6.307</v>
       </c>
       <c r="D58" t="n">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1783,44 +1783,44 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10.343</v>
+        <v>10.457</v>
       </c>
       <c r="D59" t="n">
-        <v>5.69</v>
+        <v>1.1</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>17.782</v>
+        <v>143</v>
       </c>
       <c r="D60" t="n">
-        <v>1.5</v>
+        <v>3.62</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>17.909</v>
+        <v>18.455</v>
       </c>
       <c r="D61" t="n">
-        <v>5.01</v>
+        <v>3.05</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1852,21 +1852,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7.923</v>
+        <v>7.998</v>
       </c>
       <c r="D62" t="n">
-        <v>4.68</v>
+        <v>0.95</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1875,21 +1875,21 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="D63" t="n">
-        <v>2.17</v>
+        <v>1.21</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1898,79 +1898,79 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.72</v>
+        <v>2.763</v>
       </c>
       <c r="D64" t="n">
-        <v>0.74</v>
+        <v>1.58</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>138</v>
+        <v>1.11</v>
       </c>
       <c r="D65" t="n">
-        <v>-0.72</v>
+        <v>2.21</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1.086</v>
+        <v>18.091</v>
       </c>
       <c r="D66" t="n">
-        <v>0.93</v>
+        <v>1.74</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>17.909</v>
+        <v>8.25</v>
       </c>
       <c r="D67" t="n">
-        <v>5.01</v>
+        <v>2.17</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1981,19 +1981,19 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D68" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2004,122 +2004,122 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.972</v>
+        <v>138</v>
       </c>
       <c r="D69" t="n">
-        <v>1.25</v>
+        <v>-0.72</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>18.7</v>
+        <v>2.72</v>
       </c>
       <c r="D70" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>138</v>
+        <v>7.923</v>
       </c>
       <c r="D71" t="n">
-        <v>-0.72</v>
+        <v>4.68</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17.782</v>
+        <v>17.909</v>
       </c>
       <c r="D72" t="n">
-        <v>1.5</v>
+        <v>5.01</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3.593</v>
+        <v>17.782</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2142,19 +2142,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>7.923</v>
+        <v>24.167</v>
       </c>
       <c r="D75" t="n">
-        <v>4.68</v>
+        <v>1.4</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2165,134 +2165,134 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8.25</v>
+        <v>3.593</v>
       </c>
       <c r="D76" t="n">
-        <v>2.17</v>
+        <v>0.7</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2.72</v>
+        <v>0.972</v>
       </c>
       <c r="D77" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>24.167</v>
+        <v>6.187</v>
       </c>
       <c r="D78" t="n">
-        <v>1.4</v>
+        <v>0.03</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1.086</v>
+        <v>18.7</v>
       </c>
       <c r="D79" t="n">
-        <v>0.93</v>
+        <v>0.64</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>18.7</v>
+        <v>7.923</v>
       </c>
       <c r="D80" t="n">
-        <v>0.64</v>
+        <v>4.68</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.086</v>
+        <v>6.187</v>
       </c>
       <c r="D81" t="n">
-        <v>0.93</v>
+        <v>0.03</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2303,42 +2303,42 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3.593</v>
+        <v>17.909</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7</v>
+        <v>5.01</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>6.187</v>
+        <v>0.972</v>
       </c>
       <c r="D83" t="n">
-        <v>0.03</v>
+        <v>1.25</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2349,30 +2349,30 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8.25</v>
+        <v>18.7</v>
       </c>
       <c r="D84" t="n">
-        <v>2.17</v>
+        <v>0.64</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2395,180 +2395,180 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>10.343</v>
+        <v>17.782</v>
       </c>
       <c r="D86" t="n">
-        <v>5.69</v>
+        <v>1.5</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2.72</v>
+        <v>3.593</v>
       </c>
       <c r="D87" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D88" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>7.946</v>
+        <v>8.25</v>
       </c>
       <c r="D89" t="n">
-        <v>4.98</v>
+        <v>2.17</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>17.909</v>
+        <v>2.72</v>
       </c>
       <c r="D90" t="n">
-        <v>5.01</v>
+        <v>0.74</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.972</v>
+        <v>24.167</v>
       </c>
       <c r="D91" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>24.167</v>
+        <v>1.086</v>
       </c>
       <c r="D92" t="n">
-        <v>1.4</v>
+        <v>0.93</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.086</v>
+        <v>3.593</v>
       </c>
       <c r="D93" t="n">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2579,76 +2579,76 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>17.055</v>
+        <v>18.7</v>
       </c>
       <c r="D94" t="n">
-        <v>3.36</v>
+        <v>0.64</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>7.522</v>
+        <v>1.086</v>
       </c>
       <c r="D95" t="n">
-        <v>4.2</v>
+        <v>0.93</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>18.7</v>
+        <v>24.167</v>
       </c>
       <c r="D96" t="n">
-        <v>0.64</v>
+        <v>1.4</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2671,30 +2671,30 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3.593</v>
+        <v>8.25</v>
       </c>
       <c r="D98" t="n">
-        <v>0.7</v>
+        <v>2.17</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2717,180 +2717,180 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2.7</v>
+        <v>10.343</v>
       </c>
       <c r="D100" t="n">
-        <v>1.89</v>
+        <v>5.69</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8.074999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="D101" t="n">
-        <v>1.57</v>
+        <v>0.74</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>0.972</v>
+        <v>17.782</v>
       </c>
       <c r="D102" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>17.782</v>
+        <v>7.946</v>
       </c>
       <c r="D103" t="n">
-        <v>1.5</v>
+        <v>4.98</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>23.833</v>
+        <v>17.909</v>
       </c>
       <c r="D104" t="n">
-        <v>1.42</v>
+        <v>5.01</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>9.715</v>
+        <v>0.972</v>
       </c>
       <c r="D105" t="n">
-        <v>3.72</v>
+        <v>1.25</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>23.5</v>
+        <v>18.7</v>
       </c>
       <c r="D106" t="n">
-        <v>3.68</v>
+        <v>0.64</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>0.972</v>
+        <v>1.086</v>
       </c>
       <c r="D107" t="n">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2901,30 +2901,30 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>138</v>
+        <v>6.187</v>
       </c>
       <c r="D108" t="n">
-        <v>-0.72</v>
+        <v>0.03</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -2933,355 +2933,355 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>16.5</v>
+        <v>17.055</v>
       </c>
       <c r="D109" t="n">
-        <v>3.66</v>
+        <v>3.36</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3.593</v>
+        <v>9.715</v>
       </c>
       <c r="D110" t="n">
-        <v>0.7</v>
+        <v>3.72</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2.65</v>
+        <v>23.833</v>
       </c>
       <c r="D111" t="n">
         <v>1.42</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>1.086</v>
+        <v>17.782</v>
       </c>
       <c r="D112" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>18.7</v>
+        <v>0.972</v>
       </c>
       <c r="D113" t="n">
-        <v>0.64</v>
+        <v>1.25</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>9.433</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D114" t="n">
-        <v>4.81</v>
+        <v>1.57</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>6.187</v>
+        <v>7.522</v>
       </c>
       <c r="D115" t="n">
-        <v>0.03</v>
+        <v>4.2</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>7.219</v>
+        <v>138</v>
       </c>
       <c r="D116" t="n">
-        <v>2.27</v>
+        <v>-0.72</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7.95</v>
+        <v>3.593</v>
       </c>
       <c r="D117" t="n">
-        <v>2.25</v>
+        <v>0.7</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>17.782</v>
+        <v>2.7</v>
       </c>
       <c r="D118" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2.613</v>
+        <v>9.433</v>
       </c>
       <c r="D119" t="n">
-        <v>0.5</v>
+        <v>4.81</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.086</v>
+        <v>23.5</v>
       </c>
       <c r="D120" t="n">
-        <v>0.93</v>
+        <v>3.68</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>9</v>
+        <v>0.972</v>
       </c>
       <c r="D121" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>22.667</v>
+        <v>138</v>
       </c>
       <c r="D122" t="n">
-        <v>1.04</v>
+        <v>-0.72</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6.187</v>
+        <v>16.5</v>
       </c>
       <c r="D123" t="n">
-        <v>0.03</v>
+        <v>3.66</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>0.972</v>
+        <v>3.593</v>
       </c>
       <c r="D124" t="n">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -3292,364 +3292,364 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>15.918</v>
+        <v>2.65</v>
       </c>
       <c r="D125" t="n">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>138</v>
+        <v>1.086</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.72</v>
+        <v>0.93</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>7.059</v>
+        <v>18.7</v>
       </c>
       <c r="D127" t="n">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>7.775</v>
+        <v>6.187</v>
       </c>
       <c r="D128" t="n">
-        <v>0.65</v>
+        <v>0.03</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>17.782</v>
+        <v>7.219</v>
       </c>
       <c r="D129" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>18.7</v>
+        <v>7.95</v>
       </c>
       <c r="D130" t="n">
-        <v>0.64</v>
+        <v>2.25</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3.593</v>
+        <v>17.782</v>
       </c>
       <c r="D131" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>0.972</v>
+        <v>9</v>
       </c>
       <c r="D132" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>7.004</v>
+        <v>2.613</v>
       </c>
       <c r="D133" t="n">
-        <v>2.16</v>
+        <v>0.5</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>18.7</v>
+        <v>1.086</v>
       </c>
       <c r="D134" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>22.433</v>
+        <v>3.593</v>
       </c>
       <c r="D135" t="n">
-        <v>3.14</v>
+        <v>0.7</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3.593</v>
+        <v>18.7</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>8.867000000000001</v>
+        <v>17.782</v>
       </c>
       <c r="D137" t="n">
-        <v>3.38</v>
+        <v>1.5</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>15.636</v>
+        <v>7.775</v>
       </c>
       <c r="D138" t="n">
-        <v>2.75</v>
+        <v>0.65</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>138</v>
+        <v>7.059</v>
       </c>
       <c r="D139" t="n">
-        <v>-0.72</v>
+        <v>0.79</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>17.782</v>
+        <v>138</v>
       </c>
       <c r="D140" t="n">
-        <v>1.5</v>
+        <v>-0.72</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3660,42 +3660,42 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>6.187</v>
+        <v>15.918</v>
       </c>
       <c r="D141" t="n">
-        <v>0.03</v>
+        <v>1.8</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>1.086</v>
+        <v>0.972</v>
       </c>
       <c r="D142" t="n">
-        <v>0.93</v>
+        <v>1.25</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3706,237 +3706,237 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>2.6</v>
+        <v>6.187</v>
       </c>
       <c r="D143" t="n">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7.725</v>
+        <v>22.667</v>
       </c>
       <c r="D144" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>8.577</v>
+        <v>22.433</v>
       </c>
       <c r="D145" t="n">
-        <v>1.23</v>
+        <v>3.14</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>0.96</v>
+        <v>3.593</v>
       </c>
       <c r="D146" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>138</v>
+        <v>0.972</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.72</v>
+        <v>1.25</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.076</v>
+        <v>18.7</v>
       </c>
       <c r="D148" t="n">
-        <v>1.41</v>
+        <v>0.64</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>18.7</v>
+        <v>7.004</v>
       </c>
       <c r="D149" t="n">
-        <v>0.64</v>
+        <v>2.16</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>7.663</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>0.5</v>
+        <v>3.38</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>6.856</v>
+        <v>15.636</v>
       </c>
       <c r="D151" t="n">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>15.218</v>
+        <v>138</v>
       </c>
       <c r="D152" t="n">
-        <v>1.7</v>
+        <v>-0.72</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -3959,157 +3959,157 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>21.75</v>
+        <v>6.187</v>
       </c>
       <c r="D154" t="n">
-        <v>1.52</v>
+        <v>0.03</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>2.575</v>
+        <v>1.086</v>
       </c>
       <c r="D155" t="n">
-        <v>2.47</v>
+        <v>0.93</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>6.185</v>
+        <v>2.6</v>
       </c>
       <c r="D156" t="n">
-        <v>0.41</v>
+        <v>0.97</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3.568</v>
+        <v>7.725</v>
       </c>
       <c r="D157" t="n">
-        <v>0.68</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.96</v>
+        <v>7.663</v>
       </c>
       <c r="D158" t="n">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2.475</v>
+        <v>8.577</v>
       </c>
       <c r="D159" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>1.076</v>
+        <v>0.96</v>
       </c>
       <c r="D160" t="n">
-        <v>1.41</v>
+        <v>0.74</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4120,65 +4120,65 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>14.573</v>
+        <v>6.856</v>
       </c>
       <c r="D161" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>7.513</v>
+        <v>138</v>
       </c>
       <c r="D162" t="n">
-        <v>0.85</v>
+        <v>-0.72</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3.568</v>
+        <v>1.076</v>
       </c>
       <c r="D163" t="n">
-        <v>0.68</v>
+        <v>1.41</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -4189,111 +4189,111 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>138</v>
+        <v>3.568</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.72</v>
+        <v>0.68</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>8.327999999999999</v>
+        <v>6.185</v>
       </c>
       <c r="D165" t="n">
-        <v>1.04</v>
+        <v>0.41</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>21.188</v>
+        <v>2.575</v>
       </c>
       <c r="D166" t="n">
-        <v>0.71</v>
+        <v>2.47</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>18.7</v>
+        <v>21.75</v>
       </c>
       <c r="D167" t="n">
-        <v>0.64</v>
+        <v>1.52</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>17.782</v>
+        <v>18.7</v>
       </c>
       <c r="D168" t="n">
-        <v>1.5</v>
+        <v>0.64</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4304,53 +4304,53 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6.584</v>
+        <v>15.218</v>
       </c>
       <c r="D169" t="n">
-        <v>0.61</v>
+        <v>1.7</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>6.185</v>
+        <v>17.782</v>
       </c>
       <c r="D170" t="n">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4359,297 +4359,297 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>7.949</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D171" t="n">
-        <v>0.9</v>
+        <v>1.04</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>7.816</v>
+        <v>0.96</v>
       </c>
       <c r="D172" t="n">
-        <v>1.82</v>
+        <v>0.74</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>7.573</v>
+        <v>2.475</v>
       </c>
       <c r="D173" t="n">
-        <v>0.5</v>
+        <v>1.02</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>7.535</v>
+        <v>1.076</v>
       </c>
       <c r="D174" t="n">
-        <v>0.8</v>
+        <v>1.41</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>7.475</v>
+        <v>14.573</v>
       </c>
       <c r="D175" t="n">
-        <v>0.86</v>
+        <v>1.78</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>7.349</v>
+        <v>7.513</v>
       </c>
       <c r="D176" t="n">
-        <v>2.21</v>
+        <v>0.85</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>7.109</v>
+        <v>3.568</v>
       </c>
       <c r="D177" t="n">
-        <v>1.43</v>
+        <v>0.68</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>7.009</v>
+        <v>138</v>
       </c>
       <c r="D178" t="n">
-        <v>1.18</v>
+        <v>-0.72</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>6.909</v>
+        <v>21.188</v>
       </c>
       <c r="D179" t="n">
-        <v>0.95</v>
+        <v>0.71</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D180" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6.612</v>
+        <v>17.782</v>
       </c>
       <c r="D181" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6.325</v>
+        <v>6.584</v>
       </c>
       <c r="D182" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6.231</v>
+        <v>6.185</v>
       </c>
       <c r="D183" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -4658,21 +4658,21 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D184" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4681,21 +4681,21 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D185" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4704,21 +4704,21 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D186" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -4727,21 +4727,21 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4750,21 +4750,21 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
@@ -4773,21 +4773,21 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
@@ -4796,21 +4796,21 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D190" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4819,21 +4819,21 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D191" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
@@ -4842,21 +4842,21 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D192" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4865,21 +4865,21 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D193" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4888,21 +4888,21 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D194" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4911,21 +4911,21 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4934,35 +4934,334 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D196" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D197" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D199" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D200" t="n">
+        <v>0</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D201" t="n">
+        <v>0</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D202" t="n">
+        <v>0</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D203" t="n">
+        <v>0</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D204" t="n">
+        <v>0</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D205" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D206" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D207" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D208" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D209" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C197" t="n">
+      <c r="C210" t="n">
         <v>6.167</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D210" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E210" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E210"/>
+  <dimension ref="A1:E223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -640,14 +640,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -663,14 +663,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -686,14 +686,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -709,14 +709,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -732,14 +732,14 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12.378</v>
+        <v>12.615</v>
       </c>
       <c r="D14" t="n">
-        <v>4.31</v>
+        <v>6.3</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>11.867</v>
+        <v>12.378</v>
       </c>
       <c r="D17" t="n">
-        <v>5.33</v>
+        <v>4.31</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.566</v>
+        <v>24.721</v>
       </c>
       <c r="D18" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>19.8</v>
+        <v>20.55</v>
       </c>
       <c r="D19" t="n">
-        <v>2.86</v>
+        <v>3.79</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.316000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="D20" t="n">
-        <v>3.06</v>
+        <v>1.97</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.975</v>
+        <v>3.038</v>
       </c>
       <c r="D22" t="n">
-        <v>2.83</v>
+        <v>2.12</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18.091</v>
+        <v>11.867</v>
       </c>
       <c r="D28" t="n">
-        <v>1.74</v>
+        <v>5.33</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.368</v>
+        <v>24.566</v>
       </c>
       <c r="D29" t="n">
-        <v>0.14</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>11.267</v>
+        <v>18.091</v>
       </c>
       <c r="D31" t="n">
-        <v>4.88</v>
+        <v>1.74</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.893</v>
+        <v>2.975</v>
       </c>
       <c r="D37" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1300,21 +1300,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.363</v>
+        <v>8.375</v>
       </c>
       <c r="D38" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.069000000000001</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>1.74</v>
+        <v>3.06</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1346,21 +1346,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19.25</v>
+        <v>19.8</v>
       </c>
       <c r="D40" t="n">
-        <v>3.33</v>
+        <v>2.86</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1406,30 +1406,30 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>10.686</v>
+        <v>18.091</v>
       </c>
       <c r="D43" t="n">
-        <v>2.19</v>
+        <v>1.74</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1452,30 +1452,30 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18.091</v>
+        <v>11.267</v>
       </c>
       <c r="D45" t="n">
-        <v>1.74</v>
+        <v>4.88</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1484,21 +1484,21 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24.333</v>
+        <v>24.368</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1530,21 +1530,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.813</v>
+        <v>2.893</v>
       </c>
       <c r="D48" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1553,21 +1553,21 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>18.63</v>
+        <v>19.25</v>
       </c>
       <c r="D49" t="n">
-        <v>1.8</v>
+        <v>3.33</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1622,21 +1622,21 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>7.931</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09</v>
+        <v>1.74</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1645,56 +1645,56 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.35</v>
+        <v>8.363</v>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>24.333</v>
+        <v>10.686</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.19</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3.641</v>
+        <v>143</v>
       </c>
       <c r="D55" t="n">
-        <v>1.34</v>
+        <v>3.62</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1705,30 +1705,30 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.986</v>
+        <v>2.813</v>
       </c>
       <c r="D56" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1751,19 +1751,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>6.307</v>
+        <v>1.11</v>
       </c>
       <c r="D58" t="n">
-        <v>1.94</v>
+        <v>2.21</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1774,76 +1774,76 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>10.457</v>
+        <v>18.091</v>
       </c>
       <c r="D59" t="n">
-        <v>1.1</v>
+        <v>1.74</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>143</v>
+        <v>24.333</v>
       </c>
       <c r="D60" t="n">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>18.455</v>
+        <v>8.35</v>
       </c>
       <c r="D61" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1852,102 +1852,102 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7.998</v>
+        <v>7.931</v>
       </c>
       <c r="D62" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>8.35</v>
+        <v>0.986</v>
       </c>
       <c r="D63" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2.763</v>
+        <v>6.307</v>
       </c>
       <c r="D64" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>1.11</v>
+        <v>18.63</v>
       </c>
       <c r="D65" t="n">
-        <v>2.21</v>
+        <v>1.8</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>18.091</v>
+        <v>3.641</v>
       </c>
       <c r="D66" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1967,67 +1967,67 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.25</v>
+        <v>8.35</v>
       </c>
       <c r="D67" t="n">
-        <v>2.17</v>
+        <v>1.21</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1.086</v>
+        <v>18.091</v>
       </c>
       <c r="D68" t="n">
-        <v>0.93</v>
+        <v>1.74</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>138</v>
+        <v>1.11</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.72</v>
+        <v>2.21</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2036,21 +2036,21 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2.72</v>
+        <v>2.763</v>
       </c>
       <c r="D70" t="n">
-        <v>0.74</v>
+        <v>1.58</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2059,21 +2059,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.923</v>
+        <v>7.998</v>
       </c>
       <c r="D71" t="n">
-        <v>4.68</v>
+        <v>0.95</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2082,44 +2082,44 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>17.909</v>
+        <v>18.455</v>
       </c>
       <c r="D72" t="n">
-        <v>5.01</v>
+        <v>3.05</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>17.782</v>
+        <v>143</v>
       </c>
       <c r="D73" t="n">
-        <v>1.5</v>
+        <v>3.62</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2128,148 +2128,148 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>10.343</v>
+        <v>10.457</v>
       </c>
       <c r="D74" t="n">
-        <v>5.69</v>
+        <v>1.1</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>24.167</v>
+        <v>6.307</v>
       </c>
       <c r="D75" t="n">
-        <v>1.4</v>
+        <v>1.94</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3.593</v>
+        <v>18.721</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.972</v>
+        <v>3.641</v>
       </c>
       <c r="D77" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>6.187</v>
+        <v>24.333</v>
       </c>
       <c r="D78" t="n">
-        <v>0.03</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>18.7</v>
+        <v>0.986</v>
       </c>
       <c r="D79" t="n">
-        <v>0.64</v>
+        <v>1.44</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>7.923</v>
+        <v>24.167</v>
       </c>
       <c r="D80" t="n">
-        <v>4.68</v>
+        <v>1.4</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2280,19 +2280,19 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D81" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2303,19 +2303,19 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>17.909</v>
+        <v>8.25</v>
       </c>
       <c r="D82" t="n">
-        <v>5.01</v>
+        <v>2.17</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2326,122 +2326,122 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.972</v>
+        <v>138</v>
       </c>
       <c r="D83" t="n">
-        <v>1.25</v>
+        <v>-0.72</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>18.7</v>
+        <v>2.72</v>
       </c>
       <c r="D84" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>138</v>
+        <v>7.923</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.72</v>
+        <v>4.68</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>17.782</v>
+        <v>17.909</v>
       </c>
       <c r="D86" t="n">
-        <v>1.5</v>
+        <v>5.01</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3.593</v>
+        <v>17.782</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2464,157 +2464,157 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8.25</v>
+        <v>3.593</v>
       </c>
       <c r="D89" t="n">
-        <v>2.17</v>
+        <v>0.7</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2.72</v>
+        <v>0.972</v>
       </c>
       <c r="D90" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>24.167</v>
+        <v>6.187</v>
       </c>
       <c r="D91" t="n">
-        <v>1.4</v>
+        <v>0.03</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1.086</v>
+        <v>18.7</v>
       </c>
       <c r="D92" t="n">
-        <v>0.93</v>
+        <v>0.64</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3.593</v>
+        <v>17.909</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7</v>
+        <v>5.01</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>18.7</v>
+        <v>7.923</v>
       </c>
       <c r="D94" t="n">
-        <v>0.64</v>
+        <v>4.68</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1.086</v>
+        <v>6.187</v>
       </c>
       <c r="D95" t="n">
-        <v>0.93</v>
+        <v>0.03</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2625,42 +2625,42 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>24.167</v>
+        <v>1.086</v>
       </c>
       <c r="D96" t="n">
-        <v>1.4</v>
+        <v>0.93</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>6.187</v>
+        <v>0.972</v>
       </c>
       <c r="D97" t="n">
-        <v>0.03</v>
+        <v>1.25</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2671,30 +2671,30 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>8.25</v>
+        <v>18.7</v>
       </c>
       <c r="D98" t="n">
-        <v>2.17</v>
+        <v>0.64</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -2717,180 +2717,180 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>10.343</v>
+        <v>17.782</v>
       </c>
       <c r="D100" t="n">
-        <v>5.69</v>
+        <v>1.5</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2.72</v>
+        <v>3.593</v>
       </c>
       <c r="D101" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D102" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>7.946</v>
+        <v>8.25</v>
       </c>
       <c r="D103" t="n">
-        <v>4.98</v>
+        <v>2.17</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>17.909</v>
+        <v>2.72</v>
       </c>
       <c r="D104" t="n">
-        <v>5.01</v>
+        <v>0.74</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>0.972</v>
+        <v>24.167</v>
       </c>
       <c r="D105" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>18.7</v>
+        <v>24.167</v>
       </c>
       <c r="D106" t="n">
-        <v>0.64</v>
+        <v>1.4</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.086</v>
+        <v>3.593</v>
       </c>
       <c r="D107" t="n">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2901,7 +2901,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2924,168 +2924,168 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>17.055</v>
+        <v>18.7</v>
       </c>
       <c r="D109" t="n">
-        <v>3.36</v>
+        <v>0.64</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>9.715</v>
+        <v>0.972</v>
       </c>
       <c r="D110" t="n">
-        <v>3.72</v>
+        <v>1.25</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>23.833</v>
+        <v>17.909</v>
       </c>
       <c r="D111" t="n">
-        <v>1.42</v>
+        <v>5.01</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>17.782</v>
+        <v>7.946</v>
       </c>
       <c r="D112" t="n">
-        <v>1.5</v>
+        <v>4.98</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>0.972</v>
+        <v>17.782</v>
       </c>
       <c r="D113" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>8.074999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="D114" t="n">
-        <v>1.57</v>
+        <v>0.74</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>7.522</v>
+        <v>1.086</v>
       </c>
       <c r="D115" t="n">
-        <v>4.2</v>
+        <v>0.93</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3108,111 +3108,111 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3.593</v>
+        <v>8.25</v>
       </c>
       <c r="D117" t="n">
-        <v>0.7</v>
+        <v>2.17</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>2.7</v>
+        <v>10.343</v>
       </c>
       <c r="D118" t="n">
-        <v>1.89</v>
+        <v>5.69</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>9.433</v>
+        <v>0.972</v>
       </c>
       <c r="D119" t="n">
-        <v>4.81</v>
+        <v>1.25</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>23.5</v>
+        <v>18.7</v>
       </c>
       <c r="D120" t="n">
-        <v>3.68</v>
+        <v>0.64</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>0.972</v>
+        <v>1.086</v>
       </c>
       <c r="D121" t="n">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3223,30 +3223,30 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>138</v>
+        <v>6.187</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.72</v>
+        <v>0.03</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3255,205 +3255,205 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>16.5</v>
+        <v>17.055</v>
       </c>
       <c r="D123" t="n">
-        <v>3.66</v>
+        <v>3.36</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3.593</v>
+        <v>9.715</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7</v>
+        <v>3.72</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>2.65</v>
+        <v>23.833</v>
       </c>
       <c r="D125" t="n">
         <v>1.42</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>1.086</v>
+        <v>17.782</v>
       </c>
       <c r="D126" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>18.7</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D127" t="n">
-        <v>0.64</v>
+        <v>1.57</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6.187</v>
+        <v>7.522</v>
       </c>
       <c r="D128" t="n">
-        <v>0.03</v>
+        <v>4.2</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7.219</v>
+        <v>138</v>
       </c>
       <c r="D129" t="n">
-        <v>2.27</v>
+        <v>-0.72</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>7.95</v>
+        <v>3.593</v>
       </c>
       <c r="D130" t="n">
-        <v>2.25</v>
+        <v>0.7</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>17.782</v>
+        <v>2.7</v>
       </c>
       <c r="D131" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -3462,240 +3462,240 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>9</v>
+        <v>9.433</v>
       </c>
       <c r="D132" t="n">
-        <v>1.5</v>
+        <v>4.81</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2.613</v>
+        <v>0.972</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1.086</v>
+        <v>23.5</v>
       </c>
       <c r="D134" t="n">
-        <v>0.93</v>
+        <v>3.68</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3.593</v>
+        <v>17.782</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>18.7</v>
+        <v>7.95</v>
       </c>
       <c r="D136" t="n">
-        <v>0.64</v>
+        <v>2.25</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>17.782</v>
+        <v>7.219</v>
       </c>
       <c r="D137" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>7.775</v>
+        <v>6.187</v>
       </c>
       <c r="D138" t="n">
-        <v>0.65</v>
+        <v>0.03</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>7.059</v>
+        <v>18.7</v>
       </c>
       <c r="D139" t="n">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>138</v>
+        <v>1.086</v>
       </c>
       <c r="D140" t="n">
-        <v>-0.72</v>
+        <v>0.93</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>15.918</v>
+        <v>2.65</v>
       </c>
       <c r="D141" t="n">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>0.972</v>
+        <v>3.593</v>
       </c>
       <c r="D142" t="n">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3706,272 +3706,272 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>6.187</v>
+        <v>16.5</v>
       </c>
       <c r="D143" t="n">
-        <v>0.03</v>
+        <v>3.66</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>22.667</v>
+        <v>138</v>
       </c>
       <c r="D144" t="n">
-        <v>1.04</v>
+        <v>-0.72</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>22.433</v>
+        <v>3.593</v>
       </c>
       <c r="D145" t="n">
-        <v>3.14</v>
+        <v>0.7</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3.593</v>
+        <v>2.613</v>
       </c>
       <c r="D146" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.972</v>
+        <v>18.7</v>
       </c>
       <c r="D147" t="n">
-        <v>1.25</v>
+        <v>0.64</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>18.7</v>
+        <v>1.086</v>
       </c>
       <c r="D148" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>7.004</v>
+        <v>9</v>
       </c>
       <c r="D149" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>8.867000000000001</v>
+        <v>7.775</v>
       </c>
       <c r="D150" t="n">
-        <v>3.38</v>
+        <v>0.65</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>15.636</v>
+        <v>7.059</v>
       </c>
       <c r="D151" t="n">
-        <v>2.75</v>
+        <v>0.79</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>138</v>
+        <v>22.667</v>
       </c>
       <c r="D152" t="n">
-        <v>-0.72</v>
+        <v>1.04</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>17.782</v>
+        <v>6.187</v>
       </c>
       <c r="D153" t="n">
-        <v>1.5</v>
+        <v>0.03</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6.187</v>
+        <v>0.972</v>
       </c>
       <c r="D154" t="n">
-        <v>0.03</v>
+        <v>1.25</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3982,180 +3982,180 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>1.086</v>
+        <v>17.782</v>
       </c>
       <c r="D155" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>2.6</v>
+        <v>15.918</v>
       </c>
       <c r="D156" t="n">
-        <v>0.97</v>
+        <v>1.8</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>7.725</v>
+        <v>138</v>
       </c>
       <c r="D157" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.72</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>7.663</v>
+        <v>3.593</v>
       </c>
       <c r="D158" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>8.577</v>
+        <v>22.433</v>
       </c>
       <c r="D159" t="n">
-        <v>1.23</v>
+        <v>3.14</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0.96</v>
+        <v>15.636</v>
       </c>
       <c r="D160" t="n">
-        <v>0.74</v>
+        <v>2.75</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>6.856</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>1.57</v>
+        <v>3.38</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>138</v>
+        <v>18.7</v>
       </c>
       <c r="D162" t="n">
-        <v>-0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4166,134 +4166,134 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>1.076</v>
+        <v>7.004</v>
       </c>
       <c r="D163" t="n">
-        <v>1.41</v>
+        <v>2.16</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3.568</v>
+        <v>7.725</v>
       </c>
       <c r="D164" t="n">
-        <v>0.68</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>6.185</v>
+        <v>2.6</v>
       </c>
       <c r="D165" t="n">
-        <v>0.41</v>
+        <v>0.97</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>2.575</v>
+        <v>1.086</v>
       </c>
       <c r="D166" t="n">
-        <v>2.47</v>
+        <v>0.93</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>21.75</v>
+        <v>6.187</v>
       </c>
       <c r="D167" t="n">
-        <v>1.52</v>
+        <v>0.03</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>18.7</v>
+        <v>17.782</v>
       </c>
       <c r="D168" t="n">
-        <v>0.64</v>
+        <v>1.5</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4304,191 +4304,191 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>15.218</v>
+        <v>138</v>
       </c>
       <c r="D169" t="n">
-        <v>1.7</v>
+        <v>-0.72</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>17.782</v>
+        <v>0.972</v>
       </c>
       <c r="D170" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>8.327999999999999</v>
+        <v>21.75</v>
       </c>
       <c r="D171" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.96</v>
+        <v>17.782</v>
       </c>
       <c r="D172" t="n">
-        <v>0.74</v>
+        <v>1.5</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2.475</v>
+        <v>15.218</v>
       </c>
       <c r="D173" t="n">
-        <v>1.02</v>
+        <v>1.7</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>1.076</v>
+        <v>18.7</v>
       </c>
       <c r="D174" t="n">
-        <v>1.41</v>
+        <v>0.64</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>14.573</v>
+        <v>2.575</v>
       </c>
       <c r="D175" t="n">
-        <v>1.78</v>
+        <v>2.47</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>7.513</v>
+        <v>6.185</v>
       </c>
       <c r="D176" t="n">
-        <v>0.85</v>
+        <v>0.41</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4511,191 +4511,191 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>138</v>
+        <v>1.076</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.72</v>
+        <v>1.41</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>21.188</v>
+        <v>138</v>
       </c>
       <c r="D179" t="n">
-        <v>0.71</v>
+        <v>-0.72</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>18.7</v>
+        <v>6.856</v>
       </c>
       <c r="D180" t="n">
-        <v>0.64</v>
+        <v>1.57</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>17.782</v>
+        <v>0.96</v>
       </c>
       <c r="D181" t="n">
-        <v>1.5</v>
+        <v>0.74</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>6.584</v>
+        <v>7.663</v>
       </c>
       <c r="D182" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>6.185</v>
+        <v>8.577</v>
       </c>
       <c r="D183" t="n">
-        <v>0.41</v>
+        <v>1.23</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>7.949</v>
+        <v>21.188</v>
       </c>
       <c r="D184" t="n">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>7.816</v>
+        <v>0.96</v>
       </c>
       <c r="D185" t="n">
-        <v>1.82</v>
+        <v>0.74</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4704,251 +4704,251 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>7.573</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5</v>
+        <v>1.04</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>7.535</v>
+        <v>2.475</v>
       </c>
       <c r="D187" t="n">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>7.475</v>
+        <v>1.076</v>
       </c>
       <c r="D188" t="n">
-        <v>0.86</v>
+        <v>1.41</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>7.349</v>
+        <v>14.573</v>
       </c>
       <c r="D189" t="n">
-        <v>2.21</v>
+        <v>1.78</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>7.109</v>
+        <v>7.513</v>
       </c>
       <c r="D190" t="n">
-        <v>1.43</v>
+        <v>0.85</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>7.009</v>
+        <v>3.568</v>
       </c>
       <c r="D191" t="n">
-        <v>1.18</v>
+        <v>0.68</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>6.909</v>
+        <v>138</v>
       </c>
       <c r="D192" t="n">
-        <v>0.95</v>
+        <v>-0.72</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D193" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>6.612</v>
+        <v>17.782</v>
       </c>
       <c r="D194" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>6.325</v>
+        <v>6.584</v>
       </c>
       <c r="D195" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6.231</v>
+        <v>6.185</v>
       </c>
       <c r="D196" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4957,21 +4957,21 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D197" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
@@ -4980,21 +4980,21 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D198" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
@@ -5003,21 +5003,21 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D199" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5026,21 +5026,21 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D200" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -5049,21 +5049,21 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D201" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5072,21 +5072,21 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D202" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
@@ -5095,21 +5095,21 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D203" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5118,21 +5118,21 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -5141,21 +5141,21 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D205" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5164,21 +5164,21 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D206" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -5187,21 +5187,21 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -5210,21 +5210,21 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D208" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
@@ -5233,35 +5233,334 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D209" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D210" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D212" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C213" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D213" t="n">
+        <v>0</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D214" t="n">
+        <v>0</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C215" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D215" t="n">
+        <v>0</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D216" t="n">
+        <v>0</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C217" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D217" t="n">
+        <v>0</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C219" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D219" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D220" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C221" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D221" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D222" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C210" t="n">
+      <c r="C223" t="n">
         <v>6.167</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D223" t="n">
         <v>0</v>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="E223" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E223"/>
+  <dimension ref="A1:E236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -647,7 +647,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -670,7 +670,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -693,7 +693,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -716,7 +716,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -739,7 +739,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -762,7 +762,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12.378</v>
+        <v>12.615</v>
       </c>
       <c r="D17" t="n">
-        <v>4.31</v>
+        <v>6.3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -847,14 +847,14 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -870,14 +870,14 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -893,14 +893,14 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -916,14 +916,14 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -939,14 +939,14 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>11.867</v>
+        <v>18.091</v>
       </c>
       <c r="D28" t="n">
-        <v>5.33</v>
+        <v>1.74</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.566</v>
+        <v>24.721</v>
       </c>
       <c r="D29" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18.091</v>
+        <v>12.378</v>
       </c>
       <c r="D31" t="n">
-        <v>1.74</v>
+        <v>4.31</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2.975</v>
+        <v>3.038</v>
       </c>
       <c r="D37" t="n">
-        <v>2.83</v>
+        <v>2.12</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1300,21 +1300,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.316000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="D39" t="n">
-        <v>3.06</v>
+        <v>1.97</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1346,21 +1346,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>19.8</v>
+        <v>20.55</v>
       </c>
       <c r="D40" t="n">
-        <v>2.86</v>
+        <v>3.79</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1383,19 +1383,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>143</v>
+        <v>3.641</v>
       </c>
       <c r="D42" t="n">
-        <v>3.62</v>
+        <v>1.34</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1406,99 +1406,99 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18.091</v>
+        <v>24.566</v>
       </c>
       <c r="D43" t="n">
-        <v>1.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.641</v>
+        <v>11.867</v>
       </c>
       <c r="D44" t="n">
-        <v>1.34</v>
+        <v>5.33</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>11.267</v>
+        <v>18.091</v>
       </c>
       <c r="D45" t="n">
-        <v>4.88</v>
+        <v>1.74</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24.368</v>
+        <v>143</v>
       </c>
       <c r="D46" t="n">
-        <v>0.14</v>
+        <v>3.62</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1530,21 +1530,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.893</v>
+        <v>2.975</v>
       </c>
       <c r="D48" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1553,21 +1553,21 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19.25</v>
+        <v>19.8</v>
       </c>
       <c r="D49" t="n">
-        <v>3.33</v>
+        <v>2.86</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1622,21 +1622,21 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8.069000000000001</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>1.74</v>
+        <v>3.06</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1645,44 +1645,44 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.363</v>
+        <v>8.375</v>
       </c>
       <c r="D53" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>10.686</v>
+        <v>18.091</v>
       </c>
       <c r="D54" t="n">
-        <v>2.19</v>
+        <v>1.74</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1705,7 +1705,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1714,21 +1714,21 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.813</v>
+        <v>2.893</v>
       </c>
       <c r="D56" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1751,7 +1751,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1774,30 +1774,30 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>18.091</v>
+        <v>11.267</v>
       </c>
       <c r="D59" t="n">
-        <v>1.74</v>
+        <v>4.88</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1806,21 +1806,21 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24.333</v>
+        <v>24.368</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.35</v>
+        <v>8.363</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1852,21 +1852,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>7.931</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.09</v>
+        <v>1.74</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1889,7 +1889,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1921,21 +1921,21 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>18.63</v>
+        <v>19.25</v>
       </c>
       <c r="D65" t="n">
-        <v>1.8</v>
+        <v>3.33</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1958,42 +1958,42 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.35</v>
+        <v>0.986</v>
       </c>
       <c r="D67" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>18.091</v>
+        <v>3.641</v>
       </c>
       <c r="D68" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -2004,53 +2004,53 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>1.11</v>
+        <v>18.63</v>
       </c>
       <c r="D69" t="n">
-        <v>2.21</v>
+        <v>1.8</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2.763</v>
+        <v>6.307</v>
       </c>
       <c r="D70" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2059,102 +2059,102 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.998</v>
+        <v>7.931</v>
       </c>
       <c r="D71" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>18.455</v>
+        <v>8.35</v>
       </c>
       <c r="D72" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>143</v>
+        <v>24.333</v>
       </c>
       <c r="D73" t="n">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>10.457</v>
+        <v>18.091</v>
       </c>
       <c r="D74" t="n">
-        <v>1.1</v>
+        <v>1.74</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>6.307</v>
+        <v>1.11</v>
       </c>
       <c r="D75" t="n">
-        <v>1.94</v>
+        <v>2.21</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2188,19 +2188,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3.641</v>
+        <v>143</v>
       </c>
       <c r="D77" t="n">
-        <v>1.34</v>
+        <v>3.62</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2211,145 +2211,145 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>24.333</v>
+        <v>10.686</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.19</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.986</v>
+        <v>2.813</v>
       </c>
       <c r="D79" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>24.167</v>
+        <v>10.457</v>
       </c>
       <c r="D80" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1.086</v>
+        <v>8.35</v>
       </c>
       <c r="D81" t="n">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>8.25</v>
+        <v>18.091</v>
       </c>
       <c r="D82" t="n">
-        <v>2.17</v>
+        <v>1.74</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>138</v>
+        <v>1.11</v>
       </c>
       <c r="D83" t="n">
-        <v>-0.72</v>
+        <v>2.21</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2358,21 +2358,21 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.72</v>
+        <v>2.763</v>
       </c>
       <c r="D84" t="n">
-        <v>0.74</v>
+        <v>1.58</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2381,21 +2381,21 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.923</v>
+        <v>7.998</v>
       </c>
       <c r="D85" t="n">
-        <v>4.68</v>
+        <v>0.95</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2404,194 +2404,194 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>17.909</v>
+        <v>18.455</v>
       </c>
       <c r="D86" t="n">
-        <v>5.01</v>
+        <v>3.05</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>17.782</v>
+        <v>143</v>
       </c>
       <c r="D87" t="n">
-        <v>1.5</v>
+        <v>3.62</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>10.343</v>
+        <v>6.307</v>
       </c>
       <c r="D88" t="n">
-        <v>5.69</v>
+        <v>1.94</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3.593</v>
+        <v>18.721</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.972</v>
+        <v>3.641</v>
       </c>
       <c r="D90" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>6.187</v>
+        <v>24.333</v>
       </c>
       <c r="D91" t="n">
-        <v>0.03</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>18.7</v>
+        <v>0.986</v>
       </c>
       <c r="D92" t="n">
-        <v>0.64</v>
+        <v>1.44</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>17.909</v>
+        <v>1.086</v>
       </c>
       <c r="D93" t="n">
-        <v>5.01</v>
+        <v>0.93</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>7.923</v>
+        <v>24.167</v>
       </c>
       <c r="D94" t="n">
-        <v>4.68</v>
+        <v>1.4</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -2602,76 +2602,76 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>6.187</v>
+        <v>8.25</v>
       </c>
       <c r="D95" t="n">
-        <v>0.03</v>
+        <v>2.17</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.086</v>
+        <v>138</v>
       </c>
       <c r="D96" t="n">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.972</v>
+        <v>2.72</v>
       </c>
       <c r="D97" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2694,53 +2694,53 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>138</v>
+        <v>6.187</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.72</v>
+        <v>0.03</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>17.782</v>
+        <v>0.972</v>
       </c>
       <c r="D100" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -2763,7 +2763,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -2786,42 +2786,42 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>8.25</v>
+        <v>17.782</v>
       </c>
       <c r="D103" t="n">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>2.72</v>
+        <v>17.909</v>
       </c>
       <c r="D104" t="n">
-        <v>0.74</v>
+        <v>5.01</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2832,19 +2832,19 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>24.167</v>
+        <v>7.923</v>
       </c>
       <c r="D105" t="n">
-        <v>1.4</v>
+        <v>4.68</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2855,42 +2855,42 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>24.167</v>
+        <v>0.972</v>
       </c>
       <c r="D106" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3.593</v>
+        <v>1.086</v>
       </c>
       <c r="D107" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2901,191 +2901,191 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>6.187</v>
+        <v>7.923</v>
       </c>
       <c r="D108" t="n">
-        <v>0.03</v>
+        <v>4.68</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D109" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>0.972</v>
+        <v>24.167</v>
       </c>
       <c r="D110" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>17.909</v>
+        <v>2.72</v>
       </c>
       <c r="D111" t="n">
-        <v>5.01</v>
+        <v>0.74</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>7.946</v>
+        <v>8.25</v>
       </c>
       <c r="D112" t="n">
-        <v>4.98</v>
+        <v>2.17</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D113" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2.72</v>
+        <v>3.593</v>
       </c>
       <c r="D114" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>1.086</v>
+        <v>17.782</v>
       </c>
       <c r="D115" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3108,306 +3108,306 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>8.25</v>
+        <v>18.7</v>
       </c>
       <c r="D117" t="n">
-        <v>2.17</v>
+        <v>0.64</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>10.343</v>
+        <v>17.909</v>
       </c>
       <c r="D118" t="n">
-        <v>5.69</v>
+        <v>5.01</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>0.972</v>
+        <v>2.72</v>
       </c>
       <c r="D119" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>18.7</v>
+        <v>10.343</v>
       </c>
       <c r="D120" t="n">
-        <v>0.64</v>
+        <v>5.69</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1.086</v>
+        <v>8.25</v>
       </c>
       <c r="D121" t="n">
-        <v>0.93</v>
+        <v>2.17</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>6.187</v>
+        <v>138</v>
       </c>
       <c r="D122" t="n">
-        <v>0.03</v>
+        <v>-0.72</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>17.055</v>
+        <v>1.086</v>
       </c>
       <c r="D123" t="n">
-        <v>3.36</v>
+        <v>0.93</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>9.715</v>
+        <v>17.782</v>
       </c>
       <c r="D124" t="n">
-        <v>3.72</v>
+        <v>1.5</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>23.833</v>
+        <v>7.946</v>
       </c>
       <c r="D125" t="n">
-        <v>1.42</v>
+        <v>4.98</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>17.782</v>
+        <v>17.909</v>
       </c>
       <c r="D126" t="n">
-        <v>1.5</v>
+        <v>5.01</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8.074999999999999</v>
+        <v>0.972</v>
       </c>
       <c r="D127" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>7.522</v>
+        <v>18.7</v>
       </c>
       <c r="D128" t="n">
-        <v>4.2</v>
+        <v>0.64</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>138</v>
+        <v>6.187</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.72</v>
+        <v>0.03</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -3430,53 +3430,53 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2.7</v>
+        <v>24.167</v>
       </c>
       <c r="D131" t="n">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>9.433</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D132" t="n">
-        <v>4.81</v>
+        <v>1.57</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -3499,479 +3499,479 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>23.5</v>
+        <v>18.7</v>
       </c>
       <c r="D134" t="n">
-        <v>3.68</v>
+        <v>0.64</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>17.782</v>
+        <v>1.086</v>
       </c>
       <c r="D135" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>7.95</v>
+        <v>6.187</v>
       </c>
       <c r="D136" t="n">
-        <v>2.25</v>
+        <v>0.03</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>7.219</v>
+        <v>17.055</v>
       </c>
       <c r="D137" t="n">
-        <v>2.27</v>
+        <v>3.36</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>6.187</v>
+        <v>9.715</v>
       </c>
       <c r="D138" t="n">
-        <v>0.03</v>
+        <v>3.72</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>18.7</v>
+        <v>23.833</v>
       </c>
       <c r="D139" t="n">
-        <v>0.64</v>
+        <v>1.42</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.086</v>
+        <v>17.782</v>
       </c>
       <c r="D140" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>2.65</v>
+        <v>7.522</v>
       </c>
       <c r="D141" t="n">
-        <v>1.42</v>
+        <v>4.2</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>3.593</v>
+        <v>138</v>
       </c>
       <c r="D142" t="n">
-        <v>0.7</v>
+        <v>-0.72</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>16.5</v>
+        <v>3.593</v>
       </c>
       <c r="D143" t="n">
-        <v>3.66</v>
+        <v>0.7</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>138</v>
+        <v>2.7</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.72</v>
+        <v>1.89</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3.593</v>
+        <v>23.5</v>
       </c>
       <c r="D145" t="n">
-        <v>0.7</v>
+        <v>3.68</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>2.613</v>
+        <v>9.433</v>
       </c>
       <c r="D146" t="n">
-        <v>0.5</v>
+        <v>4.81</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>18.7</v>
+        <v>0.972</v>
       </c>
       <c r="D147" t="n">
-        <v>0.64</v>
+        <v>1.25</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.086</v>
+        <v>138</v>
       </c>
       <c r="D148" t="n">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>9</v>
+        <v>16.5</v>
       </c>
       <c r="D149" t="n">
-        <v>1.5</v>
+        <v>3.66</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>7.775</v>
+        <v>3.593</v>
       </c>
       <c r="D150" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7.059</v>
+        <v>2.65</v>
       </c>
       <c r="D151" t="n">
-        <v>0.79</v>
+        <v>1.42</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>22.667</v>
+        <v>1.086</v>
       </c>
       <c r="D152" t="n">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6.187</v>
+        <v>18.7</v>
       </c>
       <c r="D153" t="n">
-        <v>0.03</v>
+        <v>0.64</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.972</v>
+        <v>6.187</v>
       </c>
       <c r="D154" t="n">
-        <v>1.25</v>
+        <v>0.03</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3982,65 +3982,65 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>17.782</v>
+        <v>7.219</v>
       </c>
       <c r="D155" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>15.918</v>
+        <v>7.95</v>
       </c>
       <c r="D156" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>138</v>
+        <v>17.782</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.72</v>
+        <v>1.5</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -4051,19 +4051,19 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3.593</v>
+        <v>1.086</v>
       </c>
       <c r="D158" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4074,99 +4074,99 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>22.433</v>
+        <v>2.613</v>
       </c>
       <c r="D159" t="n">
-        <v>3.14</v>
+        <v>0.5</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>15.636</v>
+        <v>9</v>
       </c>
       <c r="D160" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>8.867000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="D161" t="n">
-        <v>3.38</v>
+        <v>0.64</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>18.7</v>
+        <v>3.593</v>
       </c>
       <c r="D162" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -4175,171 +4175,171 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7.004</v>
+        <v>7.059</v>
       </c>
       <c r="D163" t="n">
-        <v>2.16</v>
+        <v>0.79</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>7.725</v>
+        <v>22.667</v>
       </c>
       <c r="D164" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2.6</v>
+        <v>138</v>
       </c>
       <c r="D165" t="n">
-        <v>0.97</v>
+        <v>-0.72</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>1.086</v>
+        <v>15.918</v>
       </c>
       <c r="D166" t="n">
-        <v>0.93</v>
+        <v>1.8</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>6.187</v>
+        <v>17.782</v>
       </c>
       <c r="D167" t="n">
-        <v>0.03</v>
+        <v>1.5</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>17.782</v>
+        <v>7.775</v>
       </c>
       <c r="D168" t="n">
-        <v>1.5</v>
+        <v>0.65</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>138</v>
+        <v>0.972</v>
       </c>
       <c r="D169" t="n">
-        <v>-0.72</v>
+        <v>1.25</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>0.972</v>
+        <v>6.187</v>
       </c>
       <c r="D170" t="n">
-        <v>1.25</v>
+        <v>0.03</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -4350,7 +4350,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -4359,194 +4359,194 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>21.75</v>
+        <v>22.433</v>
       </c>
       <c r="D171" t="n">
-        <v>1.52</v>
+        <v>3.14</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>17.782</v>
+        <v>3.593</v>
       </c>
       <c r="D172" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>15.218</v>
+        <v>7.725</v>
       </c>
       <c r="D173" t="n">
-        <v>1.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>18.7</v>
+        <v>7.004</v>
       </c>
       <c r="D174" t="n">
-        <v>0.64</v>
+        <v>2.16</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>2.575</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D175" t="n">
-        <v>2.47</v>
+        <v>3.38</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>6.185</v>
+        <v>18.7</v>
       </c>
       <c r="D176" t="n">
-        <v>0.41</v>
+        <v>0.64</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3.568</v>
+        <v>0.972</v>
       </c>
       <c r="D177" t="n">
-        <v>0.68</v>
+        <v>1.25</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>1.076</v>
+        <v>138</v>
       </c>
       <c r="D178" t="n">
-        <v>1.41</v>
+        <v>-0.72</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>138</v>
+        <v>17.782</v>
       </c>
       <c r="D179" t="n">
-        <v>-0.72</v>
+        <v>1.5</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4557,272 +4557,272 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6.856</v>
+        <v>6.187</v>
       </c>
       <c r="D180" t="n">
-        <v>1.57</v>
+        <v>0.03</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>0.96</v>
+        <v>1.086</v>
       </c>
       <c r="D181" t="n">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>7.663</v>
+        <v>2.6</v>
       </c>
       <c r="D182" t="n">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>8.577</v>
+        <v>15.636</v>
       </c>
       <c r="D183" t="n">
-        <v>1.23</v>
+        <v>2.75</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>21.188</v>
+        <v>6.856</v>
       </c>
       <c r="D184" t="n">
-        <v>0.71</v>
+        <v>1.57</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>0.96</v>
+        <v>8.577</v>
       </c>
       <c r="D185" t="n">
-        <v>0.74</v>
+        <v>1.23</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>8.327999999999999</v>
+        <v>7.663</v>
       </c>
       <c r="D186" t="n">
-        <v>1.04</v>
+        <v>0.5</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>2.475</v>
+        <v>0.96</v>
       </c>
       <c r="D187" t="n">
-        <v>1.02</v>
+        <v>0.74</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1.076</v>
+        <v>138</v>
       </c>
       <c r="D188" t="n">
-        <v>1.41</v>
+        <v>-0.72</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>14.573</v>
+        <v>1.076</v>
       </c>
       <c r="D189" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>7.513</v>
+        <v>3.568</v>
       </c>
       <c r="D190" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3.568</v>
+        <v>6.185</v>
       </c>
       <c r="D191" t="n">
-        <v>0.68</v>
+        <v>0.41</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4833,30 +4833,30 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>138</v>
+        <v>2.575</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.72</v>
+        <v>2.47</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
@@ -4879,145 +4879,145 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>17.782</v>
+        <v>15.218</v>
       </c>
       <c r="D194" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>6.584</v>
+        <v>21.75</v>
       </c>
       <c r="D195" t="n">
-        <v>0.61</v>
+        <v>1.52</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>6.185</v>
+        <v>17.782</v>
       </c>
       <c r="D196" t="n">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>7.949</v>
+        <v>138</v>
       </c>
       <c r="D197" t="n">
-        <v>0.9</v>
+        <v>-0.72</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>7.816</v>
+        <v>0.96</v>
       </c>
       <c r="D198" t="n">
-        <v>1.82</v>
+        <v>0.74</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>7.573</v>
+        <v>21.188</v>
       </c>
       <c r="D199" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5026,228 +5026,228 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>7.535</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D200" t="n">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>7.475</v>
+        <v>2.475</v>
       </c>
       <c r="D201" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>7.349</v>
+        <v>1.076</v>
       </c>
       <c r="D202" t="n">
-        <v>2.21</v>
+        <v>1.41</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>7.109</v>
+        <v>14.573</v>
       </c>
       <c r="D203" t="n">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>7.009</v>
+        <v>7.513</v>
       </c>
       <c r="D204" t="n">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>6.909</v>
+        <v>3.568</v>
       </c>
       <c r="D205" t="n">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D206" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>6.612</v>
+        <v>17.782</v>
       </c>
       <c r="D207" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>6.325</v>
+        <v>6.584</v>
       </c>
       <c r="D208" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>6.231</v>
+        <v>6.185</v>
       </c>
       <c r="D209" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5256,21 +5256,21 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D210" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -5279,21 +5279,21 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D211" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -5302,21 +5302,21 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D212" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5325,21 +5325,21 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -5348,21 +5348,21 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5371,21 +5371,21 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5394,21 +5394,21 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5417,21 +5417,21 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -5440,21 +5440,21 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D218" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5463,21 +5463,21 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D219" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -5486,21 +5486,21 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D220" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -5509,21 +5509,21 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D221" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5532,35 +5532,334 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C223" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D223" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C225" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D225" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D226" t="n">
+        <v>0</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D227" t="n">
+        <v>0</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D228" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D229" t="n">
+        <v>0</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D230" t="n">
+        <v>0</v>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D231" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D232" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D233" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D234" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D235" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B223" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C223" t="n">
+      <c r="C236" t="n">
         <v>6.167</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D236" t="n">
         <v>0</v>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E236"/>
+  <dimension ref="A1:E249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -472,21 +472,21 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D2" t="n">
-        <v>3.62</v>
+        <v>11.89</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -495,21 +495,21 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18.091</v>
+        <v>18.364</v>
       </c>
       <c r="D3" t="n">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -518,21 +518,21 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18.721</v>
+        <v>19.088</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>1.96</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -541,21 +541,21 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.641</v>
+        <v>3.714</v>
       </c>
       <c r="D5" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -564,21 +564,21 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.307</v>
+        <v>6.407</v>
       </c>
       <c r="D6" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -587,21 +587,21 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.986</v>
+        <v>1.024</v>
       </c>
       <c r="D7" t="n">
-        <v>1.44</v>
+        <v>3.85</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -610,21 +610,21 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.11</v>
+        <v>1.152</v>
       </c>
       <c r="D8" t="n">
-        <v>2.21</v>
+        <v>3.78</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.038</v>
+        <v>3.125</v>
       </c>
       <c r="D9" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.425000000000001</v>
+        <v>8.638</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6</v>
+        <v>2.53</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.48</v>
+        <v>8.616</v>
       </c>
       <c r="D11" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>20.55</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
-        <v>3.79</v>
+        <v>2.19</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.721</v>
+        <v>24.763</v>
       </c>
       <c r="D13" t="n">
-        <v>0.63</v>
+        <v>0.17</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12.615</v>
+        <v>13.233</v>
       </c>
       <c r="D14" t="n">
-        <v>6.3</v>
+        <v>4.9</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -831,7 +831,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -854,7 +854,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -877,7 +877,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -923,7 +923,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -946,7 +946,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18.091</v>
+        <v>12.615</v>
       </c>
       <c r="D28" t="n">
-        <v>1.74</v>
+        <v>6.3</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1100,14 +1100,14 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12.378</v>
+        <v>18.091</v>
       </c>
       <c r="D31" t="n">
-        <v>4.31</v>
+        <v>1.74</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1284,14 +1284,14 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1307,14 +1307,14 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1330,14 +1330,14 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1353,14 +1353,14 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1406,7 +1406,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1415,67 +1415,67 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>24.566</v>
+        <v>24.721</v>
       </c>
       <c r="D43" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.63</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>11.867</v>
+        <v>18.091</v>
       </c>
       <c r="D44" t="n">
-        <v>5.33</v>
+        <v>1.74</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18.091</v>
+        <v>12.378</v>
       </c>
       <c r="D45" t="n">
-        <v>1.74</v>
+        <v>4.31</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1530,21 +1530,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.975</v>
+        <v>3.038</v>
       </c>
       <c r="D48" t="n">
-        <v>2.83</v>
+        <v>2.12</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1553,21 +1553,21 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>19.8</v>
+        <v>20.55</v>
       </c>
       <c r="D49" t="n">
-        <v>2.86</v>
+        <v>3.79</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1622,21 +1622,21 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8.316000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="D52" t="n">
-        <v>3.06</v>
+        <v>1.97</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1645,56 +1645,56 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>18.091</v>
+        <v>24.566</v>
       </c>
       <c r="D54" t="n">
-        <v>1.74</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>143</v>
+        <v>3.641</v>
       </c>
       <c r="D55" t="n">
-        <v>3.62</v>
+        <v>1.34</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1714,21 +1714,21 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.893</v>
+        <v>2.975</v>
       </c>
       <c r="D56" t="n">
-        <v>2.84</v>
+        <v>2.83</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1751,7 +1751,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1774,53 +1774,53 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>11.267</v>
+        <v>18.091</v>
       </c>
       <c r="D59" t="n">
-        <v>4.88</v>
+        <v>1.74</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>24.368</v>
+        <v>143</v>
       </c>
       <c r="D60" t="n">
-        <v>0.14</v>
+        <v>3.62</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.363</v>
+        <v>8.375</v>
       </c>
       <c r="D61" t="n">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1852,21 +1852,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8.069000000000001</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>1.74</v>
+        <v>3.06</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1889,7 +1889,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1921,44 +1921,44 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19.25</v>
+        <v>19.8</v>
       </c>
       <c r="D65" t="n">
-        <v>3.33</v>
+        <v>2.86</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3.641</v>
+        <v>11.867</v>
       </c>
       <c r="D66" t="n">
-        <v>1.34</v>
+        <v>5.33</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1981,7 +1981,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2004,7 +2004,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2013,21 +2013,21 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>18.63</v>
+        <v>19.25</v>
       </c>
       <c r="D69" t="n">
-        <v>1.8</v>
+        <v>3.33</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2050,7 +2050,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2059,21 +2059,21 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>7.931</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.09</v>
+        <v>1.74</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2082,21 +2082,21 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8.35</v>
+        <v>8.363</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>0.16</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2105,44 +2105,44 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>24.333</v>
+        <v>24.368</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>18.091</v>
+        <v>11.267</v>
       </c>
       <c r="D74" t="n">
-        <v>1.74</v>
+        <v>4.88</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2165,7 +2165,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2211,30 +2211,30 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>10.686</v>
+        <v>18.091</v>
       </c>
       <c r="D78" t="n">
-        <v>2.19</v>
+        <v>1.74</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2243,79 +2243,79 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2.813</v>
+        <v>2.893</v>
       </c>
       <c r="D79" t="n">
-        <v>1.81</v>
+        <v>2.84</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>10.457</v>
+        <v>18.091</v>
       </c>
       <c r="D80" t="n">
-        <v>1.1</v>
+        <v>1.74</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>8.35</v>
+        <v>0.986</v>
       </c>
       <c r="D81" t="n">
-        <v>1.21</v>
+        <v>1.44</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>18.091</v>
+        <v>3.641</v>
       </c>
       <c r="D82" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2326,53 +2326,53 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.11</v>
+        <v>18.63</v>
       </c>
       <c r="D83" t="n">
-        <v>2.21</v>
+        <v>1.8</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2.763</v>
+        <v>6.307</v>
       </c>
       <c r="D84" t="n">
-        <v>1.58</v>
+        <v>1.94</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2381,79 +2381,79 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.998</v>
+        <v>7.931</v>
       </c>
       <c r="D85" t="n">
-        <v>0.95</v>
+        <v>0.09</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>18.455</v>
+        <v>8.35</v>
       </c>
       <c r="D86" t="n">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>143</v>
+        <v>24.333</v>
       </c>
       <c r="D87" t="n">
-        <v>3.62</v>
+        <v>0</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6.307</v>
+        <v>1.11</v>
       </c>
       <c r="D88" t="n">
-        <v>1.94</v>
+        <v>2.21</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2464,7 +2464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2487,19 +2487,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3.641</v>
+        <v>143</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34</v>
+        <v>3.62</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2510,145 +2510,145 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>24.333</v>
+        <v>10.686</v>
       </c>
       <c r="D91" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.19</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.986</v>
+        <v>2.813</v>
       </c>
       <c r="D92" t="n">
-        <v>1.44</v>
+        <v>1.81</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.086</v>
+        <v>8.35</v>
       </c>
       <c r="D93" t="n">
-        <v>0.93</v>
+        <v>1.21</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>24.167</v>
+        <v>10.457</v>
       </c>
       <c r="D94" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>8.25</v>
+        <v>18.091</v>
       </c>
       <c r="D95" t="n">
-        <v>2.17</v>
+        <v>1.74</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>138</v>
+        <v>1.11</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.72</v>
+        <v>2.21</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2657,159 +2657,159 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2.72</v>
+        <v>2.763</v>
       </c>
       <c r="D97" t="n">
-        <v>0.74</v>
+        <v>1.58</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>18.7</v>
+        <v>0.986</v>
       </c>
       <c r="D98" t="n">
-        <v>0.64</v>
+        <v>1.44</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>6.187</v>
+        <v>24.333</v>
       </c>
       <c r="D99" t="n">
-        <v>0.03</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.972</v>
+        <v>3.641</v>
       </c>
       <c r="D100" t="n">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3.593</v>
+        <v>18.721</v>
       </c>
       <c r="D101" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>10.343</v>
+        <v>6.307</v>
       </c>
       <c r="D102" t="n">
-        <v>5.69</v>
+        <v>1.94</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>17.782</v>
+        <v>143</v>
       </c>
       <c r="D103" t="n">
-        <v>1.5</v>
+        <v>3.62</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2818,21 +2818,21 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>17.909</v>
+        <v>18.455</v>
       </c>
       <c r="D104" t="n">
-        <v>5.01</v>
+        <v>3.05</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2841,79 +2841,79 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7.923</v>
+        <v>7.998</v>
       </c>
       <c r="D105" t="n">
-        <v>4.68</v>
+        <v>0.95</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>0.972</v>
+        <v>2.72</v>
       </c>
       <c r="D106" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.086</v>
+        <v>138</v>
       </c>
       <c r="D107" t="n">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>7.923</v>
+        <v>24.167</v>
       </c>
       <c r="D108" t="n">
-        <v>4.68</v>
+        <v>1.4</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2924,42 +2924,42 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>6.187</v>
+        <v>8.25</v>
       </c>
       <c r="D109" t="n">
-        <v>0.03</v>
+        <v>2.17</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>24.167</v>
+        <v>7.923</v>
       </c>
       <c r="D110" t="n">
-        <v>1.4</v>
+        <v>4.68</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2970,19 +2970,19 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2.72</v>
+        <v>17.909</v>
       </c>
       <c r="D111" t="n">
-        <v>0.74</v>
+        <v>5.01</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2993,30 +2993,30 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>8.25</v>
+        <v>17.782</v>
       </c>
       <c r="D112" t="n">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3039,7 +3039,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -3062,53 +3062,53 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17.782</v>
+        <v>0.972</v>
       </c>
       <c r="D115" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>138</v>
+        <v>6.187</v>
       </c>
       <c r="D116" t="n">
-        <v>-0.72</v>
+        <v>0.03</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3131,99 +3131,99 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>17.909</v>
+        <v>1.086</v>
       </c>
       <c r="D118" t="n">
-        <v>5.01</v>
+        <v>0.93</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2.72</v>
+        <v>3.593</v>
       </c>
       <c r="D119" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>10.343</v>
+        <v>17.909</v>
       </c>
       <c r="D120" t="n">
-        <v>5.69</v>
+        <v>5.01</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8.25</v>
+        <v>18.7</v>
       </c>
       <c r="D121" t="n">
-        <v>2.17</v>
+        <v>0.64</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -3246,180 +3246,180 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.086</v>
+        <v>17.782</v>
       </c>
       <c r="D123" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>17.782</v>
+        <v>10.343</v>
       </c>
       <c r="D124" t="n">
-        <v>1.5</v>
+        <v>5.69</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>7.946</v>
+        <v>8.25</v>
       </c>
       <c r="D125" t="n">
-        <v>4.98</v>
+        <v>2.17</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>17.909</v>
+        <v>2.72</v>
       </c>
       <c r="D126" t="n">
-        <v>5.01</v>
+        <v>0.74</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>0.972</v>
+        <v>24.167</v>
       </c>
       <c r="D127" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D128" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>6.187</v>
+        <v>7.923</v>
       </c>
       <c r="D129" t="n">
-        <v>0.03</v>
+        <v>4.68</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3.593</v>
+        <v>1.086</v>
       </c>
       <c r="D130" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3430,283 +3430,283 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>24.167</v>
+        <v>0.972</v>
       </c>
       <c r="D131" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>8.074999999999999</v>
+        <v>17.909</v>
       </c>
       <c r="D132" t="n">
-        <v>1.57</v>
+        <v>5.01</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.972</v>
+        <v>2.72</v>
       </c>
       <c r="D133" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>18.7</v>
+        <v>10.343</v>
       </c>
       <c r="D134" t="n">
-        <v>0.64</v>
+        <v>5.69</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>1.086</v>
+        <v>8.25</v>
       </c>
       <c r="D135" t="n">
-        <v>0.93</v>
+        <v>2.17</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6.187</v>
+        <v>138</v>
       </c>
       <c r="D136" t="n">
-        <v>0.03</v>
+        <v>-0.72</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>17.055</v>
+        <v>1.086</v>
       </c>
       <c r="D137" t="n">
-        <v>3.36</v>
+        <v>0.93</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>9.715</v>
+        <v>17.782</v>
       </c>
       <c r="D138" t="n">
-        <v>3.72</v>
+        <v>1.5</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>23.833</v>
+        <v>7.946</v>
       </c>
       <c r="D139" t="n">
-        <v>1.42</v>
+        <v>4.98</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>17.782</v>
+        <v>0.972</v>
       </c>
       <c r="D140" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>7.522</v>
+        <v>18.7</v>
       </c>
       <c r="D141" t="n">
-        <v>4.2</v>
+        <v>0.64</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>138</v>
+        <v>6.187</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.72</v>
+        <v>0.03</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3729,76 +3729,76 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>2.7</v>
+        <v>24.167</v>
       </c>
       <c r="D144" t="n">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>23.5</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D145" t="n">
-        <v>3.68</v>
+        <v>1.57</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>9.433</v>
+        <v>18.7</v>
       </c>
       <c r="D146" t="n">
-        <v>4.81</v>
+        <v>0.64</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -3821,410 +3821,410 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>138</v>
+        <v>2.7</v>
       </c>
       <c r="D148" t="n">
-        <v>-0.72</v>
+        <v>1.89</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>16.5</v>
+        <v>3.593</v>
       </c>
       <c r="D149" t="n">
-        <v>3.66</v>
+        <v>0.7</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3.593</v>
+        <v>138</v>
       </c>
       <c r="D150" t="n">
-        <v>0.7</v>
+        <v>-0.72</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2.65</v>
+        <v>7.522</v>
       </c>
       <c r="D151" t="n">
-        <v>1.42</v>
+        <v>4.2</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>1.086</v>
+        <v>17.782</v>
       </c>
       <c r="D152" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>18.7</v>
+        <v>23.833</v>
       </c>
       <c r="D153" t="n">
-        <v>0.64</v>
+        <v>1.42</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>6.187</v>
+        <v>9.715</v>
       </c>
       <c r="D154" t="n">
-        <v>0.03</v>
+        <v>3.72</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>7.219</v>
+        <v>17.055</v>
       </c>
       <c r="D155" t="n">
-        <v>2.27</v>
+        <v>3.36</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>7.95</v>
+        <v>6.187</v>
       </c>
       <c r="D156" t="n">
-        <v>2.25</v>
+        <v>0.03</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>17.782</v>
+        <v>1.086</v>
       </c>
       <c r="D157" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>1.086</v>
+        <v>138</v>
       </c>
       <c r="D158" t="n">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2.613</v>
+        <v>16.5</v>
       </c>
       <c r="D159" t="n">
-        <v>0.5</v>
+        <v>3.66</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>9</v>
+        <v>23.5</v>
       </c>
       <c r="D160" t="n">
-        <v>1.5</v>
+        <v>3.68</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>18.7</v>
+        <v>0.972</v>
       </c>
       <c r="D161" t="n">
-        <v>0.64</v>
+        <v>1.25</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3.593</v>
+        <v>9.433</v>
       </c>
       <c r="D162" t="n">
-        <v>0.7</v>
+        <v>4.81</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7.059</v>
+        <v>2.65</v>
       </c>
       <c r="D163" t="n">
-        <v>0.79</v>
+        <v>1.42</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>22.667</v>
+        <v>1.086</v>
       </c>
       <c r="D164" t="n">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>138</v>
+        <v>17.782</v>
       </c>
       <c r="D165" t="n">
-        <v>-0.72</v>
+        <v>1.5</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -4235,88 +4235,88 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>15.918</v>
+        <v>7.95</v>
       </c>
       <c r="D166" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>17.782</v>
+        <v>7.219</v>
       </c>
       <c r="D167" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>7.775</v>
+        <v>3.593</v>
       </c>
       <c r="D168" t="n">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>0.972</v>
+        <v>6.187</v>
       </c>
       <c r="D169" t="n">
-        <v>1.25</v>
+        <v>0.03</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4327,65 +4327,65 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>6.187</v>
+        <v>18.7</v>
       </c>
       <c r="D170" t="n">
-        <v>0.03</v>
+        <v>0.64</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>22.433</v>
+        <v>2.613</v>
       </c>
       <c r="D171" t="n">
-        <v>3.14</v>
+        <v>0.5</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3.593</v>
+        <v>1.086</v>
       </c>
       <c r="D172" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -4396,30 +4396,30 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>7.725</v>
+        <v>22.667</v>
       </c>
       <c r="D173" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.04</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -4428,79 +4428,79 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>7.004</v>
+        <v>7.059</v>
       </c>
       <c r="D174" t="n">
-        <v>2.16</v>
+        <v>0.79</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>8.867000000000001</v>
+        <v>18.7</v>
       </c>
       <c r="D175" t="n">
-        <v>3.38</v>
+        <v>0.64</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>18.7</v>
+        <v>3.593</v>
       </c>
       <c r="D176" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>0.972</v>
+        <v>6.187</v>
       </c>
       <c r="D177" t="n">
-        <v>1.25</v>
+        <v>0.03</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -4511,249 +4511,249 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>138</v>
+        <v>0.972</v>
       </c>
       <c r="D178" t="n">
-        <v>-0.72</v>
+        <v>1.25</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>17.782</v>
+        <v>7.775</v>
       </c>
       <c r="D179" t="n">
-        <v>1.5</v>
+        <v>0.65</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>6.187</v>
+        <v>17.782</v>
       </c>
       <c r="D180" t="n">
-        <v>0.03</v>
+        <v>1.5</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>1.086</v>
+        <v>15.918</v>
       </c>
       <c r="D181" t="n">
-        <v>0.93</v>
+        <v>1.8</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>2.6</v>
+        <v>138</v>
       </c>
       <c r="D182" t="n">
-        <v>0.97</v>
+        <v>-0.72</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>15.636</v>
+        <v>9</v>
       </c>
       <c r="D183" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>6.856</v>
+        <v>6.187</v>
       </c>
       <c r="D184" t="n">
-        <v>1.57</v>
+        <v>0.03</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>8.577</v>
+        <v>15.636</v>
       </c>
       <c r="D185" t="n">
-        <v>1.23</v>
+        <v>2.75</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>7.663</v>
+        <v>2.6</v>
       </c>
       <c r="D186" t="n">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>0.96</v>
+        <v>1.086</v>
       </c>
       <c r="D187" t="n">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>138</v>
+        <v>17.782</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.72</v>
+        <v>1.5</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4764,145 +4764,145 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>1.076</v>
+        <v>138</v>
       </c>
       <c r="D189" t="n">
-        <v>1.41</v>
+        <v>-0.72</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3.568</v>
+        <v>0.972</v>
       </c>
       <c r="D190" t="n">
-        <v>0.68</v>
+        <v>1.25</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>6.185</v>
+        <v>18.7</v>
       </c>
       <c r="D191" t="n">
-        <v>0.41</v>
+        <v>0.64</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2.575</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D192" t="n">
-        <v>2.47</v>
+        <v>3.38</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>18.7</v>
+        <v>7.004</v>
       </c>
       <c r="D193" t="n">
-        <v>0.64</v>
+        <v>2.16</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>15.218</v>
+        <v>7.725</v>
       </c>
       <c r="D194" t="n">
-        <v>1.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -4911,251 +4911,251 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>21.75</v>
+        <v>22.433</v>
       </c>
       <c r="D195" t="n">
-        <v>1.52</v>
+        <v>3.14</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>17.782</v>
+        <v>3.593</v>
       </c>
       <c r="D196" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>138</v>
+        <v>6.185</v>
       </c>
       <c r="D197" t="n">
-        <v>-0.72</v>
+        <v>0.41</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>0.96</v>
+        <v>6.856</v>
       </c>
       <c r="D198" t="n">
-        <v>0.74</v>
+        <v>1.57</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>21.188</v>
+        <v>8.577</v>
       </c>
       <c r="D199" t="n">
-        <v>0.71</v>
+        <v>1.23</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>8.327999999999999</v>
+        <v>7.663</v>
       </c>
       <c r="D200" t="n">
-        <v>1.04</v>
+        <v>0.5</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2.475</v>
+        <v>0.96</v>
       </c>
       <c r="D201" t="n">
-        <v>1.02</v>
+        <v>0.74</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>1.076</v>
+        <v>138</v>
       </c>
       <c r="D202" t="n">
-        <v>1.41</v>
+        <v>-0.72</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>14.573</v>
+        <v>1.076</v>
       </c>
       <c r="D203" t="n">
-        <v>1.78</v>
+        <v>1.41</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>7.513</v>
+        <v>3.568</v>
       </c>
       <c r="D204" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3.568</v>
+        <v>2.575</v>
       </c>
       <c r="D205" t="n">
-        <v>0.68</v>
+        <v>2.47</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -5178,145 +5178,145 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>17.782</v>
+        <v>15.218</v>
       </c>
       <c r="D207" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>6.584</v>
+        <v>21.75</v>
       </c>
       <c r="D208" t="n">
-        <v>0.61</v>
+        <v>1.52</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>6.185</v>
+        <v>17.782</v>
       </c>
       <c r="D209" t="n">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>7.949</v>
+        <v>0.96</v>
       </c>
       <c r="D210" t="n">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>7.816</v>
+        <v>138</v>
       </c>
       <c r="D211" t="n">
-        <v>1.82</v>
+        <v>-0.72</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>7.573</v>
+        <v>21.188</v>
       </c>
       <c r="D212" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5325,228 +5325,228 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>7.535</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D213" t="n">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>7.475</v>
+        <v>2.475</v>
       </c>
       <c r="D214" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>7.349</v>
+        <v>6.185</v>
       </c>
       <c r="D215" t="n">
-        <v>2.21</v>
+        <v>0.41</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>7.109</v>
+        <v>6.584</v>
       </c>
       <c r="D216" t="n">
-        <v>1.43</v>
+        <v>0.61</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>7.009</v>
+        <v>17.782</v>
       </c>
       <c r="D217" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>6.909</v>
+        <v>18.7</v>
       </c>
       <c r="D218" t="n">
-        <v>0.95</v>
+        <v>0.64</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>6.776</v>
+        <v>3.568</v>
       </c>
       <c r="D219" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>6.612</v>
+        <v>7.513</v>
       </c>
       <c r="D220" t="n">
-        <v>1.47</v>
+        <v>0.85</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>6.325</v>
+        <v>14.573</v>
       </c>
       <c r="D221" t="n">
-        <v>0.99</v>
+        <v>1.78</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>6.231</v>
+        <v>1.076</v>
       </c>
       <c r="D222" t="n">
-        <v>0.24</v>
+        <v>1.41</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -5555,21 +5555,21 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D223" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5578,21 +5578,21 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D224" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
@@ -5601,21 +5601,21 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D225" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5624,21 +5624,21 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5647,21 +5647,21 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -5670,21 +5670,21 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5693,21 +5693,21 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5716,21 +5716,21 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -5739,21 +5739,21 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D231" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5762,21 +5762,21 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D232" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -5785,21 +5785,21 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D233" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -5808,21 +5808,21 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D234" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -5831,35 +5831,334 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D235" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0</v>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0</v>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0</v>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0</v>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0</v>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D245" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D246" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D247" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D248" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B249" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C236" t="n">
+      <c r="C249" t="n">
         <v>6.167</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D249" t="n">
         <v>0</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="E249" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E249"/>
+  <dimension ref="A1:E262"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.125</v>
+        <v>3.2</v>
       </c>
       <c r="D9" t="n">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.638</v>
+        <v>8.725</v>
       </c>
       <c r="D10" t="n">
-        <v>2.53</v>
+        <v>1.01</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>8.616</v>
+        <v>9.042999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>1.6</v>
+        <v>4.96</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>22.35</v>
       </c>
       <c r="D12" t="n">
-        <v>2.19</v>
+        <v>4.68</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>24.763</v>
+        <v>25.395</v>
       </c>
       <c r="D13" t="n">
-        <v>0.17</v>
+        <v>2.55</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13.233</v>
+        <v>13.969</v>
       </c>
       <c r="D14" t="n">
-        <v>4.9</v>
+        <v>5.03</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -771,21 +771,21 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>18.091</v>
+        <v>18.364</v>
       </c>
       <c r="D15" t="n">
-        <v>1.74</v>
+        <v>1.51</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -794,21 +794,21 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D16" t="n">
-        <v>3.62</v>
+        <v>11.89</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>12.615</v>
+        <v>13.233</v>
       </c>
       <c r="D17" t="n">
-        <v>6.3</v>
+        <v>4.9</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.721</v>
+        <v>24.763</v>
       </c>
       <c r="D18" t="n">
-        <v>0.63</v>
+        <v>0.17</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>20.55</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>3.79</v>
+        <v>2.19</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.48</v>
+        <v>8.616</v>
       </c>
       <c r="D20" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.425000000000001</v>
+        <v>8.638</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6</v>
+        <v>2.53</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.038</v>
+        <v>3.125</v>
       </c>
       <c r="D22" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -955,21 +955,21 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.11</v>
+        <v>1.152</v>
       </c>
       <c r="D23" t="n">
-        <v>2.21</v>
+        <v>3.78</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -978,21 +978,21 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.986</v>
+        <v>1.024</v>
       </c>
       <c r="D24" t="n">
-        <v>1.44</v>
+        <v>3.85</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1001,21 +1001,21 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>6.307</v>
+        <v>6.407</v>
       </c>
       <c r="D25" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1024,21 +1024,21 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3.641</v>
+        <v>3.714</v>
       </c>
       <c r="D26" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1047,44 +1047,44 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>18.721</v>
+        <v>19.088</v>
       </c>
       <c r="D27" t="n">
-        <v>0.11</v>
+        <v>1.96</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>12.615</v>
+        <v>18.091</v>
       </c>
       <c r="D28" t="n">
-        <v>6.3</v>
+        <v>1.74</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1107,7 +1107,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18.091</v>
+        <v>12.615</v>
       </c>
       <c r="D31" t="n">
-        <v>1.74</v>
+        <v>6.3</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1291,7 +1291,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1314,7 +1314,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1337,7 +1337,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1360,7 +1360,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1383,19 +1383,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.641</v>
+        <v>143</v>
       </c>
       <c r="D42" t="n">
-        <v>1.34</v>
+        <v>3.62</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1406,42 +1406,42 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>24.721</v>
+        <v>12.615</v>
       </c>
       <c r="D43" t="n">
-        <v>0.63</v>
+        <v>6.3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>18.091</v>
+        <v>3.641</v>
       </c>
       <c r="D44" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1452,134 +1452,134 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>12.378</v>
+        <v>18.091</v>
       </c>
       <c r="D45" t="n">
-        <v>4.31</v>
+        <v>1.74</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>143</v>
+        <v>24.721</v>
       </c>
       <c r="D46" t="n">
-        <v>3.62</v>
+        <v>0.63</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.11</v>
+        <v>3.038</v>
       </c>
       <c r="D47" t="n">
-        <v>2.21</v>
+        <v>2.12</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3.038</v>
+        <v>8.48</v>
       </c>
       <c r="D48" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>20.55</v>
+        <v>6.307</v>
       </c>
       <c r="D49" t="n">
-        <v>3.79</v>
+        <v>1.94</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>6.307</v>
+        <v>0.986</v>
       </c>
       <c r="D50" t="n">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1590,19 +1590,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.986</v>
+        <v>1.11</v>
       </c>
       <c r="D51" t="n">
-        <v>1.44</v>
+        <v>2.21</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1613,30 +1613,30 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>8.48</v>
+        <v>20.55</v>
       </c>
       <c r="D52" t="n">
-        <v>1.97</v>
+        <v>3.79</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1652,95 +1652,95 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>24.566</v>
+        <v>18.091</v>
       </c>
       <c r="D54" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3.641</v>
+        <v>24.721</v>
       </c>
       <c r="D55" t="n">
-        <v>1.34</v>
+        <v>0.63</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2.975</v>
+        <v>3.641</v>
       </c>
       <c r="D56" t="n">
-        <v>2.83</v>
+        <v>1.34</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>18.721</v>
+        <v>143</v>
       </c>
       <c r="D57" t="n">
-        <v>0.11</v>
+        <v>3.62</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1751,19 +1751,19 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>1.11</v>
+        <v>18.721</v>
       </c>
       <c r="D58" t="n">
-        <v>2.21</v>
+        <v>0.11</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1774,19 +1774,19 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>18.091</v>
+        <v>1.11</v>
       </c>
       <c r="D59" t="n">
-        <v>1.74</v>
+        <v>2.21</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1797,30 +1797,30 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>143</v>
+        <v>3.038</v>
       </c>
       <c r="D60" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1852,21 +1852,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8.316000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="D62" t="n">
-        <v>3.06</v>
+        <v>1.97</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1889,7 +1889,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1921,21 +1921,21 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>19.8</v>
+        <v>20.55</v>
       </c>
       <c r="D65" t="n">
-        <v>2.86</v>
+        <v>3.79</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1944,67 +1944,67 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>11.867</v>
+        <v>12.378</v>
       </c>
       <c r="D66" t="n">
-        <v>5.33</v>
+        <v>4.31</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.986</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>1.44</v>
+        <v>3.06</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3.641</v>
+        <v>11.867</v>
       </c>
       <c r="D68" t="n">
-        <v>1.34</v>
+        <v>5.33</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2013,148 +2013,148 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19.25</v>
+        <v>19.8</v>
       </c>
       <c r="D69" t="n">
-        <v>3.33</v>
+        <v>2.86</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>6.307</v>
+        <v>24.566</v>
       </c>
       <c r="D70" t="n">
-        <v>1.94</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>8.069000000000001</v>
+        <v>3.641</v>
       </c>
       <c r="D71" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>8.363</v>
+        <v>2.975</v>
       </c>
       <c r="D72" t="n">
-        <v>0.16</v>
+        <v>2.83</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>24.368</v>
+        <v>18.721</v>
       </c>
       <c r="D73" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>11.267</v>
+        <v>1.11</v>
       </c>
       <c r="D74" t="n">
-        <v>4.88</v>
+        <v>2.21</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.11</v>
+        <v>18.091</v>
       </c>
       <c r="D75" t="n">
-        <v>2.21</v>
+        <v>1.74</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2165,19 +2165,19 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>18.721</v>
+        <v>143</v>
       </c>
       <c r="D76" t="n">
-        <v>0.11</v>
+        <v>3.62</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2188,42 +2188,42 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>143</v>
+        <v>8.375</v>
       </c>
       <c r="D77" t="n">
-        <v>3.62</v>
+        <v>0.14</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>18.091</v>
+        <v>0.986</v>
       </c>
       <c r="D78" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2234,42 +2234,42 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2.893</v>
+        <v>6.307</v>
       </c>
       <c r="D79" t="n">
-        <v>2.84</v>
+        <v>1.94</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>18.091</v>
+        <v>3.641</v>
       </c>
       <c r="D80" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2280,88 +2280,88 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.986</v>
+        <v>19.25</v>
       </c>
       <c r="D81" t="n">
-        <v>1.44</v>
+        <v>3.33</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3.641</v>
+        <v>2.893</v>
       </c>
       <c r="D82" t="n">
-        <v>1.34</v>
+        <v>2.84</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>18.63</v>
+        <v>18.091</v>
       </c>
       <c r="D83" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>6.307</v>
+        <v>143</v>
       </c>
       <c r="D84" t="n">
-        <v>1.94</v>
+        <v>3.62</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2372,237 +2372,237 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>7.931</v>
+        <v>18.721</v>
       </c>
       <c r="D85" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>8.35</v>
+        <v>1.11</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>24.333</v>
+        <v>11.267</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>1.11</v>
+        <v>24.368</v>
       </c>
       <c r="D88" t="n">
-        <v>2.21</v>
+        <v>0.14</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>18.721</v>
+        <v>8.363</v>
       </c>
       <c r="D89" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>143</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="D90" t="n">
-        <v>3.62</v>
+        <v>1.74</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>10.686</v>
+        <v>0.986</v>
       </c>
       <c r="D91" t="n">
-        <v>2.19</v>
+        <v>1.44</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2.813</v>
+        <v>6.307</v>
       </c>
       <c r="D92" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>8.35</v>
+        <v>1.11</v>
       </c>
       <c r="D93" t="n">
-        <v>1.21</v>
+        <v>2.21</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>10.457</v>
+        <v>0.986</v>
       </c>
       <c r="D94" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2625,19 +2625,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1.11</v>
+        <v>3.641</v>
       </c>
       <c r="D96" t="n">
-        <v>2.21</v>
+        <v>1.34</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2648,42 +2648,42 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2.763</v>
+        <v>18.63</v>
       </c>
       <c r="D97" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.986</v>
+        <v>6.307</v>
       </c>
       <c r="D98" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2694,88 +2694,88 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>24.333</v>
+        <v>7.931</v>
       </c>
       <c r="D99" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3.641</v>
+        <v>8.35</v>
       </c>
       <c r="D100" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>18.721</v>
+        <v>24.333</v>
       </c>
       <c r="D101" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>6.307</v>
+        <v>18.721</v>
       </c>
       <c r="D102" t="n">
-        <v>1.94</v>
+        <v>0.11</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2786,7 +2786,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -2809,387 +2809,387 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>18.455</v>
+        <v>10.686</v>
       </c>
       <c r="D104" t="n">
-        <v>3.05</v>
+        <v>2.19</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>7.998</v>
+        <v>2.813</v>
       </c>
       <c r="D105" t="n">
-        <v>0.95</v>
+        <v>1.81</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>2.72</v>
+        <v>18.091</v>
       </c>
       <c r="D106" t="n">
-        <v>0.74</v>
+        <v>1.74</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>138</v>
+        <v>8.35</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.72</v>
+        <v>1.21</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>24.167</v>
+        <v>10.457</v>
       </c>
       <c r="D108" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>8.25</v>
+        <v>1.11</v>
       </c>
       <c r="D109" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>7.923</v>
+        <v>2.763</v>
       </c>
       <c r="D110" t="n">
-        <v>4.68</v>
+        <v>1.58</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>17.909</v>
+        <v>7.998</v>
       </c>
       <c r="D111" t="n">
-        <v>5.01</v>
+        <v>0.95</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>17.782</v>
+        <v>18.455</v>
       </c>
       <c r="D112" t="n">
-        <v>1.5</v>
+        <v>3.05</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>10.343</v>
+        <v>143</v>
       </c>
       <c r="D113" t="n">
-        <v>5.69</v>
+        <v>3.62</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3.593</v>
+        <v>6.307</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7</v>
+        <v>1.94</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0.972</v>
+        <v>18.721</v>
       </c>
       <c r="D115" t="n">
-        <v>1.25</v>
+        <v>0.11</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>6.187</v>
+        <v>3.641</v>
       </c>
       <c r="D116" t="n">
-        <v>0.03</v>
+        <v>1.34</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>18.7</v>
+        <v>24.333</v>
       </c>
       <c r="D117" t="n">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>1.086</v>
+        <v>0.986</v>
       </c>
       <c r="D118" t="n">
-        <v>0.93</v>
+        <v>1.44</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3.593</v>
+        <v>7.923</v>
       </c>
       <c r="D119" t="n">
-        <v>0.7</v>
+        <v>4.68</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>17.909</v>
+        <v>8.25</v>
       </c>
       <c r="D120" t="n">
-        <v>5.01</v>
+        <v>2.17</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3200,19 +3200,19 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>18.7</v>
+        <v>138</v>
       </c>
       <c r="D121" t="n">
-        <v>0.64</v>
+        <v>-0.72</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3223,456 +3223,456 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>138</v>
+        <v>24.167</v>
       </c>
       <c r="D122" t="n">
-        <v>-0.72</v>
+        <v>1.4</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>17.782</v>
+        <v>1.086</v>
       </c>
       <c r="D123" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>10.343</v>
+        <v>18.7</v>
       </c>
       <c r="D124" t="n">
-        <v>5.69</v>
+        <v>0.64</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>8.25</v>
+        <v>6.187</v>
       </c>
       <c r="D125" t="n">
-        <v>2.17</v>
+        <v>0.03</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>2.72</v>
+        <v>0.972</v>
       </c>
       <c r="D126" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>24.167</v>
+        <v>3.593</v>
       </c>
       <c r="D127" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>6.187</v>
+        <v>10.343</v>
       </c>
       <c r="D128" t="n">
-        <v>0.03</v>
+        <v>5.69</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>7.923</v>
+        <v>17.782</v>
       </c>
       <c r="D129" t="n">
-        <v>4.68</v>
+        <v>1.5</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>1.086</v>
+        <v>17.909</v>
       </c>
       <c r="D130" t="n">
-        <v>0.93</v>
+        <v>5.01</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>0.972</v>
+        <v>2.72</v>
       </c>
       <c r="D131" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>17.909</v>
+        <v>24.167</v>
       </c>
       <c r="D132" t="n">
-        <v>5.01</v>
+        <v>1.4</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2.72</v>
+        <v>0.972</v>
       </c>
       <c r="D133" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>10.343</v>
+        <v>1.086</v>
       </c>
       <c r="D134" t="n">
-        <v>5.69</v>
+        <v>0.93</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>8.25</v>
+        <v>7.923</v>
       </c>
       <c r="D135" t="n">
-        <v>2.17</v>
+        <v>4.68</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>138</v>
+        <v>6.187</v>
       </c>
       <c r="D136" t="n">
-        <v>-0.72</v>
+        <v>0.03</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>1.086</v>
+        <v>2.72</v>
       </c>
       <c r="D137" t="n">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>17.782</v>
+        <v>8.25</v>
       </c>
       <c r="D138" t="n">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>7.946</v>
+        <v>10.343</v>
       </c>
       <c r="D139" t="n">
-        <v>4.98</v>
+        <v>5.69</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>0.972</v>
+        <v>17.782</v>
       </c>
       <c r="D140" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>18.7</v>
+        <v>138</v>
       </c>
       <c r="D141" t="n">
-        <v>0.64</v>
+        <v>-0.72</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -3683,191 +3683,191 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6.187</v>
+        <v>18.7</v>
       </c>
       <c r="D142" t="n">
-        <v>0.03</v>
+        <v>0.64</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>3.593</v>
+        <v>17.909</v>
       </c>
       <c r="D143" t="n">
-        <v>0.7</v>
+        <v>5.01</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>24.167</v>
+        <v>3.593</v>
       </c>
       <c r="D144" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>8.074999999999999</v>
+        <v>0.972</v>
       </c>
       <c r="D145" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>18.7</v>
+        <v>17.909</v>
       </c>
       <c r="D146" t="n">
-        <v>0.64</v>
+        <v>5.01</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.972</v>
+        <v>2.72</v>
       </c>
       <c r="D147" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>2.7</v>
+        <v>10.343</v>
       </c>
       <c r="D148" t="n">
-        <v>1.89</v>
+        <v>5.69</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3.593</v>
+        <v>8.25</v>
       </c>
       <c r="D149" t="n">
-        <v>0.7</v>
+        <v>2.17</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3890,30 +3890,30 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>7.522</v>
+        <v>1.086</v>
       </c>
       <c r="D151" t="n">
-        <v>4.2</v>
+        <v>0.93</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3936,88 +3936,88 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>23.833</v>
+        <v>7.946</v>
       </c>
       <c r="D153" t="n">
-        <v>1.42</v>
+        <v>4.98</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>9.715</v>
+        <v>18.7</v>
       </c>
       <c r="D154" t="n">
-        <v>3.72</v>
+        <v>0.64</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>17.055</v>
+        <v>6.187</v>
       </c>
       <c r="D155" t="n">
-        <v>3.36</v>
+        <v>0.03</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>6.187</v>
+        <v>3.593</v>
       </c>
       <c r="D156" t="n">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -4028,111 +4028,111 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>1.086</v>
+        <v>24.167</v>
       </c>
       <c r="D157" t="n">
-        <v>0.93</v>
+        <v>1.4</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>138</v>
+        <v>0.972</v>
       </c>
       <c r="D158" t="n">
-        <v>-0.72</v>
+        <v>1.25</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>16.5</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D159" t="n">
-        <v>3.66</v>
+        <v>1.57</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>23.5</v>
+        <v>18.7</v>
       </c>
       <c r="D160" t="n">
-        <v>3.68</v>
+        <v>0.64</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.972</v>
+        <v>1.086</v>
       </c>
       <c r="D161" t="n">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -4143,122 +4143,122 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>9.433</v>
+        <v>6.187</v>
       </c>
       <c r="D162" t="n">
-        <v>4.81</v>
+        <v>0.03</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>2.65</v>
+        <v>17.055</v>
       </c>
       <c r="D163" t="n">
-        <v>1.42</v>
+        <v>3.36</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>1.086</v>
+        <v>9.715</v>
       </c>
       <c r="D164" t="n">
-        <v>0.93</v>
+        <v>3.72</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>17.782</v>
+        <v>23.833</v>
       </c>
       <c r="D165" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>7.95</v>
+        <v>17.782</v>
       </c>
       <c r="D166" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4267,56 +4267,56 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>7.219</v>
+        <v>7.522</v>
       </c>
       <c r="D167" t="n">
-        <v>2.27</v>
+        <v>4.2</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3.593</v>
+        <v>138</v>
       </c>
       <c r="D168" t="n">
-        <v>0.7</v>
+        <v>-0.72</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>6.187</v>
+        <v>3.593</v>
       </c>
       <c r="D169" t="n">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -4327,157 +4327,157 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>18.7</v>
+        <v>2.7</v>
       </c>
       <c r="D170" t="n">
-        <v>0.64</v>
+        <v>1.89</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>2.613</v>
+        <v>0.972</v>
       </c>
       <c r="D171" t="n">
-        <v>0.5</v>
+        <v>1.25</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>1.086</v>
+        <v>9.433</v>
       </c>
       <c r="D172" t="n">
-        <v>0.93</v>
+        <v>4.81</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>22.667</v>
+        <v>138</v>
       </c>
       <c r="D173" t="n">
-        <v>1.04</v>
+        <v>-0.72</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>7.059</v>
+        <v>23.5</v>
       </c>
       <c r="D174" t="n">
-        <v>0.79</v>
+        <v>3.68</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>18.7</v>
+        <v>16.5</v>
       </c>
       <c r="D175" t="n">
-        <v>0.64</v>
+        <v>3.66</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3.593</v>
+        <v>1.086</v>
       </c>
       <c r="D176" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4488,180 +4488,180 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6.187</v>
+        <v>17.782</v>
       </c>
       <c r="D177" t="n">
-        <v>0.03</v>
+        <v>1.5</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>0.972</v>
+        <v>18.7</v>
       </c>
       <c r="D178" t="n">
-        <v>1.25</v>
+        <v>0.64</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>7.775</v>
+        <v>6.187</v>
       </c>
       <c r="D179" t="n">
-        <v>0.65</v>
+        <v>0.03</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>17.782</v>
+        <v>3.593</v>
       </c>
       <c r="D180" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>15.918</v>
+        <v>2.65</v>
       </c>
       <c r="D181" t="n">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>138</v>
+        <v>7.219</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.72</v>
+        <v>2.27</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>9</v>
+        <v>7.95</v>
       </c>
       <c r="D183" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>6.187</v>
+        <v>1.086</v>
       </c>
       <c r="D184" t="n">
-        <v>0.03</v>
+        <v>0.93</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4672,65 +4672,65 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>15.636</v>
+        <v>2.613</v>
       </c>
       <c r="D185" t="n">
-        <v>2.75</v>
+        <v>0.5</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>2.6</v>
+        <v>6.187</v>
       </c>
       <c r="D186" t="n">
-        <v>0.97</v>
+        <v>0.03</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>1.086</v>
+        <v>3.593</v>
       </c>
       <c r="D187" t="n">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
@@ -4741,42 +4741,42 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>17.782</v>
+        <v>7.059</v>
       </c>
       <c r="D188" t="n">
-        <v>1.5</v>
+        <v>0.79</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>138</v>
+        <v>18.7</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4787,42 +4787,42 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>0.972</v>
+        <v>9</v>
       </c>
       <c r="D190" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>18.7</v>
+        <v>138</v>
       </c>
       <c r="D191" t="n">
-        <v>0.64</v>
+        <v>-0.72</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
@@ -4833,53 +4833,53 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>8.867000000000001</v>
+        <v>15.918</v>
       </c>
       <c r="D192" t="n">
-        <v>3.38</v>
+        <v>1.8</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>7.004</v>
+        <v>17.782</v>
       </c>
       <c r="D193" t="n">
-        <v>2.16</v>
+        <v>1.5</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
@@ -4888,136 +4888,136 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>7.725</v>
+        <v>7.775</v>
       </c>
       <c r="D194" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>22.433</v>
+        <v>0.972</v>
       </c>
       <c r="D195" t="n">
-        <v>3.14</v>
+        <v>1.25</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3.593</v>
+        <v>22.667</v>
       </c>
       <c r="D196" t="n">
-        <v>0.7</v>
+        <v>1.04</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>6.185</v>
+        <v>7.004</v>
       </c>
       <c r="D197" t="n">
-        <v>0.41</v>
+        <v>2.16</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>6.856</v>
+        <v>3.593</v>
       </c>
       <c r="D198" t="n">
-        <v>1.57</v>
+        <v>0.7</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>8.577</v>
+        <v>22.433</v>
       </c>
       <c r="D199" t="n">
-        <v>1.23</v>
+        <v>3.14</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5026,56 +5026,56 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>7.663</v>
+        <v>7.725</v>
       </c>
       <c r="D200" t="n">
-        <v>0.5</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>0.96</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D201" t="n">
-        <v>0.74</v>
+        <v>3.38</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>138</v>
+        <v>18.7</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -5086,180 +5086,180 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>1.076</v>
+        <v>0.972</v>
       </c>
       <c r="D203" t="n">
-        <v>1.41</v>
+        <v>1.25</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3.568</v>
+        <v>138</v>
       </c>
       <c r="D204" t="n">
-        <v>0.68</v>
+        <v>-0.72</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>2.575</v>
+        <v>17.782</v>
       </c>
       <c r="D205" t="n">
-        <v>2.47</v>
+        <v>1.5</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>18.7</v>
+        <v>1.086</v>
       </c>
       <c r="D206" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>15.218</v>
+        <v>2.6</v>
       </c>
       <c r="D207" t="n">
-        <v>1.7</v>
+        <v>0.97</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>21.75</v>
+        <v>6.187</v>
       </c>
       <c r="D208" t="n">
-        <v>1.52</v>
+        <v>0.03</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>17.782</v>
+        <v>15.636</v>
       </c>
       <c r="D209" t="n">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>0.96</v>
+        <v>3.568</v>
       </c>
       <c r="D210" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -5270,53 +5270,53 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>138</v>
+        <v>6.185</v>
       </c>
       <c r="D211" t="n">
-        <v>-0.72</v>
+        <v>0.41</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>21.188</v>
+        <v>6.856</v>
       </c>
       <c r="D212" t="n">
-        <v>0.71</v>
+        <v>1.57</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -5325,56 +5325,56 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>8.327999999999999</v>
+        <v>8.577</v>
       </c>
       <c r="D213" t="n">
-        <v>1.04</v>
+        <v>1.23</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>2.475</v>
+        <v>7.663</v>
       </c>
       <c r="D214" t="n">
-        <v>1.02</v>
+        <v>0.5</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>6.185</v>
+        <v>0.96</v>
       </c>
       <c r="D215" t="n">
-        <v>0.41</v>
+        <v>0.74</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -5385,237 +5385,237 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>6.584</v>
+        <v>138</v>
       </c>
       <c r="D216" t="n">
-        <v>0.61</v>
+        <v>-0.72</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>17.782</v>
+        <v>1.076</v>
       </c>
       <c r="D217" t="n">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>18.7</v>
+        <v>2.575</v>
       </c>
       <c r="D218" t="n">
-        <v>0.64</v>
+        <v>2.47</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3.568</v>
+        <v>18.7</v>
       </c>
       <c r="D219" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>7.513</v>
+        <v>15.218</v>
       </c>
       <c r="D220" t="n">
-        <v>0.85</v>
+        <v>1.7</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>14.573</v>
+        <v>21.75</v>
       </c>
       <c r="D221" t="n">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>1.076</v>
+        <v>17.782</v>
       </c>
       <c r="D222" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>7.949</v>
+        <v>138</v>
       </c>
       <c r="D223" t="n">
-        <v>0.9</v>
+        <v>-0.72</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>7.816</v>
+        <v>0.96</v>
       </c>
       <c r="D224" t="n">
-        <v>1.82</v>
+        <v>0.74</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>7.573</v>
+        <v>21.188</v>
       </c>
       <c r="D225" t="n">
-        <v>0.5</v>
+        <v>0.71</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -5624,228 +5624,228 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>7.535</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D226" t="n">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>7.475</v>
+        <v>2.475</v>
       </c>
       <c r="D227" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>7.349</v>
+        <v>1.076</v>
       </c>
       <c r="D228" t="n">
-        <v>2.21</v>
+        <v>1.41</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>7.109</v>
+        <v>14.573</v>
       </c>
       <c r="D229" t="n">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>7.009</v>
+        <v>7.513</v>
       </c>
       <c r="D230" t="n">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>6.909</v>
+        <v>3.568</v>
       </c>
       <c r="D231" t="n">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D232" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>6.612</v>
+        <v>17.782</v>
       </c>
       <c r="D233" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>6.325</v>
+        <v>6.584</v>
       </c>
       <c r="D234" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>6.231</v>
+        <v>6.185</v>
       </c>
       <c r="D235" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -5854,21 +5854,21 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D236" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -5877,21 +5877,21 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D237" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -5900,21 +5900,21 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D238" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5923,21 +5923,21 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -5946,21 +5946,21 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D240" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5969,21 +5969,21 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D241" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -5992,21 +5992,21 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D242" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6015,21 +6015,21 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D243" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -6038,21 +6038,21 @@
         </is>
       </c>
       <c r="C244" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D244" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -6061,21 +6061,21 @@
         </is>
       </c>
       <c r="C245" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -6084,21 +6084,21 @@
         </is>
       </c>
       <c r="C246" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -6107,21 +6107,21 @@
         </is>
       </c>
       <c r="C247" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D247" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -6130,35 +6130,334 @@
         </is>
       </c>
       <c r="C248" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D248" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D249" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D251" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D252" t="n">
+        <v>0</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D253" t="n">
+        <v>0</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D255" t="n">
+        <v>0</v>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D256" t="n">
+        <v>0</v>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D257" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D258" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D259" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D260" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D261" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B249" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C249" t="n">
+      <c r="C262" t="n">
         <v>6.167</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D262" t="n">
         <v>0</v>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E262"/>
+  <dimension ref="A1:E275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="D9" t="n">
-        <v>2.4</v>
+        <v>1.56</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.725</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.042999999999999</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>4.96</v>
+        <v>3.97</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>22.35</v>
+        <v>23.5</v>
       </c>
       <c r="D12" t="n">
-        <v>4.68</v>
+        <v>4.44</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>25.395</v>
+        <v>26.367</v>
       </c>
       <c r="D13" t="n">
-        <v>2.55</v>
+        <v>3.83</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>13.969</v>
+        <v>14.654</v>
       </c>
       <c r="D14" t="n">
-        <v>5.03</v>
+        <v>4.67</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13.233</v>
+        <v>13.969</v>
       </c>
       <c r="D17" t="n">
-        <v>4.9</v>
+        <v>5.03</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>24.763</v>
+        <v>25.395</v>
       </c>
       <c r="D18" t="n">
-        <v>0.17</v>
+        <v>2.55</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>21</v>
+        <v>22.35</v>
       </c>
       <c r="D19" t="n">
-        <v>2.19</v>
+        <v>4.68</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>8.616</v>
+        <v>9.042999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>1.6</v>
+        <v>4.96</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.638</v>
+        <v>8.725</v>
       </c>
       <c r="D21" t="n">
-        <v>2.53</v>
+        <v>1.01</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.125</v>
+        <v>3.2</v>
       </c>
       <c r="D22" t="n">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18.091</v>
+        <v>13.233</v>
       </c>
       <c r="D28" t="n">
-        <v>1.74</v>
+        <v>4.9</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.721</v>
+        <v>24.763</v>
       </c>
       <c r="D29" t="n">
-        <v>0.63</v>
+        <v>0.17</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1116,44 +1116,44 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D30" t="n">
-        <v>3.62</v>
+        <v>11.89</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>12.615</v>
+        <v>18.364</v>
       </c>
       <c r="D31" t="n">
-        <v>6.3</v>
+        <v>1.51</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1162,21 +1162,21 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>18.721</v>
+        <v>19.088</v>
       </c>
       <c r="D32" t="n">
-        <v>0.11</v>
+        <v>1.96</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1185,21 +1185,21 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3.641</v>
+        <v>3.714</v>
       </c>
       <c r="D33" t="n">
-        <v>1.34</v>
+        <v>2.01</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1208,21 +1208,21 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6.307</v>
+        <v>6.407</v>
       </c>
       <c r="D34" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1231,21 +1231,21 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.986</v>
+        <v>1.024</v>
       </c>
       <c r="D35" t="n">
-        <v>1.44</v>
+        <v>3.85</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1254,21 +1254,21 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.11</v>
+        <v>1.152</v>
       </c>
       <c r="D36" t="n">
-        <v>2.21</v>
+        <v>3.78</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.038</v>
+        <v>3.125</v>
       </c>
       <c r="D37" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1300,21 +1300,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.425000000000001</v>
+        <v>8.638</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6</v>
+        <v>2.53</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.48</v>
+        <v>8.616</v>
       </c>
       <c r="D39" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1346,21 +1346,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>20.55</v>
+        <v>21</v>
       </c>
       <c r="D40" t="n">
-        <v>3.79</v>
+        <v>2.19</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1406,30 +1406,30 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>12.615</v>
+        <v>18.091</v>
       </c>
       <c r="D43" t="n">
-        <v>6.3</v>
+        <v>1.74</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1452,30 +1452,30 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18.091</v>
+        <v>12.615</v>
       </c>
       <c r="D45" t="n">
-        <v>1.74</v>
+        <v>6.3</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1544,7 +1544,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1567,7 +1567,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1659,19 +1659,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>18.091</v>
+        <v>3.641</v>
       </c>
       <c r="D54" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -1682,42 +1682,42 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>24.721</v>
+        <v>12.615</v>
       </c>
       <c r="D55" t="n">
-        <v>0.63</v>
+        <v>6.3</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3.641</v>
+        <v>143</v>
       </c>
       <c r="D56" t="n">
-        <v>1.34</v>
+        <v>3.62</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1728,30 +1728,30 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>143</v>
+        <v>24.721</v>
       </c>
       <c r="D57" t="n">
-        <v>3.62</v>
+        <v>0.63</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1774,53 +1774,53 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>1.11</v>
+        <v>3.038</v>
       </c>
       <c r="D59" t="n">
-        <v>2.21</v>
+        <v>2.12</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3.038</v>
+        <v>8.48</v>
       </c>
       <c r="D60" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1836,49 +1836,49 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>8.48</v>
+        <v>20.55</v>
       </c>
       <c r="D62" t="n">
-        <v>1.97</v>
+        <v>3.79</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.986</v>
+        <v>1.11</v>
       </c>
       <c r="D63" t="n">
-        <v>1.44</v>
+        <v>2.21</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1889,19 +1889,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>6.307</v>
+        <v>0.986</v>
       </c>
       <c r="D64" t="n">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1912,53 +1912,53 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>20.55</v>
+        <v>6.307</v>
       </c>
       <c r="D65" t="n">
-        <v>3.79</v>
+        <v>1.94</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>12.378</v>
+        <v>18.091</v>
       </c>
       <c r="D66" t="n">
-        <v>4.31</v>
+        <v>1.74</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1967,21 +1967,21 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.316000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="D67" t="n">
-        <v>3.06</v>
+        <v>1.97</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1990,21 +1990,21 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>11.867</v>
+        <v>12.378</v>
       </c>
       <c r="D68" t="n">
-        <v>5.33</v>
+        <v>4.31</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2013,102 +2013,102 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>19.8</v>
+        <v>20.55</v>
       </c>
       <c r="D69" t="n">
-        <v>2.86</v>
+        <v>3.79</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>24.566</v>
+        <v>18.091</v>
       </c>
       <c r="D70" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3.641</v>
+        <v>24.721</v>
       </c>
       <c r="D71" t="n">
-        <v>1.34</v>
+        <v>0.63</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2.975</v>
+        <v>3.641</v>
       </c>
       <c r="D72" t="n">
-        <v>2.83</v>
+        <v>1.34</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>18.721</v>
+        <v>143</v>
       </c>
       <c r="D73" t="n">
-        <v>0.11</v>
+        <v>3.62</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -2119,19 +2119,19 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1.11</v>
+        <v>18.721</v>
       </c>
       <c r="D74" t="n">
-        <v>2.21</v>
+        <v>0.11</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2142,19 +2142,19 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>18.091</v>
+        <v>1.11</v>
       </c>
       <c r="D75" t="n">
-        <v>1.74</v>
+        <v>2.21</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2165,30 +2165,30 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>143</v>
+        <v>3.038</v>
       </c>
       <c r="D76" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2197,21 +2197,21 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2234,7 +2234,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2257,30 +2257,30 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3.641</v>
+        <v>11.867</v>
       </c>
       <c r="D80" t="n">
-        <v>1.34</v>
+        <v>5.33</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2289,56 +2289,56 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>19.25</v>
+        <v>19.8</v>
       </c>
       <c r="D81" t="n">
-        <v>3.33</v>
+        <v>2.86</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2.893</v>
+        <v>6.307</v>
       </c>
       <c r="D82" t="n">
-        <v>2.84</v>
+        <v>1.94</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>18.091</v>
+        <v>0.986</v>
       </c>
       <c r="D83" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2349,42 +2349,42 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>143</v>
+        <v>8.375</v>
       </c>
       <c r="D84" t="n">
-        <v>3.62</v>
+        <v>0.14</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>18.721</v>
+        <v>143</v>
       </c>
       <c r="D85" t="n">
-        <v>0.11</v>
+        <v>3.62</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2395,19 +2395,19 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.11</v>
+        <v>18.091</v>
       </c>
       <c r="D86" t="n">
-        <v>2.21</v>
+        <v>1.74</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2418,203 +2418,203 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>11.267</v>
+        <v>1.11</v>
       </c>
       <c r="D87" t="n">
-        <v>4.88</v>
+        <v>2.21</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>24.368</v>
+        <v>18.721</v>
       </c>
       <c r="D88" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>8.363</v>
+        <v>2.975</v>
       </c>
       <c r="D89" t="n">
-        <v>0.16</v>
+        <v>2.83</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>8.069000000000001</v>
+        <v>3.641</v>
       </c>
       <c r="D90" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.986</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>1.44</v>
+        <v>3.06</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>6.307</v>
+        <v>24.566</v>
       </c>
       <c r="D92" t="n">
-        <v>1.94</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.11</v>
+        <v>24.368</v>
       </c>
       <c r="D93" t="n">
-        <v>2.21</v>
+        <v>0.14</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.986</v>
+        <v>19.25</v>
       </c>
       <c r="D94" t="n">
-        <v>1.44</v>
+        <v>3.33</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>18.091</v>
+        <v>3.641</v>
       </c>
       <c r="D95" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -2625,65 +2625,65 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3.641</v>
+        <v>2.893</v>
       </c>
       <c r="D96" t="n">
-        <v>1.34</v>
+        <v>2.84</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>18.63</v>
+        <v>18.091</v>
       </c>
       <c r="D97" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>6.307</v>
+        <v>143</v>
       </c>
       <c r="D98" t="n">
-        <v>1.94</v>
+        <v>3.62</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -2694,168 +2694,168 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>7.931</v>
+        <v>18.721</v>
       </c>
       <c r="D99" t="n">
-        <v>0.09</v>
+        <v>0.11</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>8.35</v>
+        <v>1.11</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>24.333</v>
+        <v>11.267</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>18.721</v>
+        <v>8.363</v>
       </c>
       <c r="D102" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>143</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>3.62</v>
+        <v>1.74</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>10.686</v>
+        <v>0.986</v>
       </c>
       <c r="D104" t="n">
-        <v>2.19</v>
+        <v>1.44</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>2.813</v>
+        <v>6.307</v>
       </c>
       <c r="D105" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -2878,65 +2878,65 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>8.35</v>
+        <v>1.11</v>
       </c>
       <c r="D107" t="n">
-        <v>1.21</v>
+        <v>2.21</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>10.457</v>
+        <v>0.986</v>
       </c>
       <c r="D108" t="n">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>1.11</v>
+        <v>3.641</v>
       </c>
       <c r="D109" t="n">
-        <v>2.21</v>
+        <v>1.34</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2947,76 +2947,76 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>2.763</v>
+        <v>18.63</v>
       </c>
       <c r="D110" t="n">
-        <v>1.58</v>
+        <v>1.8</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>7.998</v>
+        <v>2.813</v>
       </c>
       <c r="D111" t="n">
-        <v>0.95</v>
+        <v>1.81</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>18.455</v>
+        <v>10.686</v>
       </c>
       <c r="D112" t="n">
-        <v>3.05</v>
+        <v>2.19</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -3039,19 +3039,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>6.307</v>
+        <v>18.721</v>
       </c>
       <c r="D114" t="n">
-        <v>1.94</v>
+        <v>0.11</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -3062,88 +3062,88 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>18.721</v>
+        <v>24.333</v>
       </c>
       <c r="D115" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3.641</v>
+        <v>8.35</v>
       </c>
       <c r="D116" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>24.333</v>
+        <v>7.931</v>
       </c>
       <c r="D117" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>0.986</v>
+        <v>6.307</v>
       </c>
       <c r="D118" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3154,548 +3154,548 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>7.923</v>
+        <v>2.763</v>
       </c>
       <c r="D119" t="n">
-        <v>4.68</v>
+        <v>1.58</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>8.25</v>
+        <v>1.11</v>
       </c>
       <c r="D120" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>138</v>
+        <v>8.35</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.72</v>
+        <v>1.21</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>24.167</v>
+        <v>10.457</v>
       </c>
       <c r="D122" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>1.086</v>
+        <v>0.986</v>
       </c>
       <c r="D123" t="n">
-        <v>0.93</v>
+        <v>1.44</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>18.7</v>
+        <v>24.333</v>
       </c>
       <c r="D124" t="n">
-        <v>0.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>6.187</v>
+        <v>3.641</v>
       </c>
       <c r="D125" t="n">
-        <v>0.03</v>
+        <v>1.34</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>0.972</v>
+        <v>18.721</v>
       </c>
       <c r="D126" t="n">
-        <v>1.25</v>
+        <v>0.11</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3.593</v>
+        <v>6.307</v>
       </c>
       <c r="D127" t="n">
-        <v>0.7</v>
+        <v>1.94</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>10.343</v>
+        <v>143</v>
       </c>
       <c r="D128" t="n">
-        <v>5.69</v>
+        <v>3.62</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>17.782</v>
+        <v>18.455</v>
       </c>
       <c r="D129" t="n">
-        <v>1.5</v>
+        <v>3.05</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>17.909</v>
+        <v>7.998</v>
       </c>
       <c r="D130" t="n">
-        <v>5.01</v>
+        <v>0.95</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>2.72</v>
+        <v>18.091</v>
       </c>
       <c r="D131" t="n">
-        <v>0.74</v>
+        <v>1.74</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>24.167</v>
+        <v>3.593</v>
       </c>
       <c r="D132" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>0.972</v>
+        <v>2.72</v>
       </c>
       <c r="D133" t="n">
-        <v>1.25</v>
+        <v>0.74</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>1.086</v>
+        <v>17.909</v>
       </c>
       <c r="D134" t="n">
-        <v>0.93</v>
+        <v>5.01</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>7.923</v>
+        <v>17.782</v>
       </c>
       <c r="D135" t="n">
-        <v>4.68</v>
+        <v>1.5</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>6.187</v>
+        <v>10.343</v>
       </c>
       <c r="D136" t="n">
-        <v>0.03</v>
+        <v>5.69</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>2.72</v>
+        <v>0.972</v>
       </c>
       <c r="D137" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>8.25</v>
+        <v>6.187</v>
       </c>
       <c r="D138" t="n">
-        <v>2.17</v>
+        <v>0.03</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>10.343</v>
+        <v>18.7</v>
       </c>
       <c r="D139" t="n">
-        <v>5.69</v>
+        <v>0.64</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>17.782</v>
+        <v>1.086</v>
       </c>
       <c r="D140" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>138</v>
+        <v>24.167</v>
       </c>
       <c r="D141" t="n">
-        <v>-0.72</v>
+        <v>1.4</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>18.7</v>
+        <v>138</v>
       </c>
       <c r="D142" t="n">
-        <v>0.64</v>
+        <v>-0.72</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3706,19 +3706,19 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>17.909</v>
+        <v>8.25</v>
       </c>
       <c r="D143" t="n">
-        <v>5.01</v>
+        <v>2.17</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -3729,249 +3729,249 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>3.593</v>
+        <v>7.923</v>
       </c>
       <c r="D144" t="n">
-        <v>0.7</v>
+        <v>4.68</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>0.972</v>
+        <v>10.343</v>
       </c>
       <c r="D145" t="n">
-        <v>1.25</v>
+        <v>5.69</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>17.909</v>
+        <v>24.167</v>
       </c>
       <c r="D146" t="n">
-        <v>5.01</v>
+        <v>1.4</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>2.72</v>
+        <v>0.972</v>
       </c>
       <c r="D147" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>10.343</v>
+        <v>1.086</v>
       </c>
       <c r="D148" t="n">
-        <v>5.69</v>
+        <v>0.93</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>8.25</v>
+        <v>7.923</v>
       </c>
       <c r="D149" t="n">
-        <v>2.17</v>
+        <v>4.68</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>138</v>
+        <v>6.187</v>
       </c>
       <c r="D150" t="n">
-        <v>-0.72</v>
+        <v>0.03</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.086</v>
+        <v>2.72</v>
       </c>
       <c r="D151" t="n">
-        <v>0.93</v>
+        <v>0.74</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>17.782</v>
+        <v>8.25</v>
       </c>
       <c r="D152" t="n">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>7.946</v>
+        <v>17.782</v>
       </c>
       <c r="D153" t="n">
-        <v>4.98</v>
+        <v>1.5</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18.7</v>
+        <v>138</v>
       </c>
       <c r="D154" t="n">
-        <v>0.64</v>
+        <v>-0.72</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3982,76 +3982,76 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>6.187</v>
+        <v>18.7</v>
       </c>
       <c r="D155" t="n">
-        <v>0.03</v>
+        <v>0.64</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3.593</v>
+        <v>17.909</v>
       </c>
       <c r="D156" t="n">
-        <v>0.7</v>
+        <v>5.01</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>24.167</v>
+        <v>3.593</v>
       </c>
       <c r="D157" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4074,88 +4074,88 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>8.074999999999999</v>
+        <v>2.72</v>
       </c>
       <c r="D159" t="n">
-        <v>1.57</v>
+        <v>0.74</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>18.7</v>
+        <v>17.909</v>
       </c>
       <c r="D160" t="n">
-        <v>0.64</v>
+        <v>5.01</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>1.086</v>
+        <v>24.167</v>
       </c>
       <c r="D161" t="n">
-        <v>0.93</v>
+        <v>1.4</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>6.187</v>
+        <v>3.593</v>
       </c>
       <c r="D162" t="n">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4166,76 +4166,76 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>17.055</v>
+        <v>6.187</v>
       </c>
       <c r="D163" t="n">
-        <v>3.36</v>
+        <v>0.03</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>9.715</v>
+        <v>18.7</v>
       </c>
       <c r="D164" t="n">
-        <v>3.72</v>
+        <v>0.64</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>23.833</v>
+        <v>7.946</v>
       </c>
       <c r="D165" t="n">
-        <v>1.42</v>
+        <v>4.98</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4258,30 +4258,30 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>7.522</v>
+        <v>1.086</v>
       </c>
       <c r="D167" t="n">
-        <v>4.2</v>
+        <v>0.93</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4304,65 +4304,65 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3.593</v>
+        <v>8.25</v>
       </c>
       <c r="D169" t="n">
-        <v>0.7</v>
+        <v>2.17</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>2.7</v>
+        <v>10.343</v>
       </c>
       <c r="D170" t="n">
-        <v>1.89</v>
+        <v>5.69</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>0.972</v>
+        <v>1.086</v>
       </c>
       <c r="D171" t="n">
-        <v>1.25</v>
+        <v>0.93</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -4373,180 +4373,180 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>9.433</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D172" t="n">
-        <v>4.81</v>
+        <v>1.57</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>138</v>
+        <v>6.187</v>
       </c>
       <c r="D173" t="n">
-        <v>-0.72</v>
+        <v>0.03</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>23.5</v>
+        <v>18.7</v>
       </c>
       <c r="D174" t="n">
-        <v>3.68</v>
+        <v>0.64</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>16.5</v>
+        <v>0.972</v>
       </c>
       <c r="D175" t="n">
-        <v>3.66</v>
+        <v>1.25</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>1.086</v>
+        <v>23.833</v>
       </c>
       <c r="D176" t="n">
-        <v>0.93</v>
+        <v>1.42</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>17.782</v>
+        <v>7.522</v>
       </c>
       <c r="D177" t="n">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>18.7</v>
+        <v>2.7</v>
       </c>
       <c r="D178" t="n">
-        <v>0.64</v>
+        <v>1.89</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>6.187</v>
+        <v>3.593</v>
       </c>
       <c r="D179" t="n">
-        <v>0.03</v>
+        <v>0.7</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
@@ -4557,157 +4557,157 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>3.593</v>
+        <v>17.055</v>
       </c>
       <c r="D180" t="n">
-        <v>0.7</v>
+        <v>3.36</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>2.65</v>
+        <v>9.715</v>
       </c>
       <c r="D181" t="n">
-        <v>1.42</v>
+        <v>3.72</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>7.219</v>
+        <v>138</v>
       </c>
       <c r="D182" t="n">
-        <v>2.27</v>
+        <v>-0.72</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>7.95</v>
+        <v>17.782</v>
       </c>
       <c r="D183" t="n">
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>1.086</v>
+        <v>138</v>
       </c>
       <c r="D184" t="n">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>2.613</v>
+        <v>9.433</v>
       </c>
       <c r="D185" t="n">
-        <v>0.5</v>
+        <v>4.81</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>6.187</v>
+        <v>0.972</v>
       </c>
       <c r="D186" t="n">
-        <v>0.03</v>
+        <v>1.25</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
@@ -4718,65 +4718,65 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3.593</v>
+        <v>16.5</v>
       </c>
       <c r="D187" t="n">
-        <v>0.7</v>
+        <v>3.66</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>7.059</v>
+        <v>1.086</v>
       </c>
       <c r="D188" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>18.7</v>
+        <v>17.782</v>
       </c>
       <c r="D189" t="n">
-        <v>0.64</v>
+        <v>1.5</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4787,145 +4787,145 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>9</v>
+        <v>7.95</v>
       </c>
       <c r="D190" t="n">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>138</v>
+        <v>7.219</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.72</v>
+        <v>2.27</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>15.918</v>
+        <v>2.65</v>
       </c>
       <c r="D192" t="n">
-        <v>1.8</v>
+        <v>1.42</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>17.782</v>
+        <v>3.593</v>
       </c>
       <c r="D193" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>7.775</v>
+        <v>6.187</v>
       </c>
       <c r="D194" t="n">
-        <v>0.65</v>
+        <v>0.03</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>0.972</v>
+        <v>18.7</v>
       </c>
       <c r="D195" t="n">
-        <v>1.25</v>
+        <v>0.64</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -4934,171 +4934,171 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>22.667</v>
+        <v>23.5</v>
       </c>
       <c r="D196" t="n">
-        <v>1.04</v>
+        <v>3.68</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>7.004</v>
+        <v>15.918</v>
       </c>
       <c r="D197" t="n">
-        <v>2.16</v>
+        <v>1.8</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3.593</v>
+        <v>22.667</v>
       </c>
       <c r="D198" t="n">
-        <v>0.7</v>
+        <v>1.04</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>22.433</v>
+        <v>0.972</v>
       </c>
       <c r="D199" t="n">
-        <v>3.14</v>
+        <v>1.25</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>7.725</v>
+        <v>1.086</v>
       </c>
       <c r="D200" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.93</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>8.867000000000001</v>
+        <v>2.613</v>
       </c>
       <c r="D201" t="n">
-        <v>3.38</v>
+        <v>0.5</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D202" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>0.972</v>
+        <v>3.593</v>
       </c>
       <c r="D203" t="n">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -5109,42 +5109,42 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>138</v>
+        <v>7.059</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.72</v>
+        <v>0.79</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>17.782</v>
+        <v>18.7</v>
       </c>
       <c r="D205" t="n">
-        <v>1.5</v>
+        <v>0.64</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -5155,99 +5155,99 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>1.086</v>
+        <v>9</v>
       </c>
       <c r="D206" t="n">
-        <v>0.93</v>
+        <v>1.5</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2.6</v>
+        <v>138</v>
       </c>
       <c r="D207" t="n">
-        <v>0.97</v>
+        <v>-0.72</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>6.187</v>
+        <v>17.782</v>
       </c>
       <c r="D208" t="n">
-        <v>0.03</v>
+        <v>1.5</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>15.636</v>
+        <v>7.775</v>
       </c>
       <c r="D209" t="n">
-        <v>2.75</v>
+        <v>0.65</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
@@ -5256,148 +5256,148 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3.568</v>
+        <v>3.593</v>
       </c>
       <c r="D210" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>6.185</v>
+        <v>7.004</v>
       </c>
       <c r="D211" t="n">
-        <v>0.41</v>
+        <v>2.16</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>6.856</v>
+        <v>15.636</v>
       </c>
       <c r="D212" t="n">
-        <v>1.57</v>
+        <v>2.75</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>8.577</v>
+        <v>6.187</v>
       </c>
       <c r="D213" t="n">
-        <v>1.23</v>
+        <v>0.03</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>7.663</v>
+        <v>2.6</v>
       </c>
       <c r="D214" t="n">
-        <v>0.5</v>
+        <v>0.97</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.96</v>
+        <v>1.086</v>
       </c>
       <c r="D215" t="n">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>138</v>
+        <v>17.782</v>
       </c>
       <c r="D216" t="n">
-        <v>-0.72</v>
+        <v>1.5</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
@@ -5408,53 +5408,53 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>1.076</v>
+        <v>138</v>
       </c>
       <c r="D217" t="n">
-        <v>1.41</v>
+        <v>-0.72</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>2.575</v>
+        <v>0.972</v>
       </c>
       <c r="D218" t="n">
-        <v>2.47</v>
+        <v>1.25</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -5477,111 +5477,111 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>15.218</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D220" t="n">
-        <v>1.7</v>
+        <v>3.38</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>21.75</v>
+        <v>7.725</v>
       </c>
       <c r="D221" t="n">
-        <v>1.52</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>17.782</v>
+        <v>22.433</v>
       </c>
       <c r="D222" t="n">
-        <v>1.5</v>
+        <v>3.14</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>138</v>
+        <v>2.575</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.72</v>
+        <v>2.47</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>0.96</v>
+        <v>6.185</v>
       </c>
       <c r="D224" t="n">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
@@ -5592,157 +5592,157 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>21.188</v>
+        <v>3.568</v>
       </c>
       <c r="D225" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>8.327999999999999</v>
+        <v>6.856</v>
       </c>
       <c r="D226" t="n">
-        <v>1.04</v>
+        <v>1.57</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>2.475</v>
+        <v>8.577</v>
       </c>
       <c r="D227" t="n">
-        <v>1.02</v>
+        <v>1.23</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>1.076</v>
+        <v>7.663</v>
       </c>
       <c r="D228" t="n">
-        <v>1.41</v>
+        <v>0.5</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>14.573</v>
+        <v>0.96</v>
       </c>
       <c r="D229" t="n">
-        <v>1.78</v>
+        <v>0.74</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>7.513</v>
+        <v>138</v>
       </c>
       <c r="D230" t="n">
-        <v>0.85</v>
+        <v>-0.72</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3.568</v>
+        <v>1.076</v>
       </c>
       <c r="D231" t="n">
-        <v>0.68</v>
+        <v>1.41</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
@@ -5753,7 +5753,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -5776,145 +5776,145 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>17.782</v>
+        <v>15.218</v>
       </c>
       <c r="D233" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>6.584</v>
+        <v>21.75</v>
       </c>
       <c r="D234" t="n">
-        <v>0.61</v>
+        <v>1.52</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>6.185</v>
+        <v>17.782</v>
       </c>
       <c r="D235" t="n">
-        <v>0.41</v>
+        <v>1.5</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>7.949</v>
+        <v>21.188</v>
       </c>
       <c r="D236" t="n">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>7.816</v>
+        <v>138</v>
       </c>
       <c r="D237" t="n">
-        <v>1.82</v>
+        <v>-0.72</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>7.573</v>
+        <v>0.96</v>
       </c>
       <c r="D238" t="n">
-        <v>0.5</v>
+        <v>0.74</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -5923,228 +5923,228 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>7.535</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D239" t="n">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>7.475</v>
+        <v>2.475</v>
       </c>
       <c r="D240" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>7.349</v>
+        <v>6.185</v>
       </c>
       <c r="D241" t="n">
-        <v>2.21</v>
+        <v>0.41</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>7.109</v>
+        <v>6.584</v>
       </c>
       <c r="D242" t="n">
-        <v>1.43</v>
+        <v>0.61</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>7.009</v>
+        <v>17.782</v>
       </c>
       <c r="D243" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>6.909</v>
+        <v>18.7</v>
       </c>
       <c r="D244" t="n">
-        <v>0.95</v>
+        <v>0.64</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>6.776</v>
+        <v>3.568</v>
       </c>
       <c r="D245" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>6.612</v>
+        <v>7.513</v>
       </c>
       <c r="D246" t="n">
-        <v>1.47</v>
+        <v>0.85</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>6.325</v>
+        <v>14.573</v>
       </c>
       <c r="D247" t="n">
-        <v>0.99</v>
+        <v>1.78</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>6.231</v>
+        <v>1.076</v>
       </c>
       <c r="D248" t="n">
-        <v>0.24</v>
+        <v>1.41</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -6153,21 +6153,21 @@
         </is>
       </c>
       <c r="C249" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D249" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -6176,21 +6176,21 @@
         </is>
       </c>
       <c r="C250" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D250" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -6199,21 +6199,21 @@
         </is>
       </c>
       <c r="C251" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D251" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -6222,21 +6222,21 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -6245,21 +6245,21 @@
         </is>
       </c>
       <c r="C253" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D253" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -6268,21 +6268,21 @@
         </is>
       </c>
       <c r="C254" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D254" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -6291,21 +6291,21 @@
         </is>
       </c>
       <c r="C255" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D255" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -6314,21 +6314,21 @@
         </is>
       </c>
       <c r="C256" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D256" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -6337,21 +6337,21 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D257" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -6360,21 +6360,21 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D258" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -6383,21 +6383,21 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D259" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6406,21 +6406,21 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D260" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -6429,35 +6429,334 @@
         </is>
       </c>
       <c r="C261" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D261" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D262" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D264" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D265" t="n">
+        <v>0</v>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D266" t="n">
+        <v>0</v>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D267" t="n">
+        <v>0</v>
+      </c>
+      <c r="E267" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D268" t="n">
+        <v>0</v>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D269" t="n">
+        <v>0</v>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D270" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D271" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E271" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D272" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D273" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D274" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B275" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C262" t="n">
+      <c r="C275" t="n">
         <v>6.167</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D275" t="n">
         <v>0</v>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="E275" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E275"/>
+  <dimension ref="A1:E288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.25</v>
+        <v>3.326</v>
       </c>
       <c r="D9" t="n">
-        <v>1.56</v>
+        <v>2.34</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.800000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.86</v>
+        <v>1.71</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.476000000000001</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>23.5</v>
+        <v>24.55</v>
       </c>
       <c r="D12" t="n">
-        <v>4.44</v>
+        <v>4.2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>26.367</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>3.83</v>
+        <v>2.4</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>14.654</v>
+        <v>15.154</v>
       </c>
       <c r="D14" t="n">
-        <v>4.67</v>
+        <v>3.41</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>13.969</v>
+        <v>14.654</v>
       </c>
       <c r="D17" t="n">
-        <v>5.03</v>
+        <v>4.67</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>25.395</v>
+        <v>26.367</v>
       </c>
       <c r="D18" t="n">
-        <v>2.55</v>
+        <v>3.83</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22.35</v>
+        <v>23.5</v>
       </c>
       <c r="D19" t="n">
-        <v>4.68</v>
+        <v>4.44</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.042999999999999</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>4.96</v>
+        <v>3.97</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.725</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="D22" t="n">
-        <v>2.4</v>
+        <v>1.56</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>13.233</v>
+        <v>18.364</v>
       </c>
       <c r="D28" t="n">
-        <v>4.9</v>
+        <v>1.51</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>24.763</v>
+        <v>25.395</v>
       </c>
       <c r="D29" t="n">
-        <v>0.17</v>
+        <v>2.55</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18.364</v>
+        <v>13.969</v>
       </c>
       <c r="D31" t="n">
-        <v>1.51</v>
+        <v>5.03</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.125</v>
+        <v>3.2</v>
       </c>
       <c r="D37" t="n">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1300,21 +1300,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.638</v>
+        <v>8.725</v>
       </c>
       <c r="D38" t="n">
-        <v>2.53</v>
+        <v>1.01</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>8.616</v>
+        <v>9.042999999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>1.6</v>
+        <v>4.96</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1346,21 +1346,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>21</v>
+        <v>22.35</v>
       </c>
       <c r="D40" t="n">
-        <v>2.19</v>
+        <v>4.68</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1369,136 +1369,136 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>18.721</v>
+        <v>19.088</v>
       </c>
       <c r="D41" t="n">
-        <v>0.11</v>
+        <v>1.96</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>143</v>
+        <v>3.714</v>
       </c>
       <c r="D42" t="n">
-        <v>3.62</v>
+        <v>2.01</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>18.091</v>
+        <v>24.763</v>
       </c>
       <c r="D43" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3.641</v>
+        <v>13.233</v>
       </c>
       <c r="D44" t="n">
-        <v>1.34</v>
+        <v>4.9</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>12.615</v>
+        <v>18.364</v>
       </c>
       <c r="D45" t="n">
-        <v>6.3</v>
+        <v>1.51</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>24.721</v>
+        <v>160</v>
       </c>
       <c r="D46" t="n">
-        <v>0.63</v>
+        <v>11.89</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1507,21 +1507,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.038</v>
+        <v>3.125</v>
       </c>
       <c r="D47" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1530,21 +1530,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8.48</v>
+        <v>8.616</v>
       </c>
       <c r="D48" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1553,21 +1553,21 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6.307</v>
+        <v>6.407</v>
       </c>
       <c r="D49" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1576,21 +1576,21 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.986</v>
+        <v>1.024</v>
       </c>
       <c r="D50" t="n">
-        <v>1.44</v>
+        <v>3.85</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1599,21 +1599,21 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.11</v>
+        <v>1.152</v>
       </c>
       <c r="D51" t="n">
-        <v>2.21</v>
+        <v>3.78</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1622,21 +1622,21 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>20.55</v>
+        <v>21</v>
       </c>
       <c r="D52" t="n">
-        <v>3.79</v>
+        <v>2.19</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1645,21 +1645,21 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.425000000000001</v>
+        <v>8.638</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6</v>
+        <v>2.53</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1682,30 +1682,30 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>12.615</v>
+        <v>18.091</v>
       </c>
       <c r="D55" t="n">
-        <v>6.3</v>
+        <v>1.74</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1728,7 +1728,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1751,7 +1751,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1774,7 +1774,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1797,7 +1797,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1820,7 +1820,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1843,7 +1843,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1866,7 +1866,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1889,7 +1889,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1935,111 +1935,111 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>18.091</v>
+        <v>12.615</v>
       </c>
       <c r="D66" t="n">
-        <v>1.74</v>
+        <v>6.3</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>8.48</v>
+        <v>20.55</v>
       </c>
       <c r="D67" t="n">
-        <v>1.97</v>
+        <v>3.79</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12.378</v>
+        <v>18.091</v>
       </c>
       <c r="D68" t="n">
-        <v>4.31</v>
+        <v>1.74</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>20.55</v>
+        <v>6.307</v>
       </c>
       <c r="D69" t="n">
-        <v>3.79</v>
+        <v>1.94</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>18.091</v>
+        <v>3.641</v>
       </c>
       <c r="D70" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -2050,42 +2050,42 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>24.721</v>
+        <v>12.615</v>
       </c>
       <c r="D71" t="n">
-        <v>0.63</v>
+        <v>6.3</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3.641</v>
+        <v>143</v>
       </c>
       <c r="D72" t="n">
-        <v>1.34</v>
+        <v>3.62</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -2096,30 +2096,30 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>143</v>
+        <v>24.721</v>
       </c>
       <c r="D73" t="n">
-        <v>3.62</v>
+        <v>0.63</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2142,53 +2142,53 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1.11</v>
+        <v>3.038</v>
       </c>
       <c r="D75" t="n">
-        <v>2.21</v>
+        <v>2.12</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3.038</v>
+        <v>8.48</v>
       </c>
       <c r="D76" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2204,26 +2204,26 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.986</v>
+        <v>1.11</v>
       </c>
       <c r="D78" t="n">
-        <v>1.44</v>
+        <v>2.21</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2234,19 +2234,19 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6.307</v>
+        <v>0.986</v>
       </c>
       <c r="D79" t="n">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2257,7 +2257,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2266,21 +2266,21 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>11.867</v>
+        <v>12.378</v>
       </c>
       <c r="D80" t="n">
-        <v>5.33</v>
+        <v>4.31</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2289,21 +2289,21 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>19.8</v>
+        <v>20.55</v>
       </c>
       <c r="D81" t="n">
-        <v>2.86</v>
+        <v>3.79</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2326,7 +2326,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2349,7 +2349,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2358,56 +2358,56 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D84" t="n">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>143</v>
+        <v>3.038</v>
       </c>
       <c r="D85" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>18.091</v>
+        <v>1.11</v>
       </c>
       <c r="D86" t="n">
-        <v>1.74</v>
+        <v>2.21</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2418,19 +2418,19 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>1.11</v>
+        <v>18.721</v>
       </c>
       <c r="D87" t="n">
-        <v>2.21</v>
+        <v>0.11</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2441,19 +2441,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>18.721</v>
+        <v>143</v>
       </c>
       <c r="D88" t="n">
-        <v>0.11</v>
+        <v>3.62</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2464,53 +2464,53 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2.975</v>
+        <v>3.641</v>
       </c>
       <c r="D89" t="n">
-        <v>2.83</v>
+        <v>1.34</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3.641</v>
+        <v>24.721</v>
       </c>
       <c r="D90" t="n">
-        <v>1.34</v>
+        <v>0.63</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -2519,148 +2519,148 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>8.316000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="D91" t="n">
-        <v>3.06</v>
+        <v>1.97</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>24.566</v>
+        <v>18.091</v>
       </c>
       <c r="D92" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>24.368</v>
+        <v>1.11</v>
       </c>
       <c r="D93" t="n">
-        <v>0.14</v>
+        <v>2.21</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>19.25</v>
+        <v>11.867</v>
       </c>
       <c r="D94" t="n">
-        <v>3.33</v>
+        <v>5.33</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3.641</v>
+        <v>19.8</v>
       </c>
       <c r="D95" t="n">
-        <v>1.34</v>
+        <v>2.86</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2.893</v>
+        <v>6.307</v>
       </c>
       <c r="D96" t="n">
-        <v>2.84</v>
+        <v>1.94</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>18.091</v>
+        <v>0.986</v>
       </c>
       <c r="D97" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -2671,42 +2671,42 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>143</v>
+        <v>8.375</v>
       </c>
       <c r="D98" t="n">
-        <v>3.62</v>
+        <v>0.14</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>18.721</v>
+        <v>143</v>
       </c>
       <c r="D99" t="n">
-        <v>0.11</v>
+        <v>3.62</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -2717,19 +2717,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.11</v>
+        <v>18.091</v>
       </c>
       <c r="D100" t="n">
-        <v>2.21</v>
+        <v>1.74</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2740,180 +2740,180 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>11.267</v>
+        <v>18.721</v>
       </c>
       <c r="D101" t="n">
-        <v>4.88</v>
+        <v>0.11</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>8.363</v>
+        <v>2.975</v>
       </c>
       <c r="D102" t="n">
-        <v>0.16</v>
+        <v>2.83</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>8.069000000000001</v>
+        <v>3.641</v>
       </c>
       <c r="D103" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>0.986</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D104" t="n">
-        <v>1.44</v>
+        <v>3.06</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>6.307</v>
+        <v>24.566</v>
       </c>
       <c r="D105" t="n">
-        <v>1.94</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>18.091</v>
+        <v>19.25</v>
       </c>
       <c r="D106" t="n">
-        <v>1.74</v>
+        <v>3.33</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.11</v>
+        <v>24.368</v>
       </c>
       <c r="D107" t="n">
-        <v>2.21</v>
+        <v>0.14</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>0.986</v>
+        <v>3.641</v>
       </c>
       <c r="D108" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2924,19 +2924,19 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3.641</v>
+        <v>18.091</v>
       </c>
       <c r="D109" t="n">
-        <v>1.34</v>
+        <v>1.74</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2947,203 +2947,203 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>18.63</v>
+        <v>143</v>
       </c>
       <c r="D110" t="n">
-        <v>1.8</v>
+        <v>3.62</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>2.813</v>
+        <v>6.307</v>
       </c>
       <c r="D111" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>10.686</v>
+        <v>0.986</v>
       </c>
       <c r="D112" t="n">
-        <v>2.19</v>
+        <v>1.44</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>143</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="D113" t="n">
-        <v>3.62</v>
+        <v>1.74</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>18.721</v>
+        <v>8.363</v>
       </c>
       <c r="D114" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>24.333</v>
+        <v>11.267</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>8.35</v>
+        <v>1.11</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>7.931</v>
+        <v>2.893</v>
       </c>
       <c r="D117" t="n">
-        <v>0.09</v>
+        <v>2.84</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>6.307</v>
+        <v>18.721</v>
       </c>
       <c r="D118" t="n">
-        <v>1.94</v>
+        <v>0.11</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3154,42 +3154,42 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>2.763</v>
+        <v>18.091</v>
       </c>
       <c r="D119" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>1.11</v>
+        <v>0.986</v>
       </c>
       <c r="D120" t="n">
-        <v>2.21</v>
+        <v>1.44</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3200,65 +3200,65 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>8.35</v>
+        <v>3.641</v>
       </c>
       <c r="D121" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>10.457</v>
+        <v>18.63</v>
       </c>
       <c r="D122" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>0.986</v>
+        <v>6.307</v>
       </c>
       <c r="D123" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3269,88 +3269,88 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>24.333</v>
+        <v>7.931</v>
       </c>
       <c r="D124" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3.641</v>
+        <v>8.35</v>
       </c>
       <c r="D125" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>18.721</v>
+        <v>24.333</v>
       </c>
       <c r="D126" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6.307</v>
+        <v>18.721</v>
       </c>
       <c r="D127" t="n">
-        <v>1.94</v>
+        <v>0.11</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -3361,7 +3361,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3384,65 +3384,65 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>18.455</v>
+        <v>10.686</v>
       </c>
       <c r="D129" t="n">
-        <v>3.05</v>
+        <v>2.19</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>7.998</v>
+        <v>2.813</v>
       </c>
       <c r="D130" t="n">
-        <v>0.95</v>
+        <v>1.81</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>18.091</v>
+        <v>1.11</v>
       </c>
       <c r="D131" t="n">
-        <v>1.74</v>
+        <v>2.21</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -3453,341 +3453,341 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3.593</v>
+        <v>18.721</v>
       </c>
       <c r="D132" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>2.72</v>
+        <v>18.091</v>
       </c>
       <c r="D133" t="n">
-        <v>0.74</v>
+        <v>1.74</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>17.909</v>
+        <v>7.998</v>
       </c>
       <c r="D134" t="n">
-        <v>5.01</v>
+        <v>0.95</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>17.782</v>
+        <v>2.763</v>
       </c>
       <c r="D135" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>10.343</v>
+        <v>1.11</v>
       </c>
       <c r="D136" t="n">
-        <v>5.69</v>
+        <v>2.21</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0.972</v>
+        <v>8.35</v>
       </c>
       <c r="D137" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>6.187</v>
+        <v>10.457</v>
       </c>
       <c r="D138" t="n">
-        <v>0.03</v>
+        <v>1.1</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>18.7</v>
+        <v>0.986</v>
       </c>
       <c r="D139" t="n">
-        <v>0.64</v>
+        <v>1.44</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>1.086</v>
+        <v>24.333</v>
       </c>
       <c r="D140" t="n">
-        <v>0.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>24.167</v>
+        <v>3.641</v>
       </c>
       <c r="D141" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>138</v>
+        <v>6.307</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.72</v>
+        <v>1.94</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>8.25</v>
+        <v>143</v>
       </c>
       <c r="D143" t="n">
-        <v>2.17</v>
+        <v>3.62</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>7.923</v>
+        <v>18.455</v>
       </c>
       <c r="D144" t="n">
-        <v>4.68</v>
+        <v>3.05</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>10.343</v>
+        <v>3.593</v>
       </c>
       <c r="D145" t="n">
-        <v>5.69</v>
+        <v>0.7</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>24.167</v>
+        <v>17.909</v>
       </c>
       <c r="D146" t="n">
-        <v>1.4</v>
+        <v>5.01</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -3798,364 +3798,364 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>0.972</v>
+        <v>7.923</v>
       </c>
       <c r="D147" t="n">
-        <v>1.25</v>
+        <v>4.68</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>1.086</v>
+        <v>8.25</v>
       </c>
       <c r="D148" t="n">
-        <v>0.93</v>
+        <v>2.17</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>7.923</v>
+        <v>138</v>
       </c>
       <c r="D149" t="n">
-        <v>4.68</v>
+        <v>-0.72</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>6.187</v>
+        <v>24.167</v>
       </c>
       <c r="D150" t="n">
-        <v>0.03</v>
+        <v>1.4</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>2.72</v>
+        <v>1.086</v>
       </c>
       <c r="D151" t="n">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8.25</v>
+        <v>18.7</v>
       </c>
       <c r="D152" t="n">
-        <v>2.17</v>
+        <v>0.64</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>17.782</v>
+        <v>6.187</v>
       </c>
       <c r="D153" t="n">
-        <v>1.5</v>
+        <v>0.03</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>138</v>
+        <v>0.972</v>
       </c>
       <c r="D154" t="n">
-        <v>-0.72</v>
+        <v>1.25</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>18.7</v>
+        <v>10.343</v>
       </c>
       <c r="D155" t="n">
-        <v>0.64</v>
+        <v>5.69</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>17.909</v>
+        <v>17.782</v>
       </c>
       <c r="D156" t="n">
-        <v>5.01</v>
+        <v>1.5</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3.593</v>
+        <v>2.72</v>
       </c>
       <c r="D157" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>0.972</v>
+        <v>17.782</v>
       </c>
       <c r="D158" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>2.72</v>
+        <v>10.343</v>
       </c>
       <c r="D159" t="n">
-        <v>0.74</v>
+        <v>5.69</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>17.909</v>
+        <v>24.167</v>
       </c>
       <c r="D160" t="n">
-        <v>5.01</v>
+        <v>1.4</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>24.167</v>
+        <v>0.972</v>
       </c>
       <c r="D161" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3.593</v>
+        <v>1.086</v>
       </c>
       <c r="D162" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -4166,134 +4166,134 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>6.187</v>
+        <v>7.923</v>
       </c>
       <c r="D163" t="n">
-        <v>0.03</v>
+        <v>4.68</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D164" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>7.946</v>
+        <v>2.72</v>
       </c>
       <c r="D165" t="n">
-        <v>4.98</v>
+        <v>0.74</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>17.782</v>
+        <v>8.25</v>
       </c>
       <c r="D166" t="n">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>1.086</v>
+        <v>138</v>
       </c>
       <c r="D167" t="n">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>138</v>
+        <v>18.7</v>
       </c>
       <c r="D168" t="n">
-        <v>-0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -4304,364 +4304,364 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>8.25</v>
+        <v>17.909</v>
       </c>
       <c r="D169" t="n">
-        <v>2.17</v>
+        <v>5.01</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>10.343</v>
+        <v>3.593</v>
       </c>
       <c r="D170" t="n">
-        <v>5.69</v>
+        <v>0.7</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>1.086</v>
+        <v>17.909</v>
       </c>
       <c r="D171" t="n">
-        <v>0.93</v>
+        <v>5.01</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>8.074999999999999</v>
+        <v>0.972</v>
       </c>
       <c r="D172" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>6.187</v>
+        <v>2.72</v>
       </c>
       <c r="D173" t="n">
-        <v>0.03</v>
+        <v>0.74</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>18.7</v>
+        <v>10.343</v>
       </c>
       <c r="D174" t="n">
-        <v>0.64</v>
+        <v>5.69</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>0.972</v>
+        <v>8.25</v>
       </c>
       <c r="D175" t="n">
-        <v>1.25</v>
+        <v>2.17</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>23.833</v>
+        <v>138</v>
       </c>
       <c r="D176" t="n">
-        <v>1.42</v>
+        <v>-0.72</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>7.522</v>
+        <v>1.086</v>
       </c>
       <c r="D177" t="n">
-        <v>4.2</v>
+        <v>0.93</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>2.7</v>
+        <v>17.782</v>
       </c>
       <c r="D178" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3.593</v>
+        <v>7.946</v>
       </c>
       <c r="D179" t="n">
-        <v>0.7</v>
+        <v>4.98</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>17.055</v>
+        <v>18.7</v>
       </c>
       <c r="D180" t="n">
-        <v>3.36</v>
+        <v>0.64</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>9.715</v>
+        <v>6.187</v>
       </c>
       <c r="D181" t="n">
-        <v>3.72</v>
+        <v>0.03</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>138</v>
+        <v>3.593</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>17.782</v>
+        <v>24.167</v>
       </c>
       <c r="D183" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>138</v>
+        <v>18.7</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
@@ -4672,30 +4672,30 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>9.433</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D185" t="n">
-        <v>4.81</v>
+        <v>1.57</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -4718,30 +4718,30 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>16.5</v>
+        <v>6.187</v>
       </c>
       <c r="D187" t="n">
-        <v>3.66</v>
+        <v>0.03</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -4764,260 +4764,260 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>17.782</v>
+        <v>2.7</v>
       </c>
       <c r="D189" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>7.95</v>
+        <v>17.055</v>
       </c>
       <c r="D190" t="n">
-        <v>2.25</v>
+        <v>3.36</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>7.219</v>
+        <v>17.782</v>
       </c>
       <c r="D191" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>2.65</v>
+        <v>138</v>
       </c>
       <c r="D192" t="n">
-        <v>1.42</v>
+        <v>-0.72</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3.593</v>
+        <v>23.833</v>
       </c>
       <c r="D193" t="n">
-        <v>0.7</v>
+        <v>1.42</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>6.187</v>
+        <v>7.522</v>
       </c>
       <c r="D194" t="n">
-        <v>0.03</v>
+        <v>4.2</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>18.7</v>
+        <v>9.715</v>
       </c>
       <c r="D195" t="n">
-        <v>0.64</v>
+        <v>3.72</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>23.5</v>
+        <v>3.593</v>
       </c>
       <c r="D196" t="n">
-        <v>3.68</v>
+        <v>0.7</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>15.918</v>
+        <v>0.972</v>
       </c>
       <c r="D197" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>22.667</v>
+        <v>9.433</v>
       </c>
       <c r="D198" t="n">
-        <v>1.04</v>
+        <v>4.81</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>0.972</v>
+        <v>138</v>
       </c>
       <c r="D199" t="n">
-        <v>1.25</v>
+        <v>-0.72</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5040,341 +5040,341 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>2.613</v>
+        <v>17.782</v>
       </c>
       <c r="D201" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>6.187</v>
+        <v>7.95</v>
       </c>
       <c r="D202" t="n">
-        <v>0.03</v>
+        <v>2.25</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3.593</v>
+        <v>23.5</v>
       </c>
       <c r="D203" t="n">
-        <v>0.7</v>
+        <v>3.68</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>7.059</v>
+        <v>18.7</v>
       </c>
       <c r="D204" t="n">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D205" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>9</v>
+        <v>3.593</v>
       </c>
       <c r="D206" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>138</v>
+        <v>2.65</v>
       </c>
       <c r="D207" t="n">
-        <v>-0.72</v>
+        <v>1.42</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>17.782</v>
+        <v>7.219</v>
       </c>
       <c r="D208" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>7.775</v>
+        <v>16.5</v>
       </c>
       <c r="D209" t="n">
-        <v>0.65</v>
+        <v>3.66</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3.593</v>
+        <v>18.7</v>
       </c>
       <c r="D210" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>7.004</v>
+        <v>7.775</v>
       </c>
       <c r="D211" t="n">
-        <v>2.16</v>
+        <v>0.65</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>15.636</v>
+        <v>17.782</v>
       </c>
       <c r="D212" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>6.187</v>
+        <v>15.918</v>
       </c>
       <c r="D213" t="n">
-        <v>0.03</v>
+        <v>1.8</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>2.6</v>
+        <v>22.667</v>
       </c>
       <c r="D214" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>1.086</v>
+        <v>0.972</v>
       </c>
       <c r="D215" t="n">
-        <v>0.93</v>
+        <v>1.25</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
@@ -5385,65 +5385,65 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>17.782</v>
+        <v>1.086</v>
       </c>
       <c r="D216" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>138</v>
+        <v>2.613</v>
       </c>
       <c r="D217" t="n">
-        <v>-0.72</v>
+        <v>0.5</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>0.972</v>
+        <v>6.187</v>
       </c>
       <c r="D218" t="n">
-        <v>1.25</v>
+        <v>0.03</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
@@ -5454,191 +5454,191 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>18.7</v>
+        <v>3.593</v>
       </c>
       <c r="D219" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>8.867000000000001</v>
+        <v>7.059</v>
       </c>
       <c r="D220" t="n">
-        <v>3.38</v>
+        <v>0.79</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>7.725</v>
+        <v>9</v>
       </c>
       <c r="D221" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>22.433</v>
+        <v>138</v>
       </c>
       <c r="D222" t="n">
-        <v>3.14</v>
+        <v>-0.72</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>2.575</v>
+        <v>7.004</v>
       </c>
       <c r="D223" t="n">
-        <v>2.47</v>
+        <v>2.16</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>6.185</v>
+        <v>3.593</v>
       </c>
       <c r="D224" t="n">
-        <v>0.41</v>
+        <v>0.7</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3.568</v>
+        <v>22.433</v>
       </c>
       <c r="D225" t="n">
-        <v>0.68</v>
+        <v>3.14</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>6.856</v>
+        <v>7.725</v>
       </c>
       <c r="D226" t="n">
-        <v>1.57</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -5647,44 +5647,44 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>8.577</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D227" t="n">
-        <v>1.23</v>
+        <v>3.38</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>7.663</v>
+        <v>18.7</v>
       </c>
       <c r="D228" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -5693,21 +5693,21 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.96</v>
+        <v>0.972</v>
       </c>
       <c r="D229" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5730,318 +5730,318 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>1.076</v>
+        <v>17.782</v>
       </c>
       <c r="D231" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>18.7</v>
+        <v>1.086</v>
       </c>
       <c r="D232" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>15.218</v>
+        <v>2.6</v>
       </c>
       <c r="D233" t="n">
-        <v>1.7</v>
+        <v>0.97</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>21.75</v>
+        <v>6.187</v>
       </c>
       <c r="D234" t="n">
-        <v>1.52</v>
+        <v>0.03</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>17.782</v>
+        <v>15.636</v>
       </c>
       <c r="D235" t="n">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>21.188</v>
+        <v>1.076</v>
       </c>
       <c r="D236" t="n">
-        <v>0.71</v>
+        <v>1.41</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>138</v>
+        <v>6.185</v>
       </c>
       <c r="D237" t="n">
-        <v>-0.72</v>
+        <v>0.41</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>0.96</v>
+        <v>2.575</v>
       </c>
       <c r="D238" t="n">
-        <v>0.74</v>
+        <v>2.47</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>8.327999999999999</v>
+        <v>3.568</v>
       </c>
       <c r="D239" t="n">
-        <v>1.04</v>
+        <v>0.68</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>2.475</v>
+        <v>6.856</v>
       </c>
       <c r="D240" t="n">
-        <v>1.02</v>
+        <v>1.57</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>6.185</v>
+        <v>8.577</v>
       </c>
       <c r="D241" t="n">
-        <v>0.41</v>
+        <v>1.23</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>6.584</v>
+        <v>7.663</v>
       </c>
       <c r="D242" t="n">
-        <v>0.61</v>
+        <v>0.5</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>17.782</v>
+        <v>0.96</v>
       </c>
       <c r="D243" t="n">
-        <v>1.5</v>
+        <v>0.74</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>18.7</v>
+        <v>138</v>
       </c>
       <c r="D244" t="n">
-        <v>0.64</v>
+        <v>-0.72</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -6052,168 +6052,168 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>3.568</v>
+        <v>18.7</v>
       </c>
       <c r="D245" t="n">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>7.513</v>
+        <v>15.218</v>
       </c>
       <c r="D246" t="n">
-        <v>0.85</v>
+        <v>1.7</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>14.573</v>
+        <v>21.75</v>
       </c>
       <c r="D247" t="n">
-        <v>1.78</v>
+        <v>1.52</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>1.076</v>
+        <v>17.782</v>
       </c>
       <c r="D248" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>7.949</v>
+        <v>0.96</v>
       </c>
       <c r="D249" t="n">
-        <v>0.9</v>
+        <v>0.74</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>7.816</v>
+        <v>21.188</v>
       </c>
       <c r="D250" t="n">
-        <v>1.82</v>
+        <v>0.71</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>7.573</v>
+        <v>138</v>
       </c>
       <c r="D251" t="n">
-        <v>0.5</v>
+        <v>-0.72</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -6222,228 +6222,228 @@
         </is>
       </c>
       <c r="C252" t="n">
-        <v>7.535</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D252" t="n">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>7.475</v>
+        <v>2.475</v>
       </c>
       <c r="D253" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>7.349</v>
+        <v>1.076</v>
       </c>
       <c r="D254" t="n">
-        <v>2.21</v>
+        <v>1.41</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>7.109</v>
+        <v>14.573</v>
       </c>
       <c r="D255" t="n">
-        <v>1.43</v>
+        <v>1.78</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>7.009</v>
+        <v>7.513</v>
       </c>
       <c r="D256" t="n">
-        <v>1.18</v>
+        <v>0.85</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>6.909</v>
+        <v>3.568</v>
       </c>
       <c r="D257" t="n">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>6.776</v>
+        <v>18.7</v>
       </c>
       <c r="D258" t="n">
-        <v>0.73</v>
+        <v>0.64</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>6.612</v>
+        <v>17.782</v>
       </c>
       <c r="D259" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>6.325</v>
+        <v>6.584</v>
       </c>
       <c r="D260" t="n">
-        <v>0.99</v>
+        <v>0.61</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>6.231</v>
+        <v>6.185</v>
       </c>
       <c r="D261" t="n">
-        <v>0.24</v>
+        <v>0.41</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6452,21 +6452,21 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D262" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -6475,21 +6475,21 @@
         </is>
       </c>
       <c r="C263" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D263" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -6498,21 +6498,21 @@
         </is>
       </c>
       <c r="C264" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D264" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6521,21 +6521,21 @@
         </is>
       </c>
       <c r="C265" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -6544,21 +6544,21 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -6567,21 +6567,21 @@
         </is>
       </c>
       <c r="C267" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D267" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -6590,21 +6590,21 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -6613,21 +6613,21 @@
         </is>
       </c>
       <c r="C269" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -6636,21 +6636,21 @@
         </is>
       </c>
       <c r="C270" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D270" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -6659,21 +6659,21 @@
         </is>
       </c>
       <c r="C271" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D271" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -6682,21 +6682,21 @@
         </is>
       </c>
       <c r="C272" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D272" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -6705,21 +6705,21 @@
         </is>
       </c>
       <c r="C273" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D273" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -6728,35 +6728,334 @@
         </is>
       </c>
       <c r="C274" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D274" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D275" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D277" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D278" t="n">
+        <v>0</v>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D279" t="n">
+        <v>0</v>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D280" t="n">
+        <v>0</v>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D281" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D282" t="n">
+        <v>0</v>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D283" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D284" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D285" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D286" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E286" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D287" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B288" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C275" t="n">
+      <c r="C288" t="n">
         <v>6.167</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D288" t="n">
         <v>0</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="E288" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E288"/>
+  <dimension ref="A1:E301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -633,21 +633,21 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.326</v>
+        <v>3.336</v>
       </c>
       <c r="D9" t="n">
-        <v>2.34</v>
+        <v>0.3</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -656,21 +656,21 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.949999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="D10" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.906000000000001</v>
+        <v>10.195</v>
       </c>
       <c r="D11" t="n">
-        <v>4.02</v>
+        <v>3.16</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -702,21 +702,21 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>24.55</v>
+        <v>25.5</v>
       </c>
       <c r="D12" t="n">
-        <v>4.2</v>
+        <v>3.87</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27</v>
+        <v>27.833</v>
       </c>
       <c r="D13" t="n">
-        <v>2.4</v>
+        <v>3.09</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.154</v>
+        <v>15.563</v>
       </c>
       <c r="D14" t="n">
-        <v>3.41</v>
+        <v>2.29</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.654</v>
+        <v>15.154</v>
       </c>
       <c r="D17" t="n">
-        <v>4.67</v>
+        <v>3.41</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>26.367</v>
+        <v>27</v>
       </c>
       <c r="D18" t="n">
-        <v>3.83</v>
+        <v>2.4</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.5</v>
+        <v>24.55</v>
       </c>
       <c r="D19" t="n">
-        <v>4.44</v>
+        <v>4.2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.476000000000001</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.800000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.86</v>
+        <v>1.71</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.25</v>
+        <v>3.326</v>
       </c>
       <c r="D22" t="n">
-        <v>1.56</v>
+        <v>2.34</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>18.364</v>
+        <v>14.654</v>
       </c>
       <c r="D28" t="n">
-        <v>1.51</v>
+        <v>4.67</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>25.395</v>
+        <v>26.367</v>
       </c>
       <c r="D29" t="n">
-        <v>2.55</v>
+        <v>3.83</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>13.969</v>
+        <v>18.364</v>
       </c>
       <c r="D31" t="n">
-        <v>5.03</v>
+        <v>1.51</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="D37" t="n">
-        <v>2.4</v>
+        <v>1.56</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1300,21 +1300,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.725</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>1.01</v>
+        <v>0.86</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9.042999999999999</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>4.96</v>
+        <v>3.97</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1346,21 +1346,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>22.35</v>
+        <v>23.5</v>
       </c>
       <c r="D40" t="n">
-        <v>4.68</v>
+        <v>4.44</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1383,7 +1383,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1406,7 +1406,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1415,67 +1415,67 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>24.763</v>
+        <v>25.395</v>
       </c>
       <c r="D43" t="n">
-        <v>0.17</v>
+        <v>2.55</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>13.233</v>
+        <v>18.364</v>
       </c>
       <c r="D44" t="n">
-        <v>4.9</v>
+        <v>1.51</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>18.364</v>
+        <v>13.969</v>
       </c>
       <c r="D45" t="n">
-        <v>1.51</v>
+        <v>5.03</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1507,21 +1507,21 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.125</v>
+        <v>3.2</v>
       </c>
       <c r="D47" t="n">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1530,21 +1530,21 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>8.616</v>
+        <v>9.042999999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>1.6</v>
+        <v>4.96</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1567,7 +1567,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1590,7 +1590,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1613,7 +1613,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1622,21 +1622,21 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>21</v>
+        <v>22.35</v>
       </c>
       <c r="D52" t="n">
-        <v>2.19</v>
+        <v>4.68</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1645,113 +1645,113 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.638</v>
+        <v>8.725</v>
       </c>
       <c r="D53" t="n">
-        <v>2.53</v>
+        <v>1.01</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3.641</v>
+        <v>13.233</v>
       </c>
       <c r="D54" t="n">
-        <v>1.34</v>
+        <v>4.9</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>18.091</v>
+        <v>24.763</v>
       </c>
       <c r="D55" t="n">
-        <v>1.74</v>
+        <v>0.17</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>143</v>
+        <v>3.714</v>
       </c>
       <c r="D56" t="n">
-        <v>3.62</v>
+        <v>2.01</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>24.721</v>
+        <v>160</v>
       </c>
       <c r="D57" t="n">
-        <v>0.63</v>
+        <v>11.89</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1760,21 +1760,21 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>18.721</v>
+        <v>19.088</v>
       </c>
       <c r="D58" t="n">
-        <v>0.11</v>
+        <v>1.96</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1783,21 +1783,21 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.038</v>
+        <v>3.125</v>
       </c>
       <c r="D59" t="n">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1806,21 +1806,21 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8.48</v>
+        <v>8.616</v>
       </c>
       <c r="D60" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1829,21 +1829,21 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.425000000000001</v>
+        <v>8.638</v>
       </c>
       <c r="D61" t="n">
-        <v>0.6</v>
+        <v>2.53</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1852,21 +1852,21 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>20.55</v>
+        <v>21</v>
       </c>
       <c r="D62" t="n">
-        <v>3.79</v>
+        <v>2.19</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1875,21 +1875,21 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.11</v>
+        <v>1.152</v>
       </c>
       <c r="D63" t="n">
-        <v>2.21</v>
+        <v>3.78</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1898,21 +1898,21 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.986</v>
+        <v>1.024</v>
       </c>
       <c r="D64" t="n">
-        <v>1.44</v>
+        <v>3.85</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1921,44 +1921,44 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6.307</v>
+        <v>6.407</v>
       </c>
       <c r="D65" t="n">
-        <v>1.94</v>
+        <v>1.59</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>12.615</v>
+        <v>18.364</v>
       </c>
       <c r="D66" t="n">
-        <v>6.3</v>
+        <v>1.51</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1981,30 +1981,30 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>18.091</v>
+        <v>12.615</v>
       </c>
       <c r="D68" t="n">
-        <v>1.74</v>
+        <v>6.3</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2027,7 +2027,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2050,30 +2050,30 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>12.615</v>
+        <v>18.091</v>
       </c>
       <c r="D71" t="n">
-        <v>6.3</v>
+        <v>1.74</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2096,7 +2096,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2119,7 +2119,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2142,7 +2142,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2165,7 +2165,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2188,7 +2188,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2211,7 +2211,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2234,7 +2234,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2257,65 +2257,65 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>12.378</v>
+        <v>18.091</v>
       </c>
       <c r="D80" t="n">
-        <v>4.31</v>
+        <v>1.74</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>20.55</v>
+        <v>6.307</v>
       </c>
       <c r="D81" t="n">
-        <v>3.79</v>
+        <v>1.94</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>6.307</v>
+        <v>0.986</v>
       </c>
       <c r="D82" t="n">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -2326,19 +2326,19 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.986</v>
+        <v>1.11</v>
       </c>
       <c r="D83" t="n">
-        <v>1.44</v>
+        <v>2.21</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -2349,7 +2349,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2365,60 +2365,60 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3.038</v>
+        <v>8.48</v>
       </c>
       <c r="D85" t="n">
-        <v>2.12</v>
+        <v>1.97</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>1.11</v>
+        <v>3.038</v>
       </c>
       <c r="D86" t="n">
-        <v>2.21</v>
+        <v>2.12</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2441,42 +2441,42 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>143</v>
+        <v>24.721</v>
       </c>
       <c r="D88" t="n">
-        <v>3.62</v>
+        <v>0.63</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3.641</v>
+        <v>143</v>
       </c>
       <c r="D89" t="n">
-        <v>1.34</v>
+        <v>3.62</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2487,65 +2487,65 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>24.721</v>
+        <v>12.615</v>
       </c>
       <c r="D90" t="n">
-        <v>0.63</v>
+        <v>6.3</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>8.48</v>
+        <v>20.55</v>
       </c>
       <c r="D91" t="n">
-        <v>1.97</v>
+        <v>3.79</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>18.091</v>
+        <v>3.641</v>
       </c>
       <c r="D92" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2556,19 +2556,19 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1.11</v>
+        <v>18.721</v>
       </c>
       <c r="D93" t="n">
-        <v>2.21</v>
+        <v>0.11</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2579,7 +2579,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -2588,21 +2588,21 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>11.867</v>
+        <v>12.378</v>
       </c>
       <c r="D94" t="n">
-        <v>5.33</v>
+        <v>4.31</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -2611,21 +2611,21 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>19.8</v>
+        <v>20.55</v>
       </c>
       <c r="D95" t="n">
-        <v>2.86</v>
+        <v>3.79</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -2648,7 +2648,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2671,7 +2671,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -2680,56 +2680,56 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>8.375</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D98" t="n">
-        <v>0.14</v>
+        <v>0.6</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>143</v>
+        <v>3.038</v>
       </c>
       <c r="D99" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>18.091</v>
+        <v>1.11</v>
       </c>
       <c r="D100" t="n">
-        <v>1.74</v>
+        <v>2.21</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2740,19 +2740,19 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>18.721</v>
+        <v>143</v>
       </c>
       <c r="D101" t="n">
-        <v>0.11</v>
+        <v>3.62</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -2763,53 +2763,53 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>2.975</v>
+        <v>3.641</v>
       </c>
       <c r="D102" t="n">
-        <v>2.83</v>
+        <v>1.34</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3.641</v>
+        <v>24.721</v>
       </c>
       <c r="D103" t="n">
-        <v>1.34</v>
+        <v>0.63</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -2818,125 +2818,125 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>8.316000000000001</v>
+        <v>8.48</v>
       </c>
       <c r="D104" t="n">
-        <v>3.06</v>
+        <v>1.97</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>24.566</v>
+        <v>18.091</v>
       </c>
       <c r="D105" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.74</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>19.25</v>
+        <v>11.867</v>
       </c>
       <c r="D106" t="n">
-        <v>3.33</v>
+        <v>5.33</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>24.368</v>
+        <v>1.11</v>
       </c>
       <c r="D107" t="n">
-        <v>0.14</v>
+        <v>2.21</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3.641</v>
+        <v>19.8</v>
       </c>
       <c r="D108" t="n">
-        <v>1.34</v>
+        <v>2.86</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>18.091</v>
+        <v>0.986</v>
       </c>
       <c r="D109" t="n">
-        <v>1.74</v>
+        <v>1.44</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2947,157 +2947,157 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>143</v>
+        <v>8.375</v>
       </c>
       <c r="D110" t="n">
-        <v>3.62</v>
+        <v>0.14</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6.307</v>
+        <v>24.566</v>
       </c>
       <c r="D111" t="n">
-        <v>1.94</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>0.986</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>1.44</v>
+        <v>3.06</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>8.069000000000001</v>
+        <v>3.641</v>
       </c>
       <c r="D113" t="n">
-        <v>1.74</v>
+        <v>1.34</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>8.363</v>
+        <v>2.975</v>
       </c>
       <c r="D114" t="n">
-        <v>0.16</v>
+        <v>2.83</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>11.267</v>
+        <v>18.721</v>
       </c>
       <c r="D115" t="n">
-        <v>4.88</v>
+        <v>0.11</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>1.11</v>
+        <v>18.091</v>
       </c>
       <c r="D116" t="n">
-        <v>2.21</v>
+        <v>1.74</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -3108,42 +3108,42 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>2.893</v>
+        <v>6.307</v>
       </c>
       <c r="D117" t="n">
-        <v>2.84</v>
+        <v>1.94</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>18.721</v>
+        <v>143</v>
       </c>
       <c r="D118" t="n">
-        <v>0.11</v>
+        <v>3.62</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3154,42 +3154,42 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>18.091</v>
+        <v>19.25</v>
       </c>
       <c r="D119" t="n">
-        <v>1.74</v>
+        <v>3.33</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>0.986</v>
+        <v>3.641</v>
       </c>
       <c r="D120" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -3200,19 +3200,19 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3.641</v>
+        <v>18.091</v>
       </c>
       <c r="D121" t="n">
-        <v>1.34</v>
+        <v>1.74</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3223,42 +3223,42 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>18.63</v>
+        <v>143</v>
       </c>
       <c r="D122" t="n">
-        <v>1.8</v>
+        <v>3.62</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>6.307</v>
+        <v>18.721</v>
       </c>
       <c r="D123" t="n">
-        <v>1.94</v>
+        <v>0.11</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -3269,226 +3269,226 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>7.931</v>
+        <v>2.893</v>
       </c>
       <c r="D124" t="n">
-        <v>0.09</v>
+        <v>2.84</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>8.35</v>
+        <v>1.11</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>24.333</v>
+        <v>11.267</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>18.721</v>
+        <v>8.363</v>
       </c>
       <c r="D127" t="n">
-        <v>0.11</v>
+        <v>0.16</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>143</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="D128" t="n">
-        <v>3.62</v>
+        <v>1.74</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>10.686</v>
+        <v>0.986</v>
       </c>
       <c r="D129" t="n">
-        <v>2.19</v>
+        <v>1.44</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>2.813</v>
+        <v>6.307</v>
       </c>
       <c r="D130" t="n">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>1.11</v>
+        <v>24.368</v>
       </c>
       <c r="D131" t="n">
-        <v>2.21</v>
+        <v>0.14</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>18.721</v>
+        <v>24.333</v>
       </c>
       <c r="D132" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>18.091</v>
+        <v>1.11</v>
       </c>
       <c r="D133" t="n">
-        <v>1.74</v>
+        <v>2.21</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3499,65 +3499,65 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>7.998</v>
+        <v>2.813</v>
       </c>
       <c r="D134" t="n">
-        <v>0.95</v>
+        <v>1.81</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>2.763</v>
+        <v>18.091</v>
       </c>
       <c r="D135" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>1.11</v>
+        <v>0.986</v>
       </c>
       <c r="D136" t="n">
-        <v>2.21</v>
+        <v>1.44</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -3568,65 +3568,65 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>8.35</v>
+        <v>3.641</v>
       </c>
       <c r="D137" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>10.457</v>
+        <v>18.63</v>
       </c>
       <c r="D138" t="n">
-        <v>1.1</v>
+        <v>1.8</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>0.986</v>
+        <v>6.307</v>
       </c>
       <c r="D139" t="n">
-        <v>1.44</v>
+        <v>1.94</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -3637,65 +3637,65 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>24.333</v>
+        <v>7.931</v>
       </c>
       <c r="D140" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>3.641</v>
+        <v>8.35</v>
       </c>
       <c r="D141" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>6.307</v>
+        <v>18.721</v>
       </c>
       <c r="D142" t="n">
-        <v>1.94</v>
+        <v>0.11</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -3706,7 +3706,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3729,341 +3729,341 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-21</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>18.455</v>
+        <v>10.686</v>
       </c>
       <c r="D144" t="n">
-        <v>3.05</v>
+        <v>2.19</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.21 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3.593</v>
+        <v>18.721</v>
       </c>
       <c r="D145" t="n">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>17.909</v>
+        <v>7.998</v>
       </c>
       <c r="D146" t="n">
-        <v>5.01</v>
+        <v>0.95</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>7.923</v>
+        <v>18.455</v>
       </c>
       <c r="D147" t="n">
-        <v>4.68</v>
+        <v>3.05</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>8.25</v>
+        <v>143</v>
       </c>
       <c r="D148" t="n">
-        <v>2.17</v>
+        <v>3.62</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>138</v>
+        <v>6.307</v>
       </c>
       <c r="D149" t="n">
-        <v>-0.72</v>
+        <v>1.94</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>24.167</v>
+        <v>3.641</v>
       </c>
       <c r="D150" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>1.086</v>
+        <v>24.333</v>
       </c>
       <c r="D151" t="n">
-        <v>0.93</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>18.7</v>
+        <v>0.986</v>
       </c>
       <c r="D152" t="n">
-        <v>0.64</v>
+        <v>1.44</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>6.187</v>
+        <v>10.457</v>
       </c>
       <c r="D153" t="n">
-        <v>0.03</v>
+        <v>1.1</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>0.972</v>
+        <v>8.35</v>
       </c>
       <c r="D154" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>10.343</v>
+        <v>1.11</v>
       </c>
       <c r="D155" t="n">
-        <v>5.69</v>
+        <v>2.21</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>17.782</v>
+        <v>2.763</v>
       </c>
       <c r="D156" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>2.72</v>
+        <v>18.091</v>
       </c>
       <c r="D157" t="n">
-        <v>0.74</v>
+        <v>1.74</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>17.782</v>
+        <v>18.7</v>
       </c>
       <c r="D158" t="n">
-        <v>1.5</v>
+        <v>0.64</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -4074,42 +4074,42 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>10.343</v>
+        <v>3.593</v>
       </c>
       <c r="D159" t="n">
-        <v>5.69</v>
+        <v>0.7</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>24.167</v>
+        <v>17.909</v>
       </c>
       <c r="D160" t="n">
-        <v>1.4</v>
+        <v>5.01</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -4120,364 +4120,364 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>0.972</v>
+        <v>7.923</v>
       </c>
       <c r="D161" t="n">
-        <v>1.25</v>
+        <v>4.68</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>1.086</v>
+        <v>8.25</v>
       </c>
       <c r="D162" t="n">
-        <v>0.93</v>
+        <v>2.17</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>7.923</v>
+        <v>138</v>
       </c>
       <c r="D163" t="n">
-        <v>4.68</v>
+        <v>-0.72</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>6.187</v>
+        <v>24.167</v>
       </c>
       <c r="D164" t="n">
-        <v>0.03</v>
+        <v>1.4</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>2.72</v>
+        <v>1.086</v>
       </c>
       <c r="D165" t="n">
-        <v>0.74</v>
+        <v>0.93</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>8.25</v>
+        <v>6.187</v>
       </c>
       <c r="D166" t="n">
-        <v>2.17</v>
+        <v>0.03</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>138</v>
+        <v>0.972</v>
       </c>
       <c r="D167" t="n">
-        <v>-0.72</v>
+        <v>1.25</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>18.7</v>
+        <v>10.343</v>
       </c>
       <c r="D168" t="n">
-        <v>0.64</v>
+        <v>5.69</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>17.909</v>
+        <v>17.782</v>
       </c>
       <c r="D169" t="n">
-        <v>5.01</v>
+        <v>1.5</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Oct.17 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3.593</v>
+        <v>2.72</v>
       </c>
       <c r="D170" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>17.909</v>
+        <v>17.782</v>
       </c>
       <c r="D171" t="n">
-        <v>5.01</v>
+        <v>1.5</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>0.972</v>
+        <v>24.167</v>
       </c>
       <c r="D172" t="n">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>2.72</v>
+        <v>10.343</v>
       </c>
       <c r="D173" t="n">
-        <v>0.74</v>
+        <v>5.69</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>10.343</v>
+        <v>3.593</v>
       </c>
       <c r="D174" t="n">
-        <v>5.69</v>
+        <v>0.7</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>8.25</v>
+        <v>17.909</v>
       </c>
       <c r="D175" t="n">
-        <v>2.17</v>
+        <v>5.01</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>138</v>
+        <v>18.7</v>
       </c>
       <c r="D176" t="n">
-        <v>-0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -4488,134 +4488,134 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>1.086</v>
+        <v>138</v>
       </c>
       <c r="D177" t="n">
-        <v>0.93</v>
+        <v>-0.72</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>17.782</v>
+        <v>8.25</v>
       </c>
       <c r="D178" t="n">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>7.946</v>
+        <v>2.72</v>
       </c>
       <c r="D179" t="n">
-        <v>4.98</v>
+        <v>0.74</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D180" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>6.187</v>
+        <v>7.923</v>
       </c>
       <c r="D181" t="n">
-        <v>0.03</v>
+        <v>4.68</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>3.593</v>
+        <v>1.086</v>
       </c>
       <c r="D182" t="n">
-        <v>0.7</v>
+        <v>0.93</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -4626,53 +4626,53 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>24.167</v>
+        <v>0.972</v>
       </c>
       <c r="D183" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Oct.17 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>18.7</v>
+        <v>10.343</v>
       </c>
       <c r="D184" t="n">
-        <v>0.64</v>
+        <v>5.69</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -4681,79 +4681,79 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>8.074999999999999</v>
+        <v>8.25</v>
       </c>
       <c r="D185" t="n">
-        <v>1.57</v>
+        <v>2.17</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>0.972</v>
+        <v>17.909</v>
       </c>
       <c r="D186" t="n">
-        <v>1.25</v>
+        <v>5.01</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>6.187</v>
+        <v>2.72</v>
       </c>
       <c r="D187" t="n">
-        <v>0.03</v>
+        <v>0.74</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>1.086</v>
+        <v>0.972</v>
       </c>
       <c r="D188" t="n">
-        <v>0.93</v>
+        <v>1.25</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4764,191 +4764,191 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>2.7</v>
+        <v>17.782</v>
       </c>
       <c r="D189" t="n">
-        <v>1.89</v>
+        <v>1.5</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>17.055</v>
+        <v>18.7</v>
       </c>
       <c r="D190" t="n">
-        <v>3.36</v>
+        <v>0.64</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>17.782</v>
+        <v>24.167</v>
       </c>
       <c r="D191" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>138</v>
+        <v>3.593</v>
       </c>
       <c r="D192" t="n">
-        <v>-0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>23.833</v>
+        <v>138</v>
       </c>
       <c r="D193" t="n">
-        <v>1.42</v>
+        <v>-0.72</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>7.522</v>
+        <v>1.086</v>
       </c>
       <c r="D194" t="n">
-        <v>4.2</v>
+        <v>0.93</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>9.715</v>
+        <v>6.187</v>
       </c>
       <c r="D195" t="n">
-        <v>3.72</v>
+        <v>0.03</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Oct.16 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3.593</v>
+        <v>7.946</v>
       </c>
       <c r="D196" t="n">
-        <v>0.7</v>
+        <v>4.98</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.17 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -4971,42 +4971,42 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>9.433</v>
+        <v>8.074999999999999</v>
       </c>
       <c r="D198" t="n">
-        <v>4.81</v>
+        <v>1.57</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>138</v>
+        <v>18.7</v>
       </c>
       <c r="D199" t="n">
-        <v>-0.72</v>
+        <v>0.64</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
@@ -5040,352 +5040,352 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>17.782</v>
+        <v>2.7</v>
       </c>
       <c r="D201" t="n">
-        <v>1.5</v>
+        <v>1.89</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>7.95</v>
+        <v>17.055</v>
       </c>
       <c r="D202" t="n">
-        <v>2.25</v>
+        <v>3.36</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>23.5</v>
+        <v>3.593</v>
       </c>
       <c r="D203" t="n">
-        <v>3.68</v>
+        <v>0.7</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>18.7</v>
+        <v>9.715</v>
       </c>
       <c r="D204" t="n">
-        <v>0.64</v>
+        <v>3.72</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>6.187</v>
+        <v>7.522</v>
       </c>
       <c r="D205" t="n">
-        <v>0.03</v>
+        <v>4.2</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3.593</v>
+        <v>23.833</v>
       </c>
       <c r="D206" t="n">
-        <v>0.7</v>
+        <v>1.42</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.16 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>2.65</v>
+        <v>138</v>
       </c>
       <c r="D207" t="n">
-        <v>1.42</v>
+        <v>-0.72</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>7.219</v>
+        <v>17.782</v>
       </c>
       <c r="D208" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>16.5</v>
+        <v>6.187</v>
       </c>
       <c r="D209" t="n">
-        <v>3.66</v>
+        <v>0.03</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Oct.15 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>18.7</v>
+        <v>6.187</v>
       </c>
       <c r="D210" t="n">
-        <v>0.64</v>
+        <v>0.03</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>7.775</v>
+        <v>16.5</v>
       </c>
       <c r="D211" t="n">
-        <v>0.65</v>
+        <v>3.66</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>17.782</v>
+        <v>7.219</v>
       </c>
       <c r="D212" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>15.918</v>
+        <v>0.972</v>
       </c>
       <c r="D213" t="n">
-        <v>1.8</v>
+        <v>1.25</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>22.667</v>
+        <v>9.433</v>
       </c>
       <c r="D214" t="n">
-        <v>1.04</v>
+        <v>4.81</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>0.972</v>
+        <v>138</v>
       </c>
       <c r="D215" t="n">
-        <v>1.25</v>
+        <v>-0.72</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5408,295 +5408,295 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>2.613</v>
+        <v>17.782</v>
       </c>
       <c r="D217" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>6.187</v>
+        <v>7.95</v>
       </c>
       <c r="D218" t="n">
-        <v>0.03</v>
+        <v>2.25</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3.593</v>
+        <v>23.5</v>
       </c>
       <c r="D219" t="n">
-        <v>0.7</v>
+        <v>3.68</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>7.059</v>
+        <v>18.7</v>
       </c>
       <c r="D220" t="n">
-        <v>0.79</v>
+        <v>0.64</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>9</v>
+        <v>3.593</v>
       </c>
       <c r="D221" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Oct.14 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>138</v>
+        <v>2.65</v>
       </c>
       <c r="D222" t="n">
-        <v>-0.72</v>
+        <v>1.42</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.15 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>7.004</v>
+        <v>7.775</v>
       </c>
       <c r="D223" t="n">
-        <v>2.16</v>
+        <v>0.65</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3.593</v>
+        <v>18.7</v>
       </c>
       <c r="D224" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>22.433</v>
+        <v>138</v>
       </c>
       <c r="D225" t="n">
-        <v>3.14</v>
+        <v>-0.72</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>7.725</v>
+        <v>9</v>
       </c>
       <c r="D226" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.5</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>8.867000000000001</v>
+        <v>7.059</v>
       </c>
       <c r="D227" t="n">
-        <v>3.38</v>
+        <v>0.79</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>18.7</v>
+        <v>3.593</v>
       </c>
       <c r="D228" t="n">
-        <v>0.64</v>
+        <v>0.7</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>0.972</v>
+        <v>6.187</v>
       </c>
       <c r="D229" t="n">
-        <v>1.25</v>
+        <v>0.03</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
@@ -5707,65 +5707,65 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>138</v>
+        <v>2.613</v>
       </c>
       <c r="D230" t="n">
-        <v>-0.72</v>
+        <v>0.5</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>17.782</v>
+        <v>1.086</v>
       </c>
       <c r="D231" t="n">
-        <v>1.5</v>
+        <v>0.93</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>1.086</v>
+        <v>0.972</v>
       </c>
       <c r="D232" t="n">
-        <v>0.93</v>
+        <v>1.25</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
@@ -5776,191 +5776,191 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>2.6</v>
+        <v>22.667</v>
       </c>
       <c r="D233" t="n">
-        <v>0.97</v>
+        <v>1.04</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>6.187</v>
+        <v>15.918</v>
       </c>
       <c r="D234" t="n">
-        <v>0.03</v>
+        <v>1.8</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.6 2025    14:40 </t>
+          <t>Oct.14 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>15.636</v>
+        <v>17.782</v>
       </c>
       <c r="D235" t="n">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Oct.13 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>1.076</v>
+        <v>138</v>
       </c>
       <c r="D236" t="n">
-        <v>1.41</v>
+        <v>-0.72</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>6.185</v>
+        <v>7.004</v>
       </c>
       <c r="D237" t="n">
-        <v>0.41</v>
+        <v>2.16</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>2.575</v>
+        <v>3.593</v>
       </c>
       <c r="D238" t="n">
-        <v>2.47</v>
+        <v>0.7</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3.568</v>
+        <v>22.433</v>
       </c>
       <c r="D239" t="n">
-        <v>0.68</v>
+        <v>3.14</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>6.856</v>
+        <v>7.725</v>
       </c>
       <c r="D240" t="n">
-        <v>1.57</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -5969,44 +5969,44 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>8.577</v>
+        <v>8.867000000000001</v>
       </c>
       <c r="D241" t="n">
-        <v>1.23</v>
+        <v>3.38</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>7.663</v>
+        <v>18.7</v>
       </c>
       <c r="D242" t="n">
-        <v>0.5</v>
+        <v>0.64</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -6015,33 +6015,33 @@
         </is>
       </c>
       <c r="C243" t="n">
-        <v>0.96</v>
+        <v>0.972</v>
       </c>
       <c r="D243" t="n">
-        <v>0.74</v>
+        <v>1.25</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>138</v>
+        <v>17.782</v>
       </c>
       <c r="D244" t="n">
-        <v>-0.72</v>
+        <v>1.5</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -6052,111 +6052,111 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>18.7</v>
+        <v>1.086</v>
       </c>
       <c r="D245" t="n">
-        <v>0.64</v>
+        <v>0.93</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>15.218</v>
+        <v>2.6</v>
       </c>
       <c r="D246" t="n">
-        <v>1.7</v>
+        <v>0.97</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>21.75</v>
+        <v>6.187</v>
       </c>
       <c r="D247" t="n">
-        <v>1.52</v>
+        <v>0.03</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Oct.10 2025    18:10</t>
+          <t xml:space="preserve">Oct.6 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>2025-10-11</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>17.782</v>
+        <v>15.636</v>
       </c>
       <c r="D248" t="n">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.13 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>0.96</v>
+        <v>6.185</v>
       </c>
       <c r="D249" t="n">
-        <v>0.74</v>
+        <v>0.41</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
@@ -6167,180 +6167,180 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>21.188</v>
+        <v>1.076</v>
       </c>
       <c r="D250" t="n">
-        <v>0.71</v>
+        <v>1.41</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>138</v>
+        <v>2.575</v>
       </c>
       <c r="D251" t="n">
-        <v>-0.72</v>
+        <v>2.47</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>8.327999999999999</v>
+        <v>17.782</v>
       </c>
       <c r="D252" t="n">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>2.475</v>
+        <v>21.75</v>
       </c>
       <c r="D253" t="n">
-        <v>1.02</v>
+        <v>1.52</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>1.076</v>
+        <v>15.218</v>
       </c>
       <c r="D254" t="n">
-        <v>1.41</v>
+        <v>1.7</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Sep.29 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>14.573</v>
+        <v>18.7</v>
       </c>
       <c r="D255" t="n">
-        <v>1.78</v>
+        <v>0.64</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>7.513</v>
+        <v>138</v>
       </c>
       <c r="D256" t="n">
-        <v>0.85</v>
+        <v>-0.72</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>3.568</v>
+        <v>0.96</v>
       </c>
       <c r="D257" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -6351,53 +6351,53 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>18.7</v>
+        <v>7.663</v>
       </c>
       <c r="D258" t="n">
-        <v>0.64</v>
+        <v>0.5</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>17.782</v>
+        <v>8.577</v>
       </c>
       <c r="D259" t="n">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Oct.6 2025    14:40</t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -6406,33 +6406,33 @@
         </is>
       </c>
       <c r="C260" t="n">
-        <v>6.584</v>
+        <v>6.856</v>
       </c>
       <c r="D260" t="n">
-        <v>0.61</v>
+        <v>1.57</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.8 2025    14:40 </t>
+          <t>Oct.10 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>2025-10-08</t>
+          <t>2025-10-11</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>6.185</v>
+        <v>3.568</v>
       </c>
       <c r="D261" t="n">
-        <v>0.41</v>
+        <v>0.68</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
@@ -6443,7 +6443,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>2025-10-02</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -6452,297 +6452,297 @@
         </is>
       </c>
       <c r="C262" t="n">
-        <v>7.949</v>
+        <v>8.327999999999999</v>
       </c>
       <c r="D262" t="n">
-        <v>0.9</v>
+        <v>1.04</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.2 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>2025-10-01</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>7.816</v>
+        <v>21.188</v>
       </c>
       <c r="D263" t="n">
-        <v>1.82</v>
+        <v>0.71</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t xml:space="preserve">Oct.1 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>2025-09-30</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>7.573</v>
+        <v>2.475</v>
       </c>
       <c r="D264" t="n">
-        <v>0.5</v>
+        <v>1.02</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.30 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>2025-09-29</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>7.535</v>
+        <v>138</v>
       </c>
       <c r="D265" t="n">
-        <v>0.8</v>
+        <v>-0.72</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.29 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>2025-09-26</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>7.475</v>
+        <v>0.96</v>
       </c>
       <c r="D266" t="n">
-        <v>0.86</v>
+        <v>0.74</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.26 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>2025-09-25</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>7.349</v>
+        <v>6.185</v>
       </c>
       <c r="D267" t="n">
-        <v>2.21</v>
+        <v>0.41</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.25 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>2025-09-24</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>7.109</v>
+        <v>6.584</v>
       </c>
       <c r="D268" t="n">
-        <v>1.43</v>
+        <v>0.61</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.24 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>2025-09-23</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>7.009</v>
+        <v>17.782</v>
       </c>
       <c r="D269" t="n">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.23 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>2025-09-22</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>6.909</v>
+        <v>18.7</v>
       </c>
       <c r="D270" t="n">
-        <v>0.95</v>
+        <v>0.64</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.22 2025    14:40 </t>
+          <t>Oct.6 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>2025-09-19</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>6.776</v>
+        <v>3.568</v>
       </c>
       <c r="D271" t="n">
-        <v>0.73</v>
+        <v>0.68</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.19 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>2025-09-18</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>6.612</v>
+        <v>7.513</v>
       </c>
       <c r="D272" t="n">
-        <v>1.47</v>
+        <v>0.85</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.18 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>2025-09-17</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>6.325</v>
+        <v>14.573</v>
       </c>
       <c r="D273" t="n">
-        <v>0.99</v>
+        <v>1.78</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.17 2025    14:40 </t>
+          <t xml:space="preserve">Oct.8 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>2025-09-16</t>
+          <t>2025-10-08</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>6.231</v>
+        <v>1.076</v>
       </c>
       <c r="D274" t="n">
-        <v>0.24</v>
+        <v>1.41</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t xml:space="preserve">Sep.16 2025    14:40 </t>
+          <t>Sep.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2025-09-15</t>
+          <t>2025-10-02</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -6751,21 +6751,21 @@
         </is>
       </c>
       <c r="C275" t="n">
-        <v>6.216</v>
+        <v>7.949</v>
       </c>
       <c r="D275" t="n">
-        <v>0.26</v>
+        <v>0.9</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Sep.15 2025    14:39</t>
+          <t xml:space="preserve">Oct.2 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>2025-09-12</t>
+          <t>2025-10-01</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -6774,21 +6774,21 @@
         </is>
       </c>
       <c r="C276" t="n">
-        <v>6.2</v>
+        <v>7.816</v>
       </c>
       <c r="D276" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Sep.12 2025    14:38</t>
+          <t xml:space="preserve">Oct.1 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>2025-09-11</t>
+          <t>2025-09-30</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -6797,21 +6797,21 @@
         </is>
       </c>
       <c r="C277" t="n">
-        <v>6.083</v>
+        <v>7.573</v>
       </c>
       <c r="D277" t="n">
-        <v>0.26</v>
+        <v>0.5</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Sep.11 2025    14:37</t>
+          <t xml:space="preserve">Sep.30 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>2025-09-10</t>
+          <t>2025-09-29</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -6820,21 +6820,21 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>6.05</v>
+        <v>7.535</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Sep.10 2025    14:36</t>
+          <t xml:space="preserve">Sep.29 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>2025-09-09</t>
+          <t>2025-09-26</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -6843,21 +6843,21 @@
         </is>
       </c>
       <c r="C279" t="n">
-        <v>6.05</v>
+        <v>7.475</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>0.86</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Sep.09 2025    14:36</t>
+          <t xml:space="preserve">Sep.26 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>2025-09-08</t>
+          <t>2025-09-25</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -6866,21 +6866,21 @@
         </is>
       </c>
       <c r="C280" t="n">
-        <v>6.05</v>
+        <v>7.349</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Sep.08 2025    14:36</t>
+          <t xml:space="preserve">Sep.25 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>2025-09-05</t>
+          <t>2025-09-24</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -6889,21 +6889,21 @@
         </is>
       </c>
       <c r="C281" t="n">
-        <v>6.05</v>
+        <v>7.109</v>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Sep.05 2025    14:36</t>
+          <t xml:space="preserve">Sep.24 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>2025-08-29</t>
+          <t>2025-09-23</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -6912,21 +6912,21 @@
         </is>
       </c>
       <c r="C282" t="n">
-        <v>6.17</v>
+        <v>7.009</v>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Aug.29 2025    14:36</t>
+          <t xml:space="preserve">Sep.23 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>2025-08-28</t>
+          <t>2025-09-22</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -6935,21 +6935,21 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>6.033</v>
+        <v>6.909</v>
       </c>
       <c r="D283" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Aug.28 2025    14:36</t>
+          <t xml:space="preserve">Sep.22 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>2025-08-27</t>
+          <t>2025-09-19</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -6958,21 +6958,21 @@
         </is>
       </c>
       <c r="C284" t="n">
-        <v>5.967</v>
+        <v>6.776</v>
       </c>
       <c r="D284" t="n">
-        <v>-0.33</v>
+        <v>0.73</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
-          <t>Aug.27 2025    14:36</t>
+          <t xml:space="preserve">Sep.19 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>2025-08-26</t>
+          <t>2025-09-18</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -6981,21 +6981,21 @@
         </is>
       </c>
       <c r="C285" t="n">
-        <v>6.017</v>
+        <v>6.612</v>
       </c>
       <c r="D285" t="n">
-        <v>-0.27</v>
+        <v>1.47</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Aug.26 2025    14:36</t>
+          <t xml:space="preserve">Sep.18 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>2025-08-25</t>
+          <t>2025-09-17</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -7004,21 +7004,21 @@
         </is>
       </c>
       <c r="C286" t="n">
-        <v>6.033</v>
+        <v>6.325</v>
       </c>
       <c r="D286" t="n">
-        <v>-0.23</v>
+        <v>0.99</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Aug.25 2025    14:36</t>
+          <t xml:space="preserve">Sep.17 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>2025-08-22</t>
+          <t>2025-09-16</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -7027,35 +7027,334 @@
         </is>
       </c>
       <c r="C287" t="n">
-        <v>6.05</v>
+        <v>6.231</v>
       </c>
       <c r="D287" t="n">
-        <v>-0.54</v>
+        <v>0.24</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Aug.22 2025    14:36</t>
+          <t xml:space="preserve">Sep.16 2025    14:40 </t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
+          <t>2025-09-15</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>6.216</v>
+      </c>
+      <c r="D288" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Sep.15 2025    14:39</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>2025-09-12</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Sep.12 2025    14:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>2025-09-11</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>6.083</v>
+      </c>
+      <c r="D290" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Sep.11 2025    14:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>2025-09-10</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D291" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Sep.10 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>2025-09-09</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D292" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Sep.09 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>2025-09-08</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D293" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Sep.08 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>2025-09-05</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D294" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Sep.05 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>2025-08-29</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="D295" t="n">
+        <v>0</v>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Aug.29 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>2025-08-28</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D296" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Aug.28 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>2025-08-27</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>5.967</v>
+      </c>
+      <c r="D297" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>Aug.27 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>2025-08-26</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>6.017</v>
+      </c>
+      <c r="D298" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>Aug.26 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2025-08-25</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>6.033</v>
+      </c>
+      <c r="D299" t="n">
+        <v>-0.23</v>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Aug.25 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>2025-08-22</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="D300" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>Aug.22 2025    14:36</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
           <t>2025-08-19</t>
         </is>
       </c>
-      <c r="B288" t="inlineStr">
+      <c r="B301" t="inlineStr">
         <is>
           <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
-      <c r="C288" t="n">
+      <c r="C301" t="n">
         <v>6.167</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D301" t="n">
         <v>0</v>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="E301" t="inlineStr">
         <is>
           <t>Aug.19 2025    14:36</t>
         </is>

--- a/DRAMeXchange_Semi_price.xlsx
+++ b/DRAMeXchange_Semi_price.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E301"/>
+  <dimension ref="A1:E314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,7 +463,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -486,7 +486,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,7 +509,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -532,7 +532,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -555,7 +555,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -578,7 +578,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -601,7 +601,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -640,14 +640,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Oct.31 2025    14:40</t>
+          <t>Oct.31 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -663,14 +663,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Oct.31 2025    14:40</t>
+          <t>Oct.31 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -679,21 +679,21 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>10.195</v>
+        <v>10.078</v>
       </c>
       <c r="D11" t="n">
-        <v>3.16</v>
+        <v>1.97</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Oct.31 2025    14:40</t>
+          <t>Oct.31 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -709,14 +709,14 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Oct.31 2025    14:40</t>
+          <t>Oct.31 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -725,21 +725,21 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>27.833</v>
+        <v>27.667</v>
       </c>
       <c r="D13" t="n">
-        <v>3.09</v>
+        <v>2.47</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Oct.31 2025    14:40</t>
+          <t>Oct.31 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-31</t>
+          <t>2025-11-01</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -748,21 +748,21 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15.563</v>
+        <v>15.488</v>
       </c>
       <c r="D14" t="n">
-        <v>2.29</v>
+        <v>1.79</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Oct.31 2025    14:40</t>
+          <t>Oct.31 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -785,7 +785,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -808,7 +808,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -817,21 +817,21 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>15.154</v>
+        <v>15.563</v>
       </c>
       <c r="D17" t="n">
-        <v>3.41</v>
+        <v>2.29</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -840,21 +840,21 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>27</v>
+        <v>27.833</v>
       </c>
       <c r="D18" t="n">
-        <v>2.4</v>
+        <v>3.09</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -863,21 +863,21 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>24.55</v>
+        <v>25.5</v>
       </c>
       <c r="D19" t="n">
-        <v>4.2</v>
+        <v>3.87</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -886,21 +886,21 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>9.906000000000001</v>
+        <v>10.195</v>
       </c>
       <c r="D20" t="n">
-        <v>4.02</v>
+        <v>3.16</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -909,21 +909,21 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>8.949999999999999</v>
+        <v>9.15</v>
       </c>
       <c r="D21" t="n">
-        <v>1.71</v>
+        <v>2.24</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -932,21 +932,21 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.326</v>
+        <v>3.336</v>
       </c>
       <c r="D22" t="n">
-        <v>2.34</v>
+        <v>0.3</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Oct.30 2025    14:40</t>
+          <t>Oct.31 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -969,7 +969,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -992,7 +992,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1015,7 +1015,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1038,7 +1038,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-30</t>
+          <t>2025-10-31</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1061,30 +1061,30 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>14.654</v>
+        <v>18.364</v>
       </c>
       <c r="D28" t="n">
-        <v>4.67</v>
+        <v>1.51</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1093,21 +1093,21 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26.367</v>
+        <v>27</v>
       </c>
       <c r="D29" t="n">
-        <v>3.83</v>
+        <v>2.4</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1130,30 +1130,30 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>18.364</v>
+        <v>15.154</v>
       </c>
       <c r="D31" t="n">
-        <v>1.51</v>
+        <v>3.41</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1176,7 +1176,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1199,7 +1199,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1222,7 +1222,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1245,7 +1245,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1268,7 +1268,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1277,21 +1277,21 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.25</v>
+        <v>3.326</v>
       </c>
       <c r="D37" t="n">
-        <v>1.56</v>
+        <v>2.34</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1300,21 +1300,21 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>8.800000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.86</v>
+        <v>1.71</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9.476000000000001</v>
+        <v>9.906000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>3.97</v>
+        <v>4.02</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-29</t>
+          <t>2025-10-30</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1346,21 +1346,21 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>23.5</v>
+        <v>24.55</v>
       </c>
       <c r="D40" t="n">
-        <v>4.44</v>
+        <v>4.2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oct.29 2025    14:40</t>
+          <t>Oct.30 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1383,19 +1383,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3.714</v>
+        <v>160</v>
       </c>
       <c r="D42" t="n">
-        <v>2.01</v>
+        <v>11.89</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1406,42 +1406,42 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>25.395</v>
+        <v>14.654</v>
       </c>
       <c r="D43" t="n">
-        <v>2.55</v>
+        <v>4.67</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>18.364</v>
+        <v>3.714</v>
       </c>
       <c r="D44" t="n">
-        <v>1.51</v>
+        <v>2.01</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1452,76 +1452,76 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>13.969</v>
+        <v>18.364</v>
       </c>
       <c r="D45" t="n">
-        <v>5.03</v>
+        <v>1.51</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>160</v>
+        <v>26.367</v>
       </c>
       <c r="D46" t="n">
-        <v>11.89</v>
+        <v>3.83</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3.2</v>
+        <v>23.5</v>
       </c>
       <c r="D47" t="n">
-        <v>2.4</v>
+        <v>4.44</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1530,67 +1530,67 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>9.042999999999999</v>
+        <v>9.476000000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>4.96</v>
+        <v>3.97</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>6.407</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>1.59</v>
+        <v>0.86</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.024</v>
+        <v>3.25</v>
       </c>
       <c r="D50" t="n">
-        <v>3.85</v>
+        <v>1.56</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.29 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1613,134 +1613,134 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>22.35</v>
+        <v>1.024</v>
       </c>
       <c r="D52" t="n">
-        <v>4.68</v>
+        <v>3.85</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2025-10-28</t>
+          <t>2025-10-29</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>8.725</v>
+        <v>6.407</v>
       </c>
       <c r="D53" t="n">
-        <v>1.01</v>
+        <v>1.59</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Oct.28 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>13.233</v>
+        <v>3.2</v>
       </c>
       <c r="D54" t="n">
-        <v>4.9</v>
+        <v>2.4</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>24.763</v>
+        <v>13.969</v>
       </c>
       <c r="D55" t="n">
-        <v>0.17</v>
+        <v>5.03</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3.714</v>
+        <v>25.395</v>
       </c>
       <c r="D56" t="n">
-        <v>2.01</v>
+        <v>2.55</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>160</v>
+        <v>3.714</v>
       </c>
       <c r="D57" t="n">
-        <v>11.89</v>
+        <v>2.01</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1751,134 +1751,134 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19.088</v>
+        <v>9.042999999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>1.96</v>
+        <v>4.96</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3.125</v>
+        <v>19.088</v>
       </c>
       <c r="D59" t="n">
-        <v>2.86</v>
+        <v>1.96</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>8.616</v>
+        <v>160</v>
       </c>
       <c r="D60" t="n">
-        <v>1.6</v>
+        <v>11.89</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>8.638</v>
+        <v>18.364</v>
       </c>
       <c r="D61" t="n">
-        <v>2.53</v>
+        <v>1.51</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>21</v>
+        <v>6.407</v>
       </c>
       <c r="D62" t="n">
-        <v>2.19</v>
+        <v>1.59</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Oct.27 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>1.152</v>
+        <v>1.024</v>
       </c>
       <c r="D63" t="n">
-        <v>3.78</v>
+        <v>3.85</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1889,19 +1889,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>1.024</v>
+        <v>1.152</v>
       </c>
       <c r="D64" t="n">
-        <v>3.85</v>
+        <v>3.78</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1912,53 +1912,53 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>6.407</v>
+        <v>22.35</v>
       </c>
       <c r="D65" t="n">
-        <v>1.59</v>
+        <v>4.68</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>2025-10-27</t>
+          <t>2025-10-28</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>18.364</v>
+        <v>8.725</v>
       </c>
       <c r="D66" t="n">
-        <v>1.51</v>
+        <v>1.01</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Oct.20 2025    14:40</t>
+          <t>Oct.28 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1967,113 +1967,113 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>20.55</v>
+        <v>21</v>
       </c>
       <c r="D67" t="n">
-        <v>3.79</v>
+        <v>2.19</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12.615</v>
+        <v>8.638</v>
       </c>
       <c r="D68" t="n">
-        <v>6.3</v>
+        <v>2.53</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>6.307</v>
+        <v>13.233</v>
       </c>
       <c r="D69" t="n">
-        <v>1.94</v>
+        <v>4.9</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3.641</v>
+        <v>24.763</v>
       </c>
       <c r="D70" t="n">
-        <v>1.34</v>
+        <v>0.17</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>18.091</v>
+        <v>3.714</v>
       </c>
       <c r="D71" t="n">
-        <v>1.74</v>
+        <v>2.01</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2082,205 +2082,205 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="D72" t="n">
-        <v>3.62</v>
+        <v>11.89</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>24.721</v>
+        <v>19.088</v>
       </c>
       <c r="D73" t="n">
-        <v>0.63</v>
+        <v>1.96</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>18.721</v>
+        <v>3.125</v>
       </c>
       <c r="D74" t="n">
-        <v>0.11</v>
+        <v>2.86</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3.038</v>
+        <v>8.616</v>
       </c>
       <c r="D75" t="n">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.27 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>8.48</v>
+        <v>18.364</v>
       </c>
       <c r="D76" t="n">
-        <v>1.97</v>
+        <v>1.51</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>8.425000000000001</v>
+        <v>6.407</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6</v>
+        <v>1.59</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>1.11</v>
+        <v>1.024</v>
       </c>
       <c r="D78" t="n">
-        <v>2.21</v>
+        <v>3.85</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>2025-10-26</t>
+          <t>2025-10-27</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>0.986</v>
+        <v>1.152</v>
       </c>
       <c r="D79" t="n">
-        <v>1.44</v>
+        <v>3.78</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.20 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>18.091</v>
+        <v>8.48</v>
       </c>
       <c r="D80" t="n">
-        <v>1.74</v>
+        <v>1.97</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2303,7 +2303,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2326,42 +2326,42 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>1.11</v>
+        <v>20.55</v>
       </c>
       <c r="D83" t="n">
-        <v>2.21</v>
+        <v>3.79</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>8.425000000000001</v>
+        <v>12.615</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6</v>
+        <v>6.3</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2372,65 +2372,65 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>8.48</v>
+        <v>3.641</v>
       </c>
       <c r="D85" t="n">
-        <v>1.97</v>
+        <v>1.34</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3.038</v>
+        <v>18.091</v>
       </c>
       <c r="D86" t="n">
-        <v>2.12</v>
+        <v>1.74</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Oct.24 2025    18:10</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>18.721</v>
+        <v>143</v>
       </c>
       <c r="D87" t="n">
-        <v>0.11</v>
+        <v>3.62</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2464,19 +2464,19 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>143</v>
+        <v>18.721</v>
       </c>
       <c r="D89" t="n">
-        <v>3.62</v>
+        <v>0.11</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2487,19 +2487,19 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>12.615</v>
+        <v>3.038</v>
       </c>
       <c r="D90" t="n">
-        <v>6.3</v>
+        <v>2.12</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -2510,19 +2510,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>20.55</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D91" t="n">
-        <v>3.79</v>
+        <v>0.6</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2533,19 +2533,19 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>2025-10-25</t>
+          <t>2025-10-26</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3.641</v>
+        <v>1.11</v>
       </c>
       <c r="D92" t="n">
-        <v>1.34</v>
+        <v>2.21</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -2556,19 +2556,19 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>18.721</v>
+        <v>6.307</v>
       </c>
       <c r="D93" t="n">
-        <v>0.11</v>
+        <v>1.94</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -2579,157 +2579,157 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>12.378</v>
+        <v>0.986</v>
       </c>
       <c r="D94" t="n">
-        <v>4.31</v>
+        <v>1.44</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>20.55</v>
+        <v>3.641</v>
       </c>
       <c r="D95" t="n">
-        <v>3.79</v>
+        <v>1.34</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>6.307</v>
+        <v>20.55</v>
       </c>
       <c r="D96" t="n">
-        <v>1.94</v>
+        <v>3.79</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.986</v>
+        <v>12.615</v>
       </c>
       <c r="D97" t="n">
-        <v>1.44</v>
+        <v>6.3</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>8.425000000000001</v>
+        <v>143</v>
       </c>
       <c r="D98" t="n">
-        <v>0.6</v>
+        <v>3.62</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3.038</v>
+        <v>24.721</v>
       </c>
       <c r="D99" t="n">
-        <v>2.12</v>
+        <v>0.63</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1.11</v>
+        <v>18.721</v>
       </c>
       <c r="D100" t="n">
-        <v>2.21</v>
+        <v>0.11</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -2740,99 +2740,99 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>143</v>
+        <v>3.038</v>
       </c>
       <c r="D101" t="n">
-        <v>3.62</v>
+        <v>2.12</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3.641</v>
+        <v>8.48</v>
       </c>
       <c r="D102" t="n">
-        <v>1.34</v>
+        <v>1.97</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>24.721</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.63</v>
+        <v>0.6</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.24 2025    18:10</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>8.48</v>
+        <v>1.11</v>
       </c>
       <c r="D104" t="n">
-        <v>1.97</v>
+        <v>2.21</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Oct.24 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>2025-10-24</t>
+          <t>2025-10-25</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2855,226 +2855,226 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>11.867</v>
+        <v>143</v>
       </c>
       <c r="D106" t="n">
-        <v>5.33</v>
+        <v>3.62</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1.11</v>
+        <v>12.378</v>
       </c>
       <c r="D107" t="n">
-        <v>2.21</v>
+        <v>4.31</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>19.8</v>
+        <v>18.721</v>
       </c>
       <c r="D108" t="n">
-        <v>2.86</v>
+        <v>0.11</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>0.986</v>
+        <v>20.55</v>
       </c>
       <c r="D109" t="n">
-        <v>1.44</v>
+        <v>3.79</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>8.375</v>
+        <v>6.307</v>
       </c>
       <c r="D110" t="n">
-        <v>0.14</v>
+        <v>1.94</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>24.566</v>
+        <v>0.986</v>
       </c>
       <c r="D111" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>8.316000000000001</v>
+        <v>8.425000000000001</v>
       </c>
       <c r="D112" t="n">
-        <v>3.06</v>
+        <v>0.6</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3.641</v>
+        <v>3.038</v>
       </c>
       <c r="D113" t="n">
-        <v>1.34</v>
+        <v>2.12</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>2.975</v>
+        <v>1.11</v>
       </c>
       <c r="D114" t="n">
-        <v>2.83</v>
+        <v>2.21</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Oct.23 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>18.721</v>
+        <v>3.641</v>
       </c>
       <c r="D115" t="n">
-        <v>0.11</v>
+        <v>1.34</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -3085,65 +3085,65 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>18.091</v>
+        <v>24.721</v>
       </c>
       <c r="D116" t="n">
-        <v>1.74</v>
+        <v>0.63</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>6.307</v>
+        <v>8.48</v>
       </c>
       <c r="D117" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.24 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>2025-10-23</t>
+          <t>2025-10-24</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>143</v>
+        <v>18.091</v>
       </c>
       <c r="D118" t="n">
-        <v>3.62</v>
+        <v>1.74</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -3154,7 +3154,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -3163,56 +3163,56 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>19.25</v>
+        <v>19.8</v>
       </c>
       <c r="D119" t="n">
-        <v>3.33</v>
+        <v>2.86</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>DDR5 16G (2Gx8) 4800/5600</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3.641</v>
+        <v>11.867</v>
       </c>
       <c r="D120" t="n">
-        <v>1.34</v>
+        <v>5.33</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>SLC 2Gb 256MBx8</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>18.091</v>
+        <v>1.11</v>
       </c>
       <c r="D121" t="n">
-        <v>1.74</v>
+        <v>2.21</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -3223,88 +3223,88 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>DDR4 RDIMM 16GB 3200</t>
+          <t>DDR4 8Gb (512Mx16) 3200</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>143</v>
+        <v>8.375</v>
       </c>
       <c r="D122" t="n">
-        <v>3.62</v>
+        <v>0.14</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>DDR4 SODIMM 8GB 2666</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>18.721</v>
+        <v>24.566</v>
       </c>
       <c r="D123" t="n">
-        <v>0.11</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>2.893</v>
+        <v>143</v>
       </c>
       <c r="D124" t="n">
-        <v>2.84</v>
+        <v>3.62</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>1.11</v>
+        <v>6.307</v>
       </c>
       <c r="D125" t="n">
-        <v>2.21</v>
+        <v>1.94</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -3315,88 +3315,88 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>DDR5 16G (2Gx8) 4800/5600</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>11.267</v>
+        <v>18.091</v>
       </c>
       <c r="D126" t="n">
-        <v>4.88</v>
+        <v>1.74</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (512Mx16) 3200</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>8.363</v>
+        <v>18.721</v>
       </c>
       <c r="D127" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DDR4 8Gb (1Gx8) 3200</t>
+          <t>DDR3 4Gb 512Mx8 1600/1866</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>8.069000000000001</v>
+        <v>2.975</v>
       </c>
       <c r="D128" t="n">
-        <v>1.74</v>
+        <v>2.83</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>MLC 32Gb 4GBx8</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>0.986</v>
+        <v>3.641</v>
       </c>
       <c r="D129" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -3407,19 +3407,19 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>6.307</v>
+        <v>0.986</v>
       </c>
       <c r="D130" t="n">
-        <v>1.94</v>
+        <v>1.44</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
@@ -3430,65 +3430,65 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-23</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>24.368</v>
+        <v>8.316000000000001</v>
       </c>
       <c r="D131" t="n">
-        <v>0.14</v>
+        <v>3.06</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Oct.22 2025    14:40</t>
+          <t>Oct.23 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (1Gx16)3200</t>
+          <t>DDR4 16Gb (2Gx8)3200</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>24.333</v>
+        <v>19.25</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>SLC 2Gb 256MBx8</t>
+          <t>DDR4 UDIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>1.11</v>
+        <v>18.091</v>
       </c>
       <c r="D133" t="n">
-        <v>2.21</v>
+        <v>1.74</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -3499,42 +3499,42 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>DDR3 4Gb 512Mx8 1600/1866</t>
+          <t>DDR4 RDIMM 16GB 3200</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>2.813</v>
+        <v>143</v>
       </c>
       <c r="D134" t="n">
-        <v>1.81</v>
+        <v>3.62</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>DDR4 UDIMM 8GB 2666</t>
+          <t>DDR4 SODIMM 8GB 2666</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>18.091</v>
+        <v>18.721</v>
       </c>
       <c r="D135" t="n">
-        <v>1.74</v>
+        <v>0.11</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -3545,42 +3545,42 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>SLC 1Gb 128MBx8</t>
+          <t>DDR4 16Gb (1Gx16)3200</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>0.986</v>
+        <v>24.368</v>
       </c>
       <c r="D136" t="n">
-        <v>1.44</v>
+        <v>0.14</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Oct.13 2025    14:40</t>
+          <t>Oct.22 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>MLC 32Gb 4GBx8</t>
+          <t>MLC 64Gb 8GBx8</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3.641</v>
+        <v>6.307</v>
       </c>
       <c r="D137" t="n">
-        <v>1.34</v>
+        <v>1.94</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -3591,111 +3591,111 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>DDR4 16Gb (2Gx8)3200</t>
+          <t>SLC 1Gb 128MBx8</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>18.63</v>
+        <v>0.986</v>
       </c>
       <c r="D138" t="n">
-        <v>1.8</v>
+        <v>1.44</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Oct.21 2025    14:40</t>
+          <t>Oct.13 2025    14:40</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-22</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>MLC 64Gb 8GBx8</t>
+          <t>DDR4 8Gb (1Gx8) 3200</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>6.307</v>
+        <v>8.069000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>1.94</v>
+        <v>